--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -8951,7 +8951,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9002,7 +9002,7 @@
         <v>650</v>
       </c>
       <c r="G3" s="24">
-        <v>44662</v>
+        <v>44661</v>
       </c>
       <c r="H3" t="s">
         <v>707</v>
@@ -9091,7 +9091,7 @@
         <v>654</v>
       </c>
       <c r="G7" s="24">
-        <v>44663</v>
+        <v>44662</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -9163,7 +9163,7 @@
         <v>663</v>
       </c>
       <c r="G10" s="24">
-        <v>44668</v>
+        <v>44670</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="24">
-        <v>44669</v>
+        <v>44671</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="24">
-        <v>44678</v>
+        <v>44681</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="24">
-        <v>44679</v>
+        <v>44683</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="24">
-        <v>44680</v>
+        <v>44684</v>
       </c>
       <c r="H14">
         <v>7</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G15" s="24">
-        <v>44681</v>
+        <v>44685</v>
       </c>
       <c r="H15">
         <v>8</v>
@@ -9312,7 +9312,7 @@
     </row>
     <row r="17" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G17" s="24">
-        <v>44682</v>
+        <v>44686</v>
       </c>
       <c r="H17">
         <v>10</v>
@@ -9352,7 +9352,7 @@
     </row>
     <row r="19" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G19" s="24">
-        <v>44684</v>
+        <v>44688</v>
       </c>
       <c r="H19">
         <v>12</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="20" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G20" s="24">
-        <v>44686</v>
+        <v>44690</v>
       </c>
       <c r="H20">
         <v>13</v>
@@ -9398,7 +9398,7 @@
     </row>
     <row r="21" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G21" s="24">
-        <v>44688</v>
+        <v>44692</v>
       </c>
       <c r="H21">
         <v>14</v>
@@ -9418,7 +9418,7 @@
     </row>
     <row r="22" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G22" s="24">
-        <v>44692</v>
+        <v>44694</v>
       </c>
       <c r="H22" t="s">
         <v>739</v>
@@ -9485,7 +9485,7 @@
     </row>
     <row r="27" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G27" s="24">
-        <v>44693</v>
+        <v>44696</v>
       </c>
       <c r="H27" s="24">
         <v>44705</v>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -8951,7 +8951,7 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9163,7 +9163,7 @@
         <v>663</v>
       </c>
       <c r="G10" s="24">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G11" s="24">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -9206,7 +9206,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G12" s="24">
-        <v>44681</v>
+        <v>44682</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -9229,7 +9229,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G13" s="24">
-        <v>44683</v>
+        <v>44684</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -9252,7 +9252,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G14" s="24">
-        <v>44684</v>
+        <v>44685</v>
       </c>
       <c r="H14">
         <v>7</v>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="744">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2247,6 +2247,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the Automation with Python - try to explain each and every line of the codes. </t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2294,6 +2297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2326,7 +2335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2382,6 +2391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8948,10 +8958,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8978,14 +8988,18 @@
       <c r="A2" t="s">
         <v>649</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="27">
         <v>44659</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="26" t="s">
         <v>711</v>
       </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
       <c r="M2" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="O2">
         <v>12</v>
@@ -9001,8 +9015,8 @@
       <c r="A3" t="s">
         <v>650</v>
       </c>
-      <c r="G3" s="24">
-        <v>44661</v>
+      <c r="G3" s="29">
+        <v>44660</v>
       </c>
       <c r="H3" t="s">
         <v>707</v>
@@ -9495,11 +9509,97 @@
       </c>
     </row>
     <row r="28" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G28" s="24">
+        <v>44697</v>
+      </c>
       <c r="H28" s="24">
         <v>44713</v>
       </c>
       <c r="I28" t="s">
         <v>741</v>
+      </c>
+    </row>
+    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="24">
+        <v>44698</v>
+      </c>
+      <c r="H29" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G30" s="24">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G31" s="24">
+        <v>44700</v>
+      </c>
+    </row>
+    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
+      <c r="G32" s="24">
+        <v>44701</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="24">
+        <v>44702</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="24">
+        <v>44703</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="24">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="24">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="24">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="24">
+        <v>44707</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="24">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="24">
+        <v>44709</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="24">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="24">
+        <v>44711</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="24">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="24">
+        <v>44713</v>
       </c>
     </row>
   </sheetData>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -2240,9 +2240,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Interview Questions All Topics</t>
-  </si>
-  <si>
     <t>Depends On Prep</t>
   </si>
   <si>
@@ -2250,6 +2247,9 @@
   </si>
   <si>
     <t xml:space="preserve">Check the Automation with Python - try to explain each and every line of the codes. </t>
+  </si>
+  <si>
+    <t>Interview Questions All Topics - Revisit 50 Devops Questions</t>
   </si>
 </sst>
 </file>
@@ -2388,10 +2388,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7379,7 +7379,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -7396,7 +7396,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -7411,7 +7411,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -7426,7 +7426,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -7441,7 +7441,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -7456,7 +7456,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -7471,7 +7471,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -7483,7 +7483,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -7500,7 +7500,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -7512,7 +7512,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -7533,7 +7533,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -7545,7 +7545,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -7569,7 +7569,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -7583,7 +7583,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -7595,7 +7595,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -7607,7 +7607,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -7616,7 +7616,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -7625,19 +7625,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -7657,7 +7657,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -7675,7 +7675,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -7690,31 +7690,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -7725,7 +7725,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -7734,7 +7734,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -7743,7 +7743,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -7752,7 +7752,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -7761,7 +7761,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -7770,13 +7770,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -7787,7 +7787,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -7796,7 +7796,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -7805,7 +7805,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -7814,7 +7814,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -7823,7 +7823,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -7832,7 +7832,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -7841,7 +7841,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -7852,7 +7852,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -7861,7 +7861,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -7870,31 +7870,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -7905,37 +7905,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -8961,7 +8961,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9015,7 +9015,7 @@
       <c r="A3" t="s">
         <v>650</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>44660</v>
       </c>
       <c r="H3" t="s">
@@ -9447,7 +9447,7 @@
         <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="23" spans="7:17" x14ac:dyDescent="0.25">
@@ -9505,7 +9505,7 @@
         <v>44705</v>
       </c>
       <c r="I27" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="7:17" x14ac:dyDescent="0.25">
@@ -9516,7 +9516,7 @@
         <v>44713</v>
       </c>
       <c r="I28" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="29" spans="7:17" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>44698</v>
       </c>
       <c r="H29" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30" spans="7:17" x14ac:dyDescent="0.25">

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="744">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -8960,12 +8960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="7" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9324,7 +9325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G17" s="24">
         <v>44686</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H18">
         <v>11</v>
       </c>
@@ -9364,7 +9365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G19" s="24">
         <v>44688</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G20" s="24">
         <v>44690</v>
       </c>
@@ -9410,7 +9411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G21" s="24">
         <v>44692</v>
       </c>
@@ -9430,7 +9431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G22" s="24">
         <v>44694</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>729</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>730</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
         <v>731</v>
       </c>
@@ -9492,14 +9493,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="7:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="27" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G27" s="24">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
         <v>44696</v>
+      </c>
+      <c r="B27" t="s">
+        <v>743</v>
       </c>
       <c r="H27" s="24">
         <v>44705</v>
@@ -9508,9 +9512,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="28" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G28" s="24">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
         <v>44697</v>
+      </c>
+      <c r="B28" t="s">
+        <v>743</v>
       </c>
       <c r="H28" s="24">
         <v>44713</v>
@@ -9519,86 +9526,86 @@
         <v>740</v>
       </c>
     </row>
-    <row r="29" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="24">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
         <v>44698</v>
       </c>
       <c r="H29" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="30" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G30" s="24">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
         <v>44699</v>
       </c>
     </row>
-    <row r="31" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G31" s="24">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
         <v>44700</v>
       </c>
     </row>
-    <row r="32" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G32" s="24">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
         <v>44701</v>
       </c>
     </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="24">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
         <v>44702</v>
       </c>
     </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="24">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
         <v>44703</v>
       </c>
     </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="24">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
         <v>44704</v>
       </c>
     </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="24">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
         <v>44705</v>
       </c>
     </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="24">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="24">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
         <v>44707</v>
       </c>
     </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="24">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
         <v>44708</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="24">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
         <v>44709</v>
       </c>
     </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="24">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
         <v>44710</v>
       </c>
     </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="24">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
         <v>44711</v>
       </c>
     </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" s="24">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
         <v>44712</v>
       </c>
     </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" s="24">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
         <v>44713</v>
       </c>
     </row>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,21 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="TimeLines" sheetId="4" r:id="rId1"/>
-    <sheet name="DB-N" sheetId="1" r:id="rId2"/>
-    <sheet name="Topics" sheetId="6" r:id="rId3"/>
-    <sheet name="Accounts" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Versions" sheetId="9" r:id="rId1"/>
+    <sheet name="TimeLines" sheetId="4" r:id="rId2"/>
+    <sheet name="DB-N" sheetId="1" r:id="rId3"/>
+    <sheet name="Topics" sheetId="6" r:id="rId4"/>
+    <sheet name="Accounts" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan" sheetId="7" r:id="rId6"/>
+    <sheet name="To_Study" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="797">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2250,6 +2252,165 @@
   </si>
   <si>
     <t>Interview Questions All Topics - Revisit 50 Devops Questions</t>
+  </si>
+  <si>
+    <t>Terraform with Nana</t>
+  </si>
+  <si>
+    <t>Define Terraform</t>
+  </si>
+  <si>
+    <t>Diff Terraform  &amp; Ansible</t>
+  </si>
+  <si>
+    <t>1st Video</t>
+  </si>
+  <si>
+    <t>Terraform Use cases</t>
+  </si>
+  <si>
+    <t>Terraform Architecture</t>
+  </si>
+  <si>
+    <t>current state vs desired state</t>
+  </si>
+  <si>
+    <t>Config file format</t>
+  </si>
+  <si>
+    <t>Declarative vs Imperative</t>
+  </si>
+  <si>
+    <t>terraforn refresh cmd uses</t>
+  </si>
+  <si>
+    <t>terraform cmds</t>
+  </si>
+  <si>
+    <t>3.10.4</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>Latest</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>Terraform Version difference</t>
+  </si>
+  <si>
+    <t>Terraform latest version</t>
+  </si>
+  <si>
+    <t>Learn how to write all .tf files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are providers &amp; </t>
+  </si>
+  <si>
+    <t>How many providers I have worked with</t>
+  </si>
+  <si>
+    <t>What files are created when running trf init</t>
+  </si>
+  <si>
+    <t>what are data sources - creating resources within resources</t>
+  </si>
+  <si>
+    <t>3 folder</t>
+  </si>
+  <si>
+    <t>w f v</t>
+  </si>
+  <si>
+    <t>Adding and deleting resources &amp; remove</t>
+  </si>
+  <si>
+    <t>terraform state and the files it create</t>
+  </si>
+  <si>
+    <t>terraform outputs</t>
+  </si>
+  <si>
+    <t>wfv = watch full video</t>
+  </si>
+  <si>
+    <t>Terraform variables - all possibilities</t>
+  </si>
+  <si>
+    <t>Setting Environment variables</t>
+  </si>
+  <si>
+    <t>4 folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Git Repo for terraform config files. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">creating git ignore file. </t>
+  </si>
+  <si>
+    <t>variable string manipulation - 003</t>
+  </si>
+  <si>
+    <t>Remember all Resource Names</t>
+  </si>
+  <si>
+    <t>Create Trf resources with default resources</t>
+  </si>
+  <si>
+    <t>6 Video</t>
+  </si>
+  <si>
+    <t>Creating Security Group</t>
+  </si>
+  <si>
+    <t>Use Default Security Group</t>
+  </si>
+  <si>
+    <t>AMI Creation</t>
+  </si>
+  <si>
+    <t>Creating AWS instance with above resources</t>
+  </si>
+  <si>
+    <t>Creating AWS keypair automatically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is interpolation </t>
+  </si>
+  <si>
+    <t>10 video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commands used in loggin to AWS Instance. </t>
+  </si>
+  <si>
+    <t>Configure User_Data</t>
+  </si>
+  <si>
+    <t>TRF Provisioners - remote_exec &amp; local_exec &amp; connection block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disadvantages of Provisioners </t>
+  </si>
+  <si>
+    <t>5 folder</t>
+  </si>
+  <si>
+    <t>6 folder</t>
+  </si>
+  <si>
+    <t>Terraform Modules_Advantages &amp; Concepts</t>
+  </si>
+  <si>
+    <t>Creating Modules</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2297,12 +2458,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2335,7 +2490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2388,7 +2543,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2697,6 +2851,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>712</v>
+      </c>
+      <c r="C3" t="s">
+        <v>757</v>
+      </c>
+      <c r="D3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E371"/>
   <sheetViews>
@@ -7335,7 +7532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
@@ -7379,7 +7576,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -7396,7 +7593,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -7411,7 +7608,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -7426,7 +7623,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -7441,7 +7638,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -7456,7 +7653,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -7471,7 +7668,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -7483,7 +7680,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="28" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -7500,7 +7697,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -7512,7 +7709,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -7521,7 +7718,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -7533,7 +7730,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -7545,7 +7742,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -7557,7 +7754,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -7569,7 +7766,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="28" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -7583,7 +7780,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -7595,7 +7792,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -7607,7 +7804,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -7616,7 +7813,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -7625,19 +7822,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="28" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -7657,7 +7854,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -7675,7 +7872,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -7690,31 +7887,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="28" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -7725,7 +7922,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="28"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -7734,7 +7931,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="28"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -7743,7 +7940,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="28"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -7752,7 +7949,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="28"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -7761,7 +7958,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="28"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -7770,13 +7967,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="28" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -7787,7 +7984,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -7796,7 +7993,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="28"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -7805,7 +8002,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -7814,7 +8011,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="28"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -7823,7 +8020,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="28"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -7832,7 +8029,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="28"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -7841,7 +8038,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="28" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -7852,7 +8049,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -7861,7 +8058,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -7870,31 +8067,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="28"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="28" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -7905,37 +8102,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="28"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="28"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -7965,7 +8162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA39"/>
   <sheetViews>
@@ -8956,12 +9153,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9016,12 +9213,16 @@
       <c r="A3" t="s">
         <v>650</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>44660</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="26" t="s">
         <v>707</v>
       </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
       <c r="M3" t="s">
         <v>735</v>
       </c>
@@ -9135,7 +9336,7 @@
         <v>655</v>
       </c>
       <c r="G8" s="24">
-        <v>44667</v>
+        <v>44662</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -9607,6 +9808,255 @@
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44713</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>44662</v>
+      </c>
+      <c r="B2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>763</v>
+      </c>
+      <c r="C15" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>766</v>
+      </c>
+      <c r="C18" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>776</v>
+      </c>
+      <c r="C24" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>780</v>
+      </c>
+      <c r="C28" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>782</v>
+      </c>
+      <c r="C29" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>787</v>
+      </c>
+      <c r="C34" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>791</v>
+      </c>
+      <c r="C37" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>795</v>
+      </c>
+      <c r="C39" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>796</v>
       </c>
     </row>
   </sheetData>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -13,14 +13,15 @@
     <sheet name="Topics" sheetId="6" r:id="rId4"/>
     <sheet name="Accounts" sheetId="5" r:id="rId5"/>
     <sheet name="Plan" sheetId="7" r:id="rId6"/>
-    <sheet name="To_Study" sheetId="8" r:id="rId7"/>
+    <sheet name="To_Study_TRF" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="858">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2242,9 +2243,6 @@
     <t>Complete</t>
   </si>
   <si>
-    <t>Depends On Prep</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -2411,13 +2409,199 @@
   </si>
   <si>
     <t>Creating Modules</t>
+  </si>
+  <si>
+    <t>Need to learn deeply as I am mentioning in resume</t>
+  </si>
+  <si>
+    <t>Remote State TF State</t>
+  </si>
+  <si>
+    <t>Terrafrom workflow</t>
+  </si>
+  <si>
+    <t>Terraform Configuration syntax - Language basics</t>
+  </si>
+  <si>
+    <t>Terraform top level blocks</t>
+  </si>
+  <si>
+    <t>Fundamental Blocks</t>
+  </si>
+  <si>
+    <t>Variable Blocks</t>
+  </si>
+  <si>
+    <t>calling / referencing Blocks</t>
+  </si>
+  <si>
+    <t>Terraform resources block</t>
+  </si>
+  <si>
+    <t>TRF Block</t>
+  </si>
+  <si>
+    <t>Providers Block</t>
+  </si>
+  <si>
+    <t>Resources Block</t>
+  </si>
+  <si>
+    <t>I/P, O/P, Local Values</t>
+  </si>
+  <si>
+    <t>Data Sources, Modules block</t>
+  </si>
+  <si>
+    <t>Current state and desired state</t>
+  </si>
+  <si>
+    <t>Terraform state &amp; remote state</t>
+  </si>
+  <si>
+    <t>Terraform state commands</t>
+  </si>
+  <si>
+    <t>Provisioner types</t>
+  </si>
+  <si>
+    <t>Terraform modules</t>
+  </si>
+  <si>
+    <t>Terraform expressions</t>
+  </si>
+  <si>
+    <t>T Functions</t>
+  </si>
+  <si>
+    <t>Tdynamix Expressions</t>
+  </si>
+  <si>
+    <t>Tdynamic Blocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to DevOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operating Systems &amp; Linux Basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Version Control with Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Build Tools and Package Manager Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud &amp; Infrastructure as Service Basics with DigitalOcean</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artifact Repository Manager with Nexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Containers with Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Build Automation &amp; CI/CD with Jenkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AWS Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Container Orchestration with Kubernetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Infrastructure as Code with Terraform</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming Basics with Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automation with Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Configuration Management with Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monitoring with Prometheus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kubernetes on AWS EKS</t>
+  </si>
+  <si>
+    <t>Raj Saha Git</t>
+  </si>
+  <si>
+    <t>AWS Ranga Karanam</t>
+  </si>
+  <si>
+    <t>AWS Stephan SAA</t>
+  </si>
+  <si>
+    <t>AWS Stephan SOA</t>
+  </si>
+  <si>
+    <t>K8S Nana</t>
+  </si>
+  <si>
+    <t>K8S Srinath C</t>
+  </si>
+  <si>
+    <t>K8S Richard C</t>
+  </si>
+  <si>
+    <t>AWS EKS KalyanD</t>
+  </si>
+  <si>
+    <t>AWS EKS Stephan</t>
+  </si>
+  <si>
+    <t>TRF Nana</t>
+  </si>
+  <si>
+    <t>TRF Kalyan 1/2</t>
+  </si>
+  <si>
+    <t>AWS EKS Raj Saha</t>
+  </si>
+  <si>
+    <t>My Own GIT Prepare</t>
+  </si>
+  <si>
+    <t>1W       APR 12 - APR 18</t>
+  </si>
+  <si>
+    <t>2W       APR 19 - APR 25</t>
+  </si>
+  <si>
+    <t>3W APR 26 - 2 MAY</t>
+  </si>
+  <si>
+    <t>4W             3 MAY -    9 MAY</t>
+  </si>
+  <si>
+    <t>5W          10 MAY - 16 MAY</t>
+  </si>
+  <si>
+    <t>6W          17 MAY - 23 MAY</t>
+  </si>
+  <si>
+    <t>7W          24 MAY - 30 MAY</t>
+  </si>
+  <si>
+    <t>Prepare IQS Aswell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resume </t>
+  </si>
+  <si>
+    <t>1 JUNE UPLOAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2437,6 +2621,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2490,7 +2681,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2546,6 +2737,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2562,6 +2762,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8905875" y="361950"/>
+          <a:ext cx="5686425" cy="1364963"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2864,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2878,13 +3121,13 @@
         <v>712</v>
       </c>
       <c r="C3" t="s">
+        <v>756</v>
+      </c>
+      <c r="D3" t="s">
         <v>757</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>758</v>
-      </c>
-      <c r="E3" t="s">
-        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -7576,7 +7819,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -7593,7 +7836,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -7608,7 +7851,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -7623,7 +7866,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -7638,7 +7881,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -7653,7 +7896,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -7668,7 +7911,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -7680,7 +7923,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="29" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -7697,7 +7940,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -7709,7 +7952,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -7718,7 +7961,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -7730,7 +7973,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -7742,7 +7985,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -7754,7 +7997,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -7766,7 +8009,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -7780,7 +8023,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -7792,7 +8035,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -7804,7 +8047,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -7813,7 +8056,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -7822,19 +8065,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -7854,7 +8097,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -7872,7 +8115,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -7887,31 +8130,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="29" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -7922,7 +8165,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -7931,7 +8174,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -7940,7 +8183,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -7949,7 +8192,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -7958,7 +8201,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -7967,13 +8210,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="29" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -7984,7 +8227,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -7993,7 +8236,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -8002,7 +8245,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -8011,7 +8254,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -8020,7 +8263,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -8029,7 +8272,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -8038,7 +8281,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="29" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -8049,7 +8292,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -8058,7 +8301,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -8067,31 +8310,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="29" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -8102,37 +8345,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -9157,8 +9400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9341,13 +9584,13 @@
       <c r="H8">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="26" t="s">
         <v>712</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="26" t="s">
         <v>713</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="26" t="s">
         <v>714</v>
       </c>
       <c r="M8" t="s">
@@ -9649,7 +9892,7 @@
         <v>21</v>
       </c>
       <c r="Q22" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -9704,362 +9947,792 @@
         <v>44696</v>
       </c>
       <c r="B27" t="s">
-        <v>743</v>
-      </c>
-      <c r="H27" s="24">
-        <v>44705</v>
-      </c>
-      <c r="I27" t="s">
-        <v>743</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="H27" s="24"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>44697</v>
       </c>
       <c r="B28" t="s">
-        <v>743</v>
-      </c>
-      <c r="H28" s="24">
-        <v>44713</v>
-      </c>
-      <c r="I28" t="s">
-        <v>740</v>
-      </c>
+        <v>742</v>
+      </c>
+      <c r="H28" s="24"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>44698</v>
       </c>
-      <c r="H29" t="s">
-        <v>742</v>
+      <c r="B29" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>44699</v>
       </c>
+      <c r="B30" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>44700</v>
       </c>
+      <c r="B31" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>44701</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>44702</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>44703</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>44704</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <v>44705</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>44706</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>44707</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>44708</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>44709</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>44710</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>44711</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44712</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44713</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>44662</v>
       </c>
       <c r="B2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>745</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="D5" t="s">
+        <v>801</v>
+      </c>
+      <c r="G5" t="s">
+        <v>805</v>
+      </c>
+      <c r="H5" t="s">
+        <v>806</v>
+      </c>
+      <c r="I5" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>802</v>
+      </c>
+      <c r="G6" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D7" t="s">
+        <v>803</v>
+      </c>
+      <c r="G7" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D9" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>759</v>
+      </c>
+      <c r="D12" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D13" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>815</v>
+      </c>
+      <c r="G14" t="s">
+        <v>816</v>
+      </c>
+      <c r="H14" t="s">
+        <v>817</v>
+      </c>
+      <c r="J14" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>763</v>
-      </c>
-      <c r="C15" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C24" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>779</v>
+      </c>
+      <c r="C28" t="s">
         <v>780</v>
-      </c>
-      <c r="C28" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C29" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>786</v>
+      </c>
+      <c r="C34" t="s">
         <v>787</v>
-      </c>
-      <c r="C34" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C37" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C39" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>795</v>
+      </c>
+      <c r="C40" t="s">
         <v>796</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>797</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="28"/>
+    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="30" t="s">
+        <v>854</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>41000</v>
+      </c>
+      <c r="G2" s="8">
+        <v>40664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="30"/>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>41030</v>
+      </c>
+      <c r="G3" s="8">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>41061</v>
+      </c>
+      <c r="G4" s="8">
+        <v>40725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="30"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="30" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D11" s="30"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D12" s="30"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="30" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>14</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>15</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="30"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="30"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="20"/>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="20"/>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D27" s="30"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D28" s="30"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D29" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D2:D8"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D17:D19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -20,8 +20,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="869">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2591,17 +2616,50 @@
     <t>Prepare IQS Aswell</t>
   </si>
   <si>
-    <t xml:space="preserve">Resume </t>
-  </si>
-  <si>
-    <t>1 JUNE UPLOAD</t>
+    <t>Jenkins Plugins Used</t>
+  </si>
+  <si>
+    <t>performance@3.18</t>
+  </si>
+  <si>
+    <t>docker-workflow@1.26</t>
+  </si>
+  <si>
+    <t>dependency-check-jenkins-plugin@5.1.1</t>
+  </si>
+  <si>
+    <t>blueocean@1.24.7</t>
+  </si>
+  <si>
+    <t>jacoco@3.2.0</t>
+  </si>
+  <si>
+    <t>slack@2.4.8</t>
+  </si>
+  <si>
+    <t>sonar@2.13.1</t>
+  </si>
+  <si>
+    <t>pitmutation@1.0-18</t>
+  </si>
+  <si>
+    <t>kubernetes-cli@1.10.2</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Interview Prepare</t>
+  </si>
+  <si>
+    <t>Resume Upload 1st June</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2632,6 +2690,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2653,7 +2718,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2676,12 +2741,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2740,10 +2842,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2768,13 +2883,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>12413</xdr:rowOff>
@@ -3093,16 +3208,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="38.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3112,8 +3235,11 @@
       <c r="C2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3129,9 +3255,48 @@
       <c r="E3" t="s">
         <v>758</v>
       </c>
+      <c r="I3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>865</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3707,8 +3872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E371"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A304" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D324" sqref="D324"/>
     </sheetView>
   </sheetViews>
@@ -10384,10 +10549,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10395,57 +10560,67 @@
     <col min="1" max="1" width="9.140625" style="28"/>
     <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D1" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="20">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>819</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="30" t="s">
         <v>854</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="H2" s="8">
         <v>41000</v>
       </c>
-      <c r="G2" s="8">
+      <c r="I2" s="8">
         <v>40664</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>820</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="30"/>
-      <c r="E3">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="31"/>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="H3" s="8">
         <v>41030</v>
       </c>
-      <c r="G3" s="8">
+      <c r="I3" s="8">
         <v>40695</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -10455,18 +10630,20 @@
       <c r="C4" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="31"/>
+      <c r="G4">
         <v>3</v>
       </c>
-      <c r="F4" s="8">
+      <c r="H4" s="8">
         <v>41061</v>
       </c>
-      <c r="G4" s="8">
+      <c r="I4" s="8">
         <v>40725</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -10476,19 +10653,25 @@
       <c r="C5" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="D5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -10496,9 +10679,11 @@
         <v>824</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -10506,9 +10691,11 @@
         <v>825</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -10516,223 +10703,293 @@
         <v>826</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="30" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D11" s="30"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="D12" s="30"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="30" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="30" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D19" s="30"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="32"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="33" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="30" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="30" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
         <v>14</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B25" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="30"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
         <v>15</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
         <v>16</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="32"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="30" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="2">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D29" s="30"/>
+        <v>611</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20"/>
+      <c r="B31" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="32"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D32" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="E32" s="2">
+        <f>SUM(E1:E31)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="D2:D8"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F18:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Accounts" sheetId="5" r:id="rId5"/>
     <sheet name="Plan" sheetId="7" r:id="rId6"/>
     <sheet name="To_Study_TRF" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="10" r:id="rId8"/>
+    <sheet name="Plan (2)" sheetId="11" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="927">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2653,6 +2654,180 @@
   </si>
   <si>
     <t>Resume Upload 1st June</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>HC-Packer</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+  </si>
+  <si>
+    <t>GIT</t>
+  </si>
+  <si>
+    <t>Artifact Build</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+  </si>
+  <si>
+    <t>Helm</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>AWS-DevOps</t>
+  </si>
+  <si>
+    <t>EKS</t>
+  </si>
+  <si>
+    <t>CloudTrail</t>
+  </si>
+  <si>
+    <t>EC2 Restart</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>GIT Logs</t>
+  </si>
+  <si>
+    <t>Docker Composer file format</t>
+  </si>
+  <si>
+    <t>Aurora DB</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Agents</t>
+  </si>
+  <si>
+    <t>Local/Remote ARF</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Liveness Probe</t>
+  </si>
+  <si>
+    <t>Jenkins Setup</t>
+  </si>
+  <si>
+    <t>tmpfs file system</t>
+  </si>
+  <si>
+    <t>14 - 9:30 AM -</t>
+  </si>
+  <si>
+    <t>EBS Volume issue</t>
+  </si>
+  <si>
+    <t>Prometheus Architecture</t>
+  </si>
+  <si>
+    <t>KOPS</t>
+  </si>
+  <si>
+    <t>Instance Fleet</t>
+  </si>
+  <si>
+    <t>GIT Commit</t>
+  </si>
+  <si>
+    <t>Application Server</t>
+  </si>
+  <si>
+    <t>Docker Logs</t>
+  </si>
+  <si>
+    <t>Container Restart - Logs</t>
+  </si>
+  <si>
+    <t>V &amp; H Scaling</t>
+  </si>
+  <si>
+    <t>Replication Controller</t>
+  </si>
+  <si>
+    <t>Helm Version</t>
+  </si>
+  <si>
+    <t>API Endpoint</t>
+  </si>
+  <si>
+    <t>Helm?</t>
+  </si>
+  <si>
+    <t>Remote-Exec</t>
+  </si>
+  <si>
+    <t>API Response</t>
+  </si>
+  <si>
+    <t>Jenkins Docker Agent</t>
+  </si>
+  <si>
+    <t>Docker Image Size</t>
+  </si>
+  <si>
+    <t>S3 Policy Read</t>
+  </si>
+  <si>
+    <t>PV &amp; PVC</t>
+  </si>
+  <si>
+    <t>RDS Username &amp; Secrets</t>
+  </si>
+  <si>
+    <t>Type of DB</t>
+  </si>
+  <si>
+    <t>Create AMI</t>
+  </si>
+  <si>
+    <t>IAM Policy Types</t>
+  </si>
+  <si>
+    <t>Build Tools</t>
+  </si>
+  <si>
+    <t>Ingress &amp; Egress</t>
+  </si>
+  <si>
+    <t>Docker Image/Layers</t>
+  </si>
+  <si>
+    <t>Bastion Host</t>
+  </si>
+  <si>
+    <t>ASG with Spot Instance</t>
+  </si>
+  <si>
+    <t>Pod access error</t>
+  </si>
+  <si>
+    <t>K8S Setup</t>
   </si>
 </sst>
 </file>
@@ -2783,7 +2958,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2839,6 +3014,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2857,9 +3036,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2881,22 +3059,17 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12413</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="5686425" cy="1364963"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2909,7 +3082,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8905875" y="361950"/>
+          <a:off x="5991225" y="361950"/>
           <a:ext cx="5686425" cy="1364963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2918,7 +3091,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7984,7 +8157,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="31" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -8001,7 +8174,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -8016,7 +8189,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -8031,7 +8204,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -8046,7 +8219,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -8061,7 +8234,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -8076,7 +8249,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -8088,7 +8261,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="31" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -8105,7 +8278,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -8117,7 +8290,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -8126,7 +8299,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
+      <c r="A14" s="31"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -8138,7 +8311,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -8150,7 +8323,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
+      <c r="A16" s="31"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -8162,7 +8335,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -8174,7 +8347,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="31" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -8188,7 +8361,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -8200,7 +8373,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -8212,7 +8385,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -8221,7 +8394,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -8230,19 +8403,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="31" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -8262,7 +8435,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
+      <c r="A26" s="31"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -8280,7 +8453,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -8295,31 +8468,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="31"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="31"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
+      <c r="A31" s="31"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="31" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -8330,7 +8503,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
+      <c r="A33" s="31"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -8339,7 +8512,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
+      <c r="A34" s="31"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -8348,7 +8521,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
+      <c r="A35" s="31"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -8357,7 +8530,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
+      <c r="A36" s="31"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -8366,7 +8539,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
+      <c r="A37" s="31"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -8375,13 +8548,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="31" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -8392,7 +8565,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
+      <c r="A40" s="31"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -8401,7 +8574,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -8410,7 +8583,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -8419,7 +8592,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
+      <c r="A43" s="31"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -8428,7 +8601,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
+      <c r="A44" s="31"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -8437,7 +8610,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
+      <c r="A45" s="31"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -8446,7 +8619,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="31" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -8457,7 +8630,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
+      <c r="A47" s="31"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -8466,7 +8639,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
+      <c r="A48" s="31"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -8475,31 +8648,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
+      <c r="A49" s="31"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
+      <c r="A50" s="31"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
+      <c r="A52" s="31"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+      <c r="A53" s="31" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -8510,37 +8683,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
+      <c r="A54" s="31"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
+      <c r="A55" s="31"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
+      <c r="A56" s="31"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
+      <c r="A57" s="31"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="A58" s="31"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="A59" s="31"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -10551,8 +10724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10572,7 +10745,9 @@
         <v>707</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>896</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
@@ -10586,7 +10761,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>854</v>
       </c>
       <c r="G2">
@@ -10609,7 +10784,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="31"/>
+      <c r="F3" s="33"/>
       <c r="G3">
         <v>2</v>
       </c>
@@ -10632,7 +10807,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="31"/>
+      <c r="F4" s="33"/>
       <c r="G4">
         <v>3</v>
       </c>
@@ -10655,7 +10830,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="31"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -10669,7 +10844,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="31"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -10681,7 +10856,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="31"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -10693,7 +10868,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="32"/>
+      <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -10705,7 +10880,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="32" t="s">
         <v>853</v>
       </c>
     </row>
@@ -10717,7 +10892,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="31"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -10729,9 +10904,9 @@
       <c r="C11" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="31"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
@@ -10741,7 +10916,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="31"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -10751,7 +10926,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -10765,7 +10940,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="32" t="s">
         <v>851</v>
       </c>
     </row>
@@ -10777,7 +10952,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -10787,7 +10962,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -10797,7 +10972,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -10811,7 +10986,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="32" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10823,7 +10998,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="31"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
@@ -10833,7 +11008,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -10843,7 +11018,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="36"/>
+      <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
@@ -10857,7 +11032,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="35" t="s">
         <v>850</v>
       </c>
     </row>
@@ -10869,7 +11044,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="34"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
@@ -10881,7 +11056,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="32" t="s">
         <v>849</v>
       </c>
     </row>
@@ -10895,7 +11070,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="31"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -10907,7 +11082,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="31"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -10919,7 +11094,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="34"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
@@ -10931,7 +11106,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="32" t="s">
         <v>848</v>
       </c>
     </row>
@@ -10945,7 +11120,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="31"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
@@ -10957,7 +11132,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="31"/>
+      <c r="F30" s="33"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -10967,7 +11142,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
@@ -10992,4 +11167,884 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="28"/>
+    <col min="4" max="4" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="28"/>
+    <col min="13" max="13" width="23.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="28"/>
+    <col min="16" max="16" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>882</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>884</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
+        <v>918</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>902</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>891</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>889</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>883</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>893</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>907</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37" t="s">
+        <v>898</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>908</v>
+      </c>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>885</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>910</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37" t="s">
+        <v>901</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>920</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>890</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>887</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>899</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>909</v>
+      </c>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37" t="s">
+        <v>911</v>
+      </c>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>888</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>916</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37" t="s">
+        <v>892</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>895</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>906</v>
+      </c>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37" t="s">
+        <v>894</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>903</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>915</v>
+      </c>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>900</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37" t="s">
+        <v>912</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>904</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>925</v>
+      </c>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>905</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37" t="s">
+        <v>913</v>
+      </c>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>914</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37" t="s">
+        <v>922</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>917</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>919</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>921</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>923</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>924</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>926</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="956">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2737,9 +2737,6 @@
     <t>tmpfs file system</t>
   </si>
   <si>
-    <t>14 - 9:30 AM -</t>
-  </si>
-  <si>
     <t>EBS Volume issue</t>
   </si>
   <si>
@@ -2828,6 +2825,96 @@
   </si>
   <si>
     <t>K8S Setup</t>
+  </si>
+  <si>
+    <t>Load Balancers</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
+  </si>
+  <si>
+    <t>DO Best Practices</t>
+  </si>
+  <si>
+    <t>Validation Block</t>
+  </si>
+  <si>
+    <t>CMD vs ENTRYPOINT</t>
+  </si>
+  <si>
+    <t>ASG - Debug</t>
+  </si>
+  <si>
+    <t>Taint</t>
+  </si>
+  <si>
+    <t>2 Ports</t>
+  </si>
+  <si>
+    <t>Slack Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRF State Lock </t>
+  </si>
+  <si>
+    <t>DO Future Trajectory</t>
+  </si>
+  <si>
+    <t>Ignore_error</t>
+  </si>
+  <si>
+    <t>old git commit</t>
+  </si>
+  <si>
+    <t>Push S3 logs</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>Day to Day Tasks</t>
+  </si>
+  <si>
+    <t>Diff Web &amp; App</t>
+  </si>
+  <si>
+    <t>Docker file size</t>
+  </si>
+  <si>
+    <t>Secrets</t>
+  </si>
+  <si>
+    <t>Blue - Green Deployment</t>
+  </si>
+  <si>
+    <t>SQL - No SQL</t>
+  </si>
+  <si>
+    <t>Multibranch PL</t>
+  </si>
+  <si>
+    <t>monitor script</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Side car container</t>
+  </si>
+  <si>
+    <t>Ec2 Instance type</t>
+  </si>
+  <si>
+    <t>Secret Engine</t>
+  </si>
+  <si>
+    <t>Multinode setup</t>
+  </si>
+  <si>
+    <t>helm repository</t>
+  </si>
+  <si>
+    <t>14 - 9:30 AM - 15 FD + WK Linux Script</t>
   </si>
 </sst>
 </file>
@@ -3018,6 +3105,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3035,9 +3125,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8157,7 +8244,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -8174,7 +8261,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -8189,7 +8276,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -8204,7 +8291,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -8219,7 +8306,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -8234,7 +8321,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -8249,7 +8336,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -8261,7 +8348,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -8278,7 +8365,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -8290,7 +8377,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -8299,7 +8386,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -8311,7 +8398,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -8323,7 +8410,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -8335,7 +8422,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -8347,7 +8434,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="32" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -8361,7 +8448,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -8373,7 +8460,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -8385,7 +8472,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -8394,7 +8481,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -8403,19 +8490,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
+      <c r="A23" s="32"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
+      <c r="A24" s="32"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="32" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -8435,7 +8522,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -8453,7 +8540,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -8468,31 +8555,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="32"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="32" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -8503,7 +8590,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -8512,7 +8599,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -8521,7 +8608,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
+      <c r="A35" s="32"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -8530,7 +8617,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -8539,7 +8626,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -8548,13 +8635,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="32" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -8565,7 +8652,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -8574,7 +8661,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
+      <c r="A41" s="32"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -8583,7 +8670,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -8592,7 +8679,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -8601,7 +8688,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -8610,7 +8697,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -8619,7 +8706,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="32" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -8630,7 +8717,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -8639,7 +8726,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -8648,31 +8735,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
+      <c r="A52" s="32"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="32" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -8683,37 +8770,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
+      <c r="A54" s="32"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="31"/>
+      <c r="A55" s="32"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="31"/>
+      <c r="A56" s="32"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="31"/>
+      <c r="A57" s="32"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
+      <c r="A58" s="32"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
+      <c r="A59" s="32"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -10724,8 +10811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10746,7 +10833,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>896</v>
+        <v>955</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -10761,7 +10848,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="33" t="s">
         <v>854</v>
       </c>
       <c r="G2">
@@ -10784,7 +10871,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="33"/>
+      <c r="F3" s="34"/>
       <c r="G3">
         <v>2</v>
       </c>
@@ -10807,7 +10894,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="33"/>
+      <c r="F4" s="34"/>
       <c r="G4">
         <v>3</v>
       </c>
@@ -10830,7 +10917,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -10844,7 +10931,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="33"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -10856,7 +10943,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="33"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -10868,7 +10955,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="34"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -10880,7 +10967,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="32" t="s">
+      <c r="F9" s="33" t="s">
         <v>853</v>
       </c>
     </row>
@@ -10892,7 +10979,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -10906,7 +10993,7 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
@@ -10916,7 +11003,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -10926,7 +11013,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -10940,7 +11027,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="33" t="s">
         <v>851</v>
       </c>
     </row>
@@ -10952,7 +11039,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -10962,7 +11049,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -10972,7 +11059,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="34"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -10986,7 +11073,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="33" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10998,7 +11085,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
@@ -11008,7 +11095,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="34"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -11032,7 +11119,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="36" t="s">
         <v>850</v>
       </c>
     </row>
@@ -11044,7 +11131,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="36"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
@@ -11056,7 +11143,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="33" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11070,7 +11157,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -11082,7 +11169,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="33"/>
+      <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -11094,7 +11181,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="34"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
@@ -11106,7 +11193,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="33" t="s">
         <v>848</v>
       </c>
     </row>
@@ -11120,7 +11207,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="33"/>
+      <c r="F29" s="34"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
@@ -11132,7 +11219,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="33"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -11142,7 +11229,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="34"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
@@ -11173,14 +11260,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="28"/>
     <col min="4" max="4" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -11188,12 +11275,12 @@
     <col min="7" max="7" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="28"/>
     <col min="13" max="13" width="23.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="28"/>
+    <col min="15" max="15" width="12.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="28"/>
@@ -11253,795 +11340,852 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
         <v>882</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="31" t="s">
         <v>884</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="31" t="s">
+        <v>939</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>917</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>901</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>886</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>891</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>889</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>883</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>893</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>906</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
+        <v>897</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>907</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>933</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>885</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>909</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31" t="s">
+        <v>952</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>942</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>919</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>887</v>
+      </c>
+      <c r="J3" s="31" t="s">
+        <v>898</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>908</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31" t="s">
+        <v>928</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>910</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>937</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>915</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>927</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>895</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>954</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31" t="s">
+        <v>934</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>940</v>
+      </c>
+      <c r="O4" s="31" t="s">
+        <v>944</v>
+      </c>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>896</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>929</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="H5" s="31" t="s">
+        <v>894</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>902</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>914</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31" t="s">
+        <v>949</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>948</v>
+      </c>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>899</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>935</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31" t="s">
+        <v>911</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>903</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>924</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>936</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31" t="s">
+        <v>947</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>912</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>913</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>941</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>953</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>921</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>945</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31" t="s">
+        <v>930</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>950</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
         <v>918</v>
       </c>
-      <c r="E2" s="37" t="s">
-        <v>902</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>886</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>891</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>889</v>
-      </c>
-      <c r="I2" s="37" t="s">
-        <v>883</v>
-      </c>
-      <c r="J2" s="37" t="s">
-        <v>893</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>907</v>
-      </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37" t="s">
-        <v>898</v>
-      </c>
-      <c r="N2" s="37" t="s">
-        <v>908</v>
-      </c>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>885</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>910</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37" t="s">
-        <v>901</v>
-      </c>
-      <c r="G3" s="28" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31" t="s">
+        <v>943</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
         <v>920</v>
       </c>
-      <c r="H3" s="37" t="s">
-        <v>890</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>887</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>899</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>909</v>
-      </c>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37" t="s">
-        <v>911</v>
-      </c>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
-        <v>888</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>916</v>
-      </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37" t="s">
-        <v>892</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>895</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>906</v>
-      </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>897</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37" t="s">
-        <v>894</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>903</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>915</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>900</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37" t="s">
-        <v>912</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>904</v>
-      </c>
-      <c r="J6" s="37" t="s">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>922</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>923</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>905</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
-        <v>913</v>
-      </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>914</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37" t="s">
-        <v>922</v>
-      </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>917</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>919</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>921</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>923</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>924</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
         <v>926</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
+      <c r="A16" s="31" t="s">
+        <v>931</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
+      <c r="A17" s="31" t="s">
+        <v>946</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
+      <c r="A18" s="31" t="s">
+        <v>951</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37"/>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
-      <c r="Q35" s="37"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="37"/>
-      <c r="Q36" s="37"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -2506,9 +2506,6 @@
     <t>Tdynamic Blocks</t>
   </si>
   <si>
-    <t xml:space="preserve"> Introduction to DevOps</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Operating Systems &amp; Linux Basics</t>
   </si>
   <si>
@@ -2915,6 +2912,9 @@
   </si>
   <si>
     <t>14 - 9:30 AM - 15 FD + WK Linux Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to DevOps &amp; Initial Interview Questions</t>
   </si>
 </sst>
 </file>
@@ -3045,7 +3045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3125,6 +3125,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3482,7 +3485,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3496,7 +3499,7 @@
         <v>754</v>
       </c>
       <c r="I2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3516,42 +3519,42 @@
         <v>758</v>
       </c>
       <c r="I3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
@@ -10812,7 +10815,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10833,7 +10836,7 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -10843,13 +10846,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>819</v>
+        <v>955</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="33" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -10866,7 +10869,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -10887,10 +10890,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -10910,10 +10913,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -10924,10 +10927,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -10938,7 +10941,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -10950,7 +10953,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -10962,20 +10965,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="33" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10986,10 +10989,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -10999,7 +11002,7 @@
       <c r="A12" s="20"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -11009,7 +11012,7 @@
       <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -11020,22 +11023,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="33" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -11045,7 +11048,7 @@
       <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -11066,22 +11069,22 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="33" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -11091,7 +11094,7 @@
       <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -11101,7 +11104,7 @@
       <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -11112,22 +11115,22 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -11138,13 +11141,13 @@
         <v>13</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="33" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -11152,7 +11155,7 @@
         <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -11164,7 +11167,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -11176,7 +11179,7 @@
         <v>16</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -11194,7 +11197,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -11215,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -11224,7 +11227,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -11233,7 +11236,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E32" s="2">
         <f>SUM(E1:E31)</f>
@@ -11261,7 +11264,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11294,46 +11297,46 @@
         <v>712</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>881</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>755</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>879</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>880</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>611</v>
@@ -11341,164 +11344,164 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>881</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>883</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>938</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>916</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>900</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>885</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>890</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>888</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>882</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>884</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>939</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>917</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>901</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>886</v>
-      </c>
-      <c r="G2" s="31" t="s">
-        <v>891</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>889</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>883</v>
-      </c>
       <c r="J2" s="31" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="N2" s="31" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="O2" s="31" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="31" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H3" s="31" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="31" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="O3" s="31" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I4" s="31" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="31" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="N4" s="31" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="O4" s="31" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="H5" s="31" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="N5" s="31" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="O5" s="31"/>
       <c r="P5" s="31"/>
@@ -11506,10 +11509,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -11517,13 +11520,13 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="31" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="I6" s="31" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J6" s="31" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
@@ -11535,10 +11538,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -11546,13 +11549,13 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="31" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -11564,10 +11567,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -11575,13 +11578,13 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
@@ -11593,7 +11596,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -11603,10 +11606,10 @@
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
       <c r="I9" s="31" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
@@ -11618,7 +11621,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -11628,7 +11631,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="31" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
@@ -11641,7 +11644,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -11662,7 +11665,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -11683,7 +11686,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -11704,7 +11707,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -11725,7 +11728,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -11746,7 +11749,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -11767,7 +11770,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -11788,7 +11791,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -11808,7 +11811,7 @@
       <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -2960,7 +2960,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2976,6 +2976,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3045,7 +3051,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3108,6 +3114,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3126,7 +3135,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8247,7 +8256,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -8264,7 +8273,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="33"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -8279,7 +8288,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="33"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -8294,7 +8303,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -8309,7 +8318,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -8324,7 +8333,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -8339,7 +8348,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -8351,7 +8360,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="33" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -8368,7 +8377,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -8380,7 +8389,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -8389,7 +8398,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -8401,7 +8410,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -8413,7 +8422,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -8425,7 +8434,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -8437,7 +8446,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="33" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -8451,7 +8460,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -8463,7 +8472,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -8475,7 +8484,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -8484,7 +8493,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -8493,19 +8502,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -8525,7 +8534,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -8543,7 +8552,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -8558,31 +8567,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="33" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -8593,7 +8602,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -8602,7 +8611,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -8611,7 +8620,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -8620,7 +8629,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="32"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -8629,7 +8638,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="32"/>
+      <c r="A37" s="33"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -8638,13 +8647,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="32"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="33" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -8655,7 +8664,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
+      <c r="A40" s="33"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -8664,7 +8673,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -8673,7 +8682,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -8682,7 +8691,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -8691,7 +8700,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -8700,7 +8709,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
+      <c r="A45" s="33"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -8709,7 +8718,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="33" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -8720,7 +8729,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -8729,7 +8738,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -8738,31 +8747,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="33" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -8773,37 +8782,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
+      <c r="A55" s="33"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
+      <c r="A59" s="33"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -10814,7 +10823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -10851,7 +10860,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>853</v>
       </c>
       <c r="G2">
@@ -10874,7 +10883,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="34"/>
+      <c r="F3" s="35"/>
       <c r="G3">
         <v>2</v>
       </c>
@@ -10897,7 +10906,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="34"/>
+      <c r="F4" s="35"/>
       <c r="G4">
         <v>3</v>
       </c>
@@ -10920,7 +10929,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="34"/>
+      <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -10934,7 +10943,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="34"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -10946,7 +10955,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="34"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -10958,7 +10967,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="35"/>
+      <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -10970,7 +10979,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="34" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10982,7 +10991,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="34"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -10996,7 +11005,7 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="34"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
@@ -11006,7 +11015,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="34"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -11016,7 +11025,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -11030,7 +11039,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="34" t="s">
         <v>850</v>
       </c>
     </row>
@@ -11042,7 +11051,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="34"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -11052,7 +11061,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="34"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -11062,7 +11071,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="35"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -11076,7 +11085,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="34" t="s">
         <v>851</v>
       </c>
     </row>
@@ -11088,7 +11097,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="34"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
@@ -11098,7 +11107,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -11122,7 +11131,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="36" t="s">
+      <c r="F22" s="37" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11134,7 +11143,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="37"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
@@ -11146,7 +11155,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="34" t="s">
         <v>848</v>
       </c>
     </row>
@@ -11160,7 +11169,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="34"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -11172,7 +11181,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="34"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -11184,7 +11193,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="35"/>
+      <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
@@ -11196,7 +11205,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="34" t="s">
         <v>847</v>
       </c>
     </row>
@@ -11210,7 +11219,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="34"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
@@ -11222,7 +11231,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="34"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -11232,7 +11241,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="35"/>
+      <c r="F31" s="36"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
@@ -11263,8 +11272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11343,7 +11352,7 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>881</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -11390,7 +11399,7 @@
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="39" t="s">
         <v>884</v>
       </c>
       <c r="B3" s="31" t="s">
@@ -11435,7 +11444,7 @@
       <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="39" t="s">
         <v>887</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -11476,7 +11485,7 @@
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="39" t="s">
         <v>895</v>
       </c>
       <c r="B5" s="31" t="s">
@@ -11508,7 +11517,7 @@
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="39" t="s">
         <v>898</v>
       </c>
       <c r="B6" s="31" t="s">
@@ -11537,7 +11546,7 @@
       <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="39" t="s">
         <v>903</v>
       </c>
       <c r="B7" s="31" t="s">
@@ -11566,7 +11575,7 @@
       <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="39" t="s">
         <v>912</v>
       </c>
       <c r="B8" s="31" t="s">
@@ -11595,7 +11604,7 @@
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="39" t="s">
         <v>915</v>
       </c>
       <c r="B9" s="31"/>
@@ -11620,7 +11629,7 @@
       <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="39" t="s">
         <v>917</v>
       </c>
       <c r="B10" s="31"/>
@@ -11643,7 +11652,7 @@
       <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="39" t="s">
         <v>919</v>
       </c>
       <c r="B11" s="31"/>
@@ -11664,7 +11673,7 @@
       <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="39" t="s">
         <v>921</v>
       </c>
       <c r="B12" s="31"/>
@@ -11685,7 +11694,7 @@
       <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="39" t="s">
         <v>922</v>
       </c>
       <c r="B13" s="31"/>
@@ -11706,7 +11715,7 @@
       <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="39" t="s">
         <v>924</v>
       </c>
       <c r="B14" s="31"/>
@@ -11727,7 +11736,7 @@
       <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="39" t="s">
         <v>925</v>
       </c>
       <c r="B15" s="31"/>
@@ -11748,7 +11757,7 @@
       <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="39" t="s">
         <v>930</v>
       </c>
       <c r="B16" s="31"/>
@@ -11769,7 +11778,7 @@
       <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="39" t="s">
         <v>945</v>
       </c>
       <c r="B17" s="31"/>
@@ -11790,7 +11799,7 @@
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="39" t="s">
         <v>950</v>
       </c>
       <c r="B18" s="31"/>
@@ -11811,7 +11820,7 @@
       <c r="Q18" s="31"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -3117,6 +3117,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3134,9 +3137,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8256,7 +8256,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="34" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -8273,7 +8273,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="34"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -8288,7 +8288,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -8303,7 +8303,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -8318,7 +8318,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -8333,7 +8333,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -8348,7 +8348,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -8360,7 +8360,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="34" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -8377,7 +8377,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -8398,7 +8398,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -8410,7 +8410,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -8422,7 +8422,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -8434,7 +8434,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -8446,7 +8446,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="34" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -8460,7 +8460,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -8472,7 +8472,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -8484,7 +8484,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -8493,7 +8493,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -8502,19 +8502,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="34" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -8534,7 +8534,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -8552,7 +8552,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -8567,31 +8567,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="34" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -8602,7 +8602,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -8611,7 +8611,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -8620,7 +8620,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -8629,7 +8629,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -8638,7 +8638,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -8647,13 +8647,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+      <c r="A38" s="34"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="34" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -8664,7 +8664,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -8673,7 +8673,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="34"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -8682,7 +8682,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="33"/>
+      <c r="A42" s="34"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -8691,7 +8691,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -8700,7 +8700,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -8709,7 +8709,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="33"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -8718,7 +8718,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
+      <c r="A46" s="34" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -8729,7 +8729,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="33"/>
+      <c r="A47" s="34"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -8738,7 +8738,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="33"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -8747,31 +8747,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="33"/>
+      <c r="A50" s="34"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="33"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="33"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
+      <c r="A53" s="34" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -8782,37 +8782,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
+      <c r="A56" s="34"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -10860,7 +10860,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="35" t="s">
         <v>853</v>
       </c>
       <c r="G2">
@@ -10883,7 +10883,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="35"/>
+      <c r="F3" s="36"/>
       <c r="G3">
         <v>2</v>
       </c>
@@ -10906,7 +10906,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="35"/>
+      <c r="F4" s="36"/>
       <c r="G4">
         <v>3</v>
       </c>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="35"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
@@ -10943,7 +10943,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
@@ -10955,7 +10955,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
@@ -10967,7 +10967,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
@@ -10979,7 +10979,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="35" t="s">
         <v>852</v>
       </c>
     </row>
@@ -10991,7 +10991,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
@@ -11025,7 +11025,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="36"/>
+      <c r="F13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -11039,7 +11039,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="35" t="s">
         <v>850</v>
       </c>
     </row>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="35"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="35"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="35" t="s">
         <v>851</v>
       </c>
     </row>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="35"/>
+      <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="36"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
@@ -11131,7 +11131,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="38" t="s">
         <v>849</v>
       </c>
     </row>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="39"/>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
@@ -11155,7 +11155,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="35" t="s">
         <v>848</v>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="35"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
@@ -11181,7 +11181,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="35"/>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
@@ -11193,7 +11193,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="36"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="35" t="s">
         <v>847</v>
       </c>
     </row>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="35"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
@@ -11231,7 +11231,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="35"/>
+      <c r="F30" s="36"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
@@ -11241,7 +11241,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="36"/>
+      <c r="F31" s="37"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
@@ -11273,7 +11273,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11352,10 +11352,10 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>883</v>
       </c>
       <c r="C2" s="31" t="s">
@@ -11399,10 +11399,10 @@
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="33" t="s">
         <v>884</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="33" t="s">
         <v>908</v>
       </c>
       <c r="C3" s="31"/>
@@ -11444,10 +11444,10 @@
       <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>914</v>
       </c>
       <c r="C4" s="31"/>
@@ -11485,10 +11485,10 @@
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="33" t="s">
         <v>895</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>928</v>
       </c>
       <c r="C5" s="31"/>
@@ -11517,10 +11517,10 @@
       <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="33" t="s">
         <v>898</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="33" t="s">
         <v>934</v>
       </c>
       <c r="C6" s="31"/>
@@ -11546,10 +11546,10 @@
       <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>903</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="33" t="s">
         <v>935</v>
       </c>
       <c r="C7" s="31"/>
@@ -11575,10 +11575,10 @@
       <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="33" t="s">
         <v>912</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="33" t="s">
         <v>940</v>
       </c>
       <c r="C8" s="31"/>
@@ -11604,10 +11604,10 @@
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>915</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
@@ -11629,7 +11629,7 @@
       <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>917</v>
       </c>
       <c r="B10" s="31"/>
@@ -11652,7 +11652,7 @@
       <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="33" t="s">
         <v>919</v>
       </c>
       <c r="B11" s="31"/>
@@ -11673,7 +11673,7 @@
       <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="33" t="s">
         <v>921</v>
       </c>
       <c r="B12" s="31"/>
@@ -11694,7 +11694,7 @@
       <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="33" t="s">
         <v>922</v>
       </c>
       <c r="B13" s="31"/>
@@ -11715,7 +11715,7 @@
       <c r="Q13" s="31"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="33" t="s">
         <v>924</v>
       </c>
       <c r="B14" s="31"/>
@@ -11736,7 +11736,7 @@
       <c r="Q14" s="31"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="33" t="s">
         <v>925</v>
       </c>
       <c r="B15" s="31"/>
@@ -11757,7 +11757,7 @@
       <c r="Q15" s="31"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="33" t="s">
         <v>930</v>
       </c>
       <c r="B16" s="31"/>
@@ -11778,7 +11778,7 @@
       <c r="Q16" s="31"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="33" t="s">
         <v>945</v>
       </c>
       <c r="B17" s="31"/>
@@ -11799,7 +11799,7 @@
       <c r="Q17" s="31"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="33" t="s">
         <v>950</v>
       </c>
       <c r="B18" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -11273,7 +11273,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11358,10 +11358,10 @@
       <c r="B2" s="33" t="s">
         <v>883</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>938</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>916</v>
       </c>
       <c r="E2" s="31" t="s">
@@ -11405,8 +11405,8 @@
       <c r="B3" s="33" t="s">
         <v>908</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31" t="s">
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
         <v>951</v>
       </c>
       <c r="E3" s="31" t="s">
@@ -11451,7 +11451,7 @@
         <v>914</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="31"/>
       <c r="F4" s="31" t="s">
         <v>937</v>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="DB-N" sheetId="1" r:id="rId3"/>
     <sheet name="Topics" sheetId="6" r:id="rId4"/>
     <sheet name="Accounts" sheetId="5" r:id="rId5"/>
-    <sheet name="Plan" sheetId="7" r:id="rId6"/>
+    <sheet name="xxx" sheetId="7" r:id="rId6"/>
     <sheet name="To_Study_TRF" sheetId="8" r:id="rId7"/>
-    <sheet name="Plan (2)" sheetId="11" r:id="rId8"/>
+    <sheet name="Plan" sheetId="11" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="959">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2915,6 +2915,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Introduction to DevOps &amp; Initial Interview Questions</t>
+  </si>
+  <si>
+    <t>50 DevOps Questions &amp; Interview Notes</t>
+  </si>
+  <si>
+    <t>PREP TIME</t>
+  </si>
+  <si>
+    <t>NP</t>
   </si>
 </sst>
 </file>
@@ -3051,7 +3060,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3138,6 +3147,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3160,10 +3179,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5686425" cy="1364963"/>
     <xdr:pic>
@@ -3181,7 +3200,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5991225" y="361950"/>
+          <a:off x="12039600" y="123825"/>
           <a:ext cx="5686425" cy="1364963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9838,7 +9857,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7:W9"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10821,10 +10840,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10834,14 +10853,15 @@
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>707</v>
+        <v>956</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
@@ -10849,8 +10869,14 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="41" t="s">
+        <v>957</v>
+      </c>
+      <c r="H1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -10863,17 +10889,17 @@
       <c r="F2" s="35" t="s">
         <v>853</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>41000</v>
-      </c>
-      <c r="I2" s="8">
-        <v>40664</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="42">
+        <v>15</v>
+      </c>
+      <c r="I2" s="24">
+        <v>44666</v>
+      </c>
+      <c r="J2" s="24">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>3</v>
       </c>
@@ -10884,17 +10910,20 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="36"/>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>41030</v>
-      </c>
-      <c r="I3" s="8">
-        <v>40695</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G3" s="42">
+        <v>31</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="24">
+        <v>44682</v>
+      </c>
+      <c r="J3" s="24">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -10907,17 +10936,20 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="36"/>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>41061</v>
-      </c>
-      <c r="I4" s="8">
-        <v>40725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="42">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="24">
+        <v>44713</v>
+      </c>
+      <c r="J4" s="24">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>4</v>
       </c>
@@ -10930,8 +10962,18 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="42"/>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" s="24">
+        <v>44743</v>
+      </c>
+      <c r="J5" s="24">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -10944,8 +10986,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="36"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="42"/>
+      <c r="I6" s="24">
+        <v>44774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -10956,8 +11002,15 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="36"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="42">
+        <f>SUM(G2:G6)</f>
+        <v>61</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -10968,8 +11021,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>8</v>
       </c>
@@ -10982,8 +11036,9 @@
       <c r="F9" s="35" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
@@ -10992,8 +11047,9 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -11006,8 +11062,9 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -11016,8 +11073,9 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -11026,8 +11084,9 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="42"/>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>10</v>
       </c>
@@ -11042,8 +11101,9 @@
       <c r="F14" s="35" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -11052,8 +11112,9 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="42"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -11062,8 +11123,9 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="36"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -11072,8 +11134,9 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>11</v>
       </c>
@@ -11088,8 +11151,9 @@
       <c r="F18" s="35" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
@@ -11098,8 +11162,9 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -11108,8 +11173,9 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -11118,8 +11184,9 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="42"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>12</v>
       </c>
@@ -11134,8 +11201,9 @@
       <c r="F22" s="38" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -11144,8 +11212,9 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="39"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>13</v>
       </c>
@@ -11158,8 +11227,9 @@
       <c r="F24" s="35" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="42"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>14</v>
       </c>
@@ -11170,8 +11240,9 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>15</v>
       </c>
@@ -11182,8 +11253,9 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="42"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>16</v>
       </c>
@@ -11194,8 +11266,9 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="37"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20"/>
       <c r="B28" s="2">
         <v>2</v>
@@ -11208,8 +11281,9 @@
       <c r="F28" s="35" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="2">
         <v>2</v>
@@ -11220,8 +11294,9 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="42"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="2">
         <v>1</v>
@@ -11232,8 +11307,9 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="2" t="s">
         <v>866</v>
@@ -11242,8 +11318,9 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32" s="6" t="s">
         <v>867</v>
       </c>
@@ -11272,8 +11349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11364,35 +11441,35 @@
       <c r="D2" s="33" t="s">
         <v>916</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="33" t="s">
         <v>900</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="33" t="s">
         <v>885</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="33" t="s">
         <v>890</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="33" t="s">
         <v>888</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="33" t="s">
         <v>882</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="33" t="s">
         <v>892</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="33" t="s">
         <v>905</v>
       </c>
       <c r="L2" s="31"/>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="33" t="s">
         <v>896</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="33" t="s">
         <v>906</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="33" t="s">
         <v>932</v>
       </c>
       <c r="P2" s="31"/>
@@ -11409,35 +11486,35 @@
       <c r="D3" s="33" t="s">
         <v>951</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="33" t="s">
         <v>941</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="33" t="s">
         <v>899</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="40" t="s">
         <v>918</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="33" t="s">
         <v>889</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="33" t="s">
         <v>886</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="33" t="s">
         <v>897</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="33" t="s">
         <v>907</v>
       </c>
       <c r="L3" s="31"/>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="33" t="s">
         <v>927</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="33" t="s">
         <v>909</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="33" t="s">
         <v>936</v>
       </c>
       <c r="P3" s="31"/>
@@ -11452,33 +11529,33 @@
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="33" t="s">
         <v>937</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="33" t="s">
         <v>926</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="33" t="s">
         <v>894</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="33" t="s">
         <v>904</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="33" t="s">
         <v>953</v>
       </c>
       <c r="L4" s="31"/>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="33" t="s">
         <v>933</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="33" t="s">
         <v>939</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="33" t="s">
         <v>943</v>
       </c>
       <c r="P4" s="31"/>
@@ -11494,25 +11571,26 @@
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="H5" s="31" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="33" t="s">
         <v>901</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="K5" s="31"/>
+      <c r="K5" s="32"/>
       <c r="L5" s="31"/>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="33" t="s">
         <v>948</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="33" t="s">
         <v>947</v>
       </c>
-      <c r="O5" s="31"/>
+      <c r="O5" s="32"/>
       <c r="P5" s="31"/>
       <c r="Q5" s="31"/>
     </row>
@@ -11528,20 +11606,19 @@
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="33" t="s">
         <v>910</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="33" t="s">
         <v>902</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="33" t="s">
         <v>923</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
     </row>
@@ -11557,13 +11634,13 @@
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
-      <c r="H7" s="31" t="s">
+      <c r="H7" s="33" t="s">
         <v>946</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="33" t="s">
         <v>911</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="33" t="s">
         <v>931</v>
       </c>
       <c r="K7" s="31"/>
@@ -11586,13 +11663,13 @@
       <c r="E8" s="31"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="31" t="s">
+      <c r="H8" s="33" t="s">
         <v>952</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="33" t="s">
         <v>920</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="33" t="s">
         <v>944</v>
       </c>
       <c r="K8" s="31"/>
@@ -11613,11 +11690,11 @@
       <c r="E9" s="31"/>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31" t="s">
+      <c r="H9" s="32"/>
+      <c r="I9" s="33" t="s">
         <v>929</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="33" t="s">
         <v>949</v>
       </c>
       <c r="K9" s="31"/>
@@ -11639,10 +11716,10 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="33" t="s">
         <v>942</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="32"/>
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
@@ -11662,7 +11739,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="960">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2587,9 +2587,6 @@
     <t>AWS EKS Raj Saha</t>
   </si>
   <si>
-    <t>My Own GIT Prepare</t>
-  </si>
-  <si>
     <t>1W       APR 12 - APR 18</t>
   </si>
   <si>
@@ -2914,16 +2911,22 @@
     <t>14 - 9:30 AM - 15 FD + WK Linux Script</t>
   </si>
   <si>
-    <t xml:space="preserve"> Introduction to DevOps &amp; Initial Interview Questions</t>
-  </si>
-  <si>
-    <t>50 DevOps Questions &amp; Interview Notes</t>
-  </si>
-  <si>
     <t>PREP TIME</t>
   </si>
   <si>
     <t>NP</t>
+  </si>
+  <si>
+    <t>DPT REVIEW FULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to DevOps </t>
+  </si>
+  <si>
+    <t>My Own GIT Prepare &amp; Initial Interview Questions</t>
+  </si>
+  <si>
+    <t>50 DevOps Questions &amp; Interview Notes of Recent Interview</t>
   </si>
 </sst>
 </file>
@@ -3060,7 +3063,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3129,6 +3132,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3147,16 +3159,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3513,7 +3519,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3527,7 +3533,7 @@
         <v>754</v>
       </c>
       <c r="I2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -3547,42 +3553,42 @@
         <v>758</v>
       </c>
       <c r="I3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -8275,7 +8281,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -8292,7 +8298,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -8307,7 +8313,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -8322,7 +8328,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -8337,7 +8343,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -8352,7 +8358,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -8367,7 +8373,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -8379,7 +8385,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="37" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -8396,7 +8402,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -8408,7 +8414,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -8417,7 +8423,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -8429,7 +8435,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -8441,7 +8447,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -8453,7 +8459,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="A17" s="37"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -8465,7 +8471,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="37" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -8479,7 +8485,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -8491,7 +8497,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -8503,7 +8509,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -8512,7 +8518,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -8521,19 +8527,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="37"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="37" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -8553,7 +8559,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -8571,7 +8577,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -8586,31 +8592,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="37"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="37"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="37" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -8621,7 +8627,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -8630,7 +8636,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -8639,7 +8645,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="37"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -8648,7 +8654,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -8657,7 +8663,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="A37" s="37"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -8666,13 +8672,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="37" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -8683,7 +8689,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
+      <c r="A40" s="37"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -8692,7 +8698,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
+      <c r="A41" s="37"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -8701,7 +8707,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="37"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -8710,7 +8716,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
+      <c r="A43" s="37"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -8719,7 +8725,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
+      <c r="A44" s="37"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -8728,7 +8734,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
+      <c r="A45" s="37"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -8737,7 +8743,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="37" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -8748,7 +8754,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
+      <c r="A47" s="37"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -8757,7 +8763,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
+      <c r="A48" s="37"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -8766,31 +8772,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
+      <c r="A49" s="37"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="37" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -8801,37 +8807,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
+      <c r="A54" s="37"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="34"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="34"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -10840,16 +10846,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="28"/>
-    <col min="2" max="2" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
@@ -10861,66 +10867,65 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="41" t="s">
-        <v>957</v>
-      </c>
-      <c r="H1" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="20" t="s">
+        <v>954</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="G2" s="42">
-        <v>15</v>
-      </c>
-      <c r="I2" s="24">
-        <v>44666</v>
-      </c>
-      <c r="J2" s="24">
-        <v>44681</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6</v>
+      </c>
+      <c r="F2" s="44"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>819</v>
+        <v>957</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="42">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="24">
-        <v>44682</v>
-      </c>
-      <c r="J3" s="24">
-        <v>44712</v>
+      <c r="F3" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="G3" s="43">
+        <v>15</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="9">
+        <v>44666</v>
+      </c>
+      <c r="J3" s="9">
+        <v>44681</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -10928,416 +10933,478 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>834</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="42">
-        <v>15</v>
-      </c>
-      <c r="H4">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="24">
-        <v>44713</v>
-      </c>
-      <c r="J4" s="24">
-        <v>44742</v>
+      <c r="F4" s="39"/>
+      <c r="G4" s="43">
+        <v>31</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44682</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44712</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="42"/>
-      <c r="H5">
-        <v>3</v>
-      </c>
-      <c r="I5" s="24">
-        <v>44743</v>
-      </c>
-      <c r="J5" s="24">
-        <v>44773</v>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="39"/>
+      <c r="G5" s="43">
+        <v>15</v>
+      </c>
+      <c r="H5" s="20">
+        <v>2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44713</v>
+      </c>
+      <c r="J5" s="9">
+        <v>44742</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>865</v>
+        <v>853</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="42"/>
-      <c r="I6" s="24">
-        <v>44774</v>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="20">
+        <v>3</v>
+      </c>
+      <c r="I6" s="9">
+        <v>44743</v>
+      </c>
+      <c r="J6" s="9">
+        <v>44773</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>822</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>864</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="42">
-        <f>SUM(G2:G6)</f>
-        <v>61</v>
-      </c>
-      <c r="H7">
-        <v>90</v>
-      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="9">
+        <v>44774</v>
+      </c>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="42"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="43">
+        <f>SUM(G3:G7)</f>
+        <v>61</v>
+      </c>
+      <c r="H8" s="20">
+        <v>90</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="35" t="s">
-        <v>852</v>
-      </c>
-      <c r="G9" s="42"/>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="40"/>
+      <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>865</v>
-      </c>
+      <c r="A10" s="20">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="42"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>851</v>
+      </c>
+      <c r="G10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="42"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29">
+        <v>5</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="42"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>827</v>
-      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="G14" s="42"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="2"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>827</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="42"/>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>728</v>
+        <v>840</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
-        <v>11</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>833</v>
-      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>841</v>
+        <v>728</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="35" t="s">
-        <v>851</v>
-      </c>
-      <c r="G18" s="42"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="2"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>833</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="42"/>
+      <c r="E19" s="2">
+        <v>6</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>850</v>
+      </c>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="42"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="42"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>828</v>
-      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="38" t="s">
-        <v>849</v>
-      </c>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="2"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>828</v>
+      </c>
       <c r="C23" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
+        <v>6</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>848</v>
+      </c>
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
-        <v>13</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="35" t="s">
-        <v>848</v>
-      </c>
-      <c r="G24" s="42"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" s="42"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="42"/>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="38" t="s">
+        <v>847</v>
+      </c>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="39"/>
+      <c r="G27" s="35"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
+        <v>3</v>
+      </c>
+      <c r="F28" s="40"/>
+      <c r="G28" s="35"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="2">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="42"/>
+      <c r="C29" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>846</v>
+        <v>611</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="42"/>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="35"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>5</v>
+      </c>
+      <c r="F32" s="40"/>
+      <c r="G32" s="35"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
         <v>866</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="E32" s="2">
-        <f>SUM(E1:E31)</f>
-        <v>0</v>
+      <c r="E33" s="2">
+        <f>SUM(E1:E32)</f>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="F9:F13"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="F3:F9"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11383,46 +11450,46 @@
         <v>712</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>876</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>877</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>755</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>878</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>879</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>611</v>
@@ -11430,143 +11497,143 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>915</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>899</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>938</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>916</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>900</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>885</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>890</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>888</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>882</v>
-      </c>
       <c r="J2" s="33" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="33" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>899</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>918</v>
+        <v>898</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>917</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="33" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="33" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="31"/>
@@ -11574,21 +11641,21 @@
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="31"/>
       <c r="M5" s="33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="31"/>
@@ -11596,10 +11663,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="31"/>
@@ -11607,13 +11674,13 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
@@ -11624,10 +11691,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -11635,13 +11702,13 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
@@ -11653,10 +11720,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -11664,13 +11731,13 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="33" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
@@ -11682,7 +11749,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -11692,10 +11759,10 @@
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
       <c r="I9" s="33" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
@@ -11707,7 +11774,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -11717,7 +11784,7 @@
       <c r="G10" s="31"/>
       <c r="H10" s="31"/>
       <c r="I10" s="33" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="31"/>
@@ -11730,7 +11797,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -11751,7 +11818,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -11772,7 +11839,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -11793,7 +11860,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -11814,7 +11881,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -11835,7 +11902,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -11856,7 +11923,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -11877,7 +11944,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -3141,6 +3141,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3159,10 +3163,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -8281,7 +8281,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="39" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -8298,7 +8298,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -8313,7 +8313,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -8343,7 +8343,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -8358,7 +8358,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -8373,7 +8373,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -8385,7 +8385,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="39" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -8402,7 +8402,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -8414,7 +8414,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -8423,7 +8423,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -8435,7 +8435,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -8447,7 +8447,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -8459,7 +8459,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -8471,7 +8471,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="39" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -8485,7 +8485,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="39"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="39"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -8509,7 +8509,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="39"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -8518,7 +8518,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -8527,19 +8527,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="39"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="39"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="39" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -8559,7 +8559,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -8577,7 +8577,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -8592,31 +8592,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="39"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="39"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="39"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="39" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -8627,7 +8627,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="39"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -8636,7 +8636,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -8645,7 +8645,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -8654,7 +8654,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -8663,7 +8663,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="39"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -8672,13 +8672,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="39"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="39" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="39"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -8698,7 +8698,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="39"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -8707,7 +8707,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="39"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -8716,7 +8716,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="39"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -8725,7 +8725,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -8734,7 +8734,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="39"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -8743,7 +8743,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="39" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -8754,7 +8754,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="39"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -8763,7 +8763,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="39"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -8772,31 +8772,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="39"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="37"/>
+      <c r="A50" s="39"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="39" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -8807,37 +8807,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="39"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="39"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="37"/>
+      <c r="A59" s="39"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -10849,7 +10849,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10866,11 +10866,11 @@
       <c r="A1" s="20">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>953</v>
       </c>
       <c r="E1" s="2"/>
@@ -10898,7 +10898,7 @@
       <c r="E2" s="2">
         <v>6</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -10914,10 +10914,10 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>852</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="37">
         <v>15</v>
       </c>
       <c r="H3" s="20"/>
@@ -10940,8 +10940,8 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="43">
+      <c r="F4" s="41"/>
+      <c r="G4" s="37">
         <v>31</v>
       </c>
       <c r="H4" s="20">
@@ -10968,8 +10968,8 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="43">
+      <c r="F5" s="41"/>
+      <c r="G5" s="37">
         <v>15</v>
       </c>
       <c r="H5" s="20">
@@ -10996,8 +10996,8 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
       </c>
@@ -11020,8 +11020,8 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="43"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
         <v>44774</v>
@@ -11040,8 +11040,8 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="43">
+      <c r="F8" s="41"/>
+      <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>61</v>
       </c>
@@ -11063,7 +11063,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11078,7 +11078,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="40" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="39"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -11108,7 +11108,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="39"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -11130,7 +11130,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11147,7 +11147,7 @@
       <c r="E15" s="2">
         <v>4</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="40" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="39"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="39"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F19" s="40" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -11212,7 +11212,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="35"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -11251,7 +11251,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="43" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -11264,7 +11264,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11279,7 +11279,7 @@
       <c r="E25" s="2">
         <v>3</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="40" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -11294,7 +11294,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="39"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="35"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11309,7 +11309,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="35"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11324,7 +11324,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11339,7 +11339,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="40" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -11356,7 +11356,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="35"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -11371,7 +11371,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -11384,7 +11384,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="40"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="964">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2917,9 +2917,6 @@
     <t>NP</t>
   </si>
   <si>
-    <t>DPT REVIEW FULL</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Introduction to DevOps </t>
   </si>
   <si>
@@ -2927,6 +2924,21 @@
   </si>
   <si>
     <t>50 DevOps Questions &amp; Interview Notes of Recent Interview</t>
+  </si>
+  <si>
+    <t>Diff Jar &amp; War</t>
+  </si>
+  <si>
+    <t>RDS &amp; Multi AZ</t>
+  </si>
+  <si>
+    <t>New Project approach</t>
+  </si>
+  <si>
+    <t>Jenkins workspace</t>
+  </si>
+  <si>
+    <t>DPT REVIEW FULL &amp; GIT Content Prepare</t>
   </si>
 </sst>
 </file>
@@ -10849,7 +10861,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10867,7 +10879,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
@@ -10889,7 +10901,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -10909,7 +10921,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -11365,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
@@ -11416,23 +11428,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O4"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="28"/>
-    <col min="4" max="4" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="28"/>
     <col min="13" max="13" width="23.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.140625" style="28" bestFit="1" customWidth="1"/>
@@ -11672,7 +11684,9 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>959</v>
+      </c>
       <c r="H6" s="33" t="s">
         <v>909</v>
       </c>
@@ -11782,7 +11796,9 @@
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>961</v>
+      </c>
       <c r="I10" s="33" t="s">
         <v>941</v>
       </c>
@@ -11805,7 +11821,9 @@
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>962</v>
+      </c>
       <c r="I11" s="32"/>
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
@@ -11983,7 +12001,9 @@
       <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
+      <c r="A20" s="31" t="s">
+        <v>960</v>
+      </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="974">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2939,6 +2939,36 @@
   </si>
   <si>
     <t>DPT REVIEW FULL &amp; GIT Content Prepare</t>
+  </si>
+  <si>
+    <t>SonarQube Integration</t>
+  </si>
+  <si>
+    <t>Switch to root</t>
+  </si>
+  <si>
+    <t>Server connectivity</t>
+  </si>
+  <si>
+    <t>SSH Passwordless Auth</t>
+  </si>
+  <si>
+    <t>Ans Facts</t>
+  </si>
+  <si>
+    <t>Usecases</t>
+  </si>
+  <si>
+    <t>Ans Arch</t>
+  </si>
+  <si>
+    <t>Modules?</t>
+  </si>
+  <si>
+    <t>Proj Usecase</t>
+  </si>
+  <si>
+    <t>Ans Roles</t>
   </si>
 </sst>
 </file>
@@ -10860,7 +10890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11428,19 +11458,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" style="28" bestFit="1" customWidth="1"/>
@@ -11606,7 +11636,9 @@
       <c r="B4" s="33" t="s">
         <v>913</v>
       </c>
-      <c r="C4" s="31"/>
+      <c r="C4" s="31" t="s">
+        <v>965</v>
+      </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="33" t="s">
@@ -11647,7 +11679,9 @@
       <c r="B5" s="33" t="s">
         <v>927</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="31" t="s">
+        <v>966</v>
+      </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
@@ -11680,7 +11714,9 @@
       <c r="B6" s="33" t="s">
         <v>933</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="31" t="s">
+        <v>967</v>
+      </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
@@ -11700,6 +11736,9 @@
       <c r="L6" s="31"/>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
+      <c r="O6" s="13" t="s">
+        <v>968</v>
+      </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
     </row>
@@ -11714,7 +11753,9 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>964</v>
+      </c>
       <c r="H7" s="33" t="s">
         <v>945</v>
       </c>
@@ -11728,7 +11769,9 @@
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>969</v>
+      </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
     </row>
@@ -11757,7 +11800,9 @@
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>970</v>
+      </c>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
     </row>
@@ -11782,7 +11827,9 @@
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>971</v>
+      </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
     </row>
@@ -11807,7 +11854,9 @@
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>972</v>
+      </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
     </row>
@@ -11830,7 +11879,9 @@
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>973</v>
+      </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
     </row>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="975">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2647,9 +2647,6 @@
     <t>Interview Prepare</t>
   </si>
   <si>
-    <t>Resume Upload 1st June</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
   <si>
@@ -2969,6 +2966,12 @@
   </si>
   <si>
     <t>Ans Roles</t>
+  </si>
+  <si>
+    <t>Ans handlers</t>
+  </si>
+  <si>
+    <t>Resume Upload 15 June</t>
   </si>
 </sst>
 </file>
@@ -10890,8 +10893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10909,19 +10912,19 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>954</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>955</v>
       </c>
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
@@ -10931,7 +10934,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2">
@@ -10951,7 +10954,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -11407,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2">
@@ -11431,7 +11434,7 @@
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
-        <v>866</v>
+        <v>974</v>
       </c>
       <c r="E33" s="2">
         <f>SUM(E1:E32)</f>
@@ -11458,8 +11461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11492,46 +11495,46 @@
         <v>712</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>755</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>611</v>
@@ -11539,169 +11542,169 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>936</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>886</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>880</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>915</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>899</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>884</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>889</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>887</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>881</v>
-      </c>
       <c r="J2" s="33" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="33" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="N2" s="33" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="O2" s="33" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C3" s="32"/>
       <c r="D3" s="33" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H3" s="33" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I3" s="33" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J3" s="33" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K3" s="33" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="33" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="N3" s="33" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="O3" s="33" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
       <c r="F4" s="33" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J4" s="33" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="K4" s="33" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="33" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="P4" s="31"/>
       <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
       <c r="H5" s="33" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J5" s="33" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="K5" s="32"/>
       <c r="L5" s="31"/>
       <c r="M5" s="33" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="O5" s="32"/>
       <c r="P5" s="31"/>
@@ -11709,78 +11712,78 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
       <c r="F6" s="31"/>
       <c r="G6" s="31" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
       <c r="M6" s="32"/>
       <c r="N6" s="32"/>
       <c r="O6" s="13" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P6" s="31"/>
       <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -11788,27 +11791,27 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="P8" s="31"/>
       <c r="Q8" s="31"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B9" s="32"/>
       <c r="C9" s="31"/>
@@ -11818,24 +11821,24 @@
       <c r="G9" s="31"/>
       <c r="H9" s="32"/>
       <c r="I9" s="33" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="P9" s="31"/>
       <c r="Q9" s="31"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -11844,10 +11847,10 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="31" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="31"/>
@@ -11855,14 +11858,14 @@
       <c r="M10" s="31"/>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="P10" s="31"/>
       <c r="Q10" s="31"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -11871,7 +11874,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="31" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="31"/>
@@ -11880,14 +11883,14 @@
       <c r="M11" s="31"/>
       <c r="N11" s="31"/>
       <c r="O11" s="31" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="P11" s="31"/>
       <c r="Q11" s="31"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -11902,13 +11905,15 @@
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
+      <c r="O12" s="31" t="s">
+        <v>973</v>
+      </c>
       <c r="P12" s="31"/>
       <c r="Q12" s="31"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -11929,7 +11934,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -11950,7 +11955,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -11971,7 +11976,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -11992,7 +11997,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -12013,7 +12018,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -12053,7 +12058,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="978">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2972,6 +2972,15 @@
   </si>
   <si>
     <t>Resume Upload 15 June</t>
+  </si>
+  <si>
+    <t>Golden AMI Creation</t>
+  </si>
+  <si>
+    <t>Monolithic vs Microservice</t>
+  </si>
+  <si>
+    <t>Start from 19/4/2022</t>
   </si>
 </sst>
 </file>
@@ -10894,7 +10903,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D36"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10957,7 +10966,9 @@
         <v>955</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>977</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="40" t="s">
         <v>852</v>
@@ -11462,7 +11473,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11470,7 +11481,7 @@
     <col min="1" max="1" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" style="28" bestFit="1" customWidth="1"/>
@@ -11685,7 +11696,9 @@
       <c r="C5" s="31" t="s">
         <v>965</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="31" t="s">
+        <v>975</v>
+      </c>
       <c r="E5" s="31"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
@@ -11899,7 +11912,9 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="I12" s="31" t="s">
+        <v>976</v>
+      </c>
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -3239,10 +3239,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5686425" cy="1364963"/>
     <xdr:pic>
@@ -3260,7 +3260,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12039600" y="123825"/>
+          <a:off x="11849100" y="152400"/>
           <a:ext cx="5686425" cy="1364963"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10903,7 +10903,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10974,11 +10974,11 @@
         <v>852</v>
       </c>
       <c r="G3" s="37">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="20"/>
       <c r="I3" s="9">
-        <v>44666</v>
+        <v>44669</v>
       </c>
       <c r="J3" s="9">
         <v>44681</v>
@@ -11099,7 +11099,7 @@
       <c r="F8" s="41"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H8" s="20">
         <v>90</v>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="40" t="s">
         <v>849</v>
@@ -11333,7 +11333,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F25" s="40" t="s">
         <v>847</v>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="E33" s="2">
         <f>SUM(E1:E32)</f>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -15,7 +15,8 @@
     <sheet name="xxx" sheetId="7" r:id="rId6"/>
     <sheet name="To_Study_TRF" sheetId="8" r:id="rId7"/>
     <sheet name="Plan" sheetId="11" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId9"/>
+    <sheet name="IQS" sheetId="12" r:id="rId9"/>
+    <sheet name="Daily_Plan" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="990">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2981,6 +2982,42 @@
   </si>
   <si>
     <t>Start from 19/4/2022</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>All the DevOps Intial Questions Prepare.</t>
+  </si>
+  <si>
+    <t>DevOps Introduction</t>
+  </si>
+  <si>
+    <t>Waterfall + Agile + DevOPs</t>
+  </si>
+  <si>
+    <t>Segregate of 1000 questions</t>
+  </si>
+  <si>
+    <t>Vacation Start</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Concentration on Job</t>
+  </si>
+  <si>
+    <t>Resign</t>
+  </si>
+  <si>
+    <t>Less Concentration on Job</t>
+  </si>
+  <si>
+    <t>DevOps IQS Concentration</t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3217,6 +3254,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3651,6 +3689,564 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>978</v>
+      </c>
+      <c r="B1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
+        <v>44669</v>
+      </c>
+      <c r="B2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="24">
+        <v>44670</v>
+      </c>
+      <c r="B3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C3" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
+        <v>44671</v>
+      </c>
+      <c r="B4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>44672</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="C5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>44673</v>
+      </c>
+      <c r="B6" t="s">
+        <v>866</v>
+      </c>
+      <c r="C6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
+        <v>44674</v>
+      </c>
+      <c r="B7" t="s">
+        <v>866</v>
+      </c>
+      <c r="C7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
+        <v>44675</v>
+      </c>
+      <c r="B8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C8" t="s">
+        <v>986</v>
+      </c>
+      <c r="D8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
+        <v>44676</v>
+      </c>
+      <c r="B9" t="s">
+        <v>985</v>
+      </c>
+      <c r="C9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D9" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="24">
+        <v>44677</v>
+      </c>
+      <c r="B10" t="s">
+        <v>985</v>
+      </c>
+      <c r="C10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="24">
+        <v>44678</v>
+      </c>
+      <c r="B11" t="s">
+        <v>985</v>
+      </c>
+      <c r="C11" t="s">
+        <v>988</v>
+      </c>
+      <c r="D11" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="24">
+        <v>44679</v>
+      </c>
+      <c r="C12" t="s">
+        <v>988</v>
+      </c>
+      <c r="D12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="24">
+        <v>44680</v>
+      </c>
+      <c r="C13" t="s">
+        <v>988</v>
+      </c>
+      <c r="D13" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>44681</v>
+      </c>
+      <c r="C14" t="s">
+        <v>988</v>
+      </c>
+      <c r="D14" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="24">
+        <v>44682</v>
+      </c>
+      <c r="C15" t="s">
+        <v>988</v>
+      </c>
+      <c r="D15" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="24">
+        <v>44683</v>
+      </c>
+      <c r="C16" t="s">
+        <v>987</v>
+      </c>
+      <c r="D16" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>44684</v>
+      </c>
+      <c r="D17" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <v>44685</v>
+      </c>
+      <c r="D18" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>44686</v>
+      </c>
+      <c r="D19" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>44687</v>
+      </c>
+      <c r="D20" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>44688</v>
+      </c>
+      <c r="D21" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>44689</v>
+      </c>
+      <c r="D22" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <v>44690</v>
+      </c>
+      <c r="D23" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <v>44691</v>
+      </c>
+      <c r="D24" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <v>44692</v>
+      </c>
+      <c r="D25" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <v>44693</v>
+      </c>
+      <c r="D26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <v>44694</v>
+      </c>
+      <c r="D27" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <v>44695</v>
+      </c>
+      <c r="D28" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <v>44696</v>
+      </c>
+      <c r="D29" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>44697</v>
+      </c>
+      <c r="D30" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>44698</v>
+      </c>
+      <c r="D31" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>44699</v>
+      </c>
+      <c r="D32" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>44700</v>
+      </c>
+      <c r="D33" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <v>44701</v>
+      </c>
+      <c r="D34" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <v>44702</v>
+      </c>
+      <c r="D35" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <v>44703</v>
+      </c>
+      <c r="D36" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <v>44704</v>
+      </c>
+      <c r="D37" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <v>44705</v>
+      </c>
+      <c r="D38" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <v>44706</v>
+      </c>
+      <c r="D39" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <v>44707</v>
+      </c>
+      <c r="D40" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <v>44708</v>
+      </c>
+      <c r="D41" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <v>44709</v>
+      </c>
+      <c r="D42" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <v>44710</v>
+      </c>
+      <c r="D43" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <v>44711</v>
+      </c>
+      <c r="D44" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <v>44712</v>
+      </c>
+      <c r="D45" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <v>44713</v>
+      </c>
+      <c r="D46" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <v>44714</v>
+      </c>
+      <c r="D47" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <v>44715</v>
+      </c>
+      <c r="D48" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <v>44716</v>
+      </c>
+      <c r="D49" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <v>44717</v>
+      </c>
+      <c r="D50" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
+        <v>44718</v>
+      </c>
+      <c r="D51" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="24">
+        <v>44719</v>
+      </c>
+      <c r="D52" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <v>44720</v>
+      </c>
+      <c r="D53" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <v>44721</v>
+      </c>
+      <c r="D54" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <v>44722</v>
+      </c>
+      <c r="D55" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
+        <v>44723</v>
+      </c>
+      <c r="D56" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <v>44724</v>
+      </c>
+      <c r="D57" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <v>44725</v>
+      </c>
+      <c r="D58" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="24">
+        <v>44726</v>
+      </c>
+      <c r="D59" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="24">
+        <v>44727</v>
+      </c>
+      <c r="D60" t="s">
+        <v>989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O35"/>
@@ -9916,8 +10512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10900,10 +11496,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10914,9 +11510,10 @@
     <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>1</v>
       </c>
@@ -10938,7 +11535,7 @@
       <c r="I1" s="20"/>
       <c r="J1" s="20"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>2</v>
       </c>
@@ -10958,7 +11555,7 @@
       <c r="I2" s="20"/>
       <c r="J2" s="20"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20">
         <v>2</v>
       </c>
@@ -10984,7 +11581,7 @@
         <v>44681</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>3</v>
       </c>
@@ -11010,7 +11607,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -11038,7 +11635,7 @@
         <v>44742</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -11064,7 +11661,7 @@
         <v>44773</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -11084,7 +11681,7 @@
       </c>
       <c r="J7" s="20"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -11107,7 +11704,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -11122,7 +11719,7 @@
       <c r="F9" s="42"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -11138,8 +11735,20 @@
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -11149,8 +11758,20 @@
       <c r="E11" s="2"/>
       <c r="F11" s="41"/>
       <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>9</v>
       </c>
@@ -11166,8 +11787,20 @@
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="35"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -11177,8 +11810,29 @@
       <c r="E13" s="2"/>
       <c r="F13" s="41"/>
       <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="M13" s="37">
+        <v>13</v>
+      </c>
+      <c r="N13" s="20">
+        <v>1</v>
+      </c>
+      <c r="O13" s="9">
+        <v>44669</v>
+      </c>
+      <c r="P13" s="9">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -11188,8 +11842,29 @@
       <c r="E14" s="2"/>
       <c r="F14" s="42"/>
       <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="M14" s="37">
+        <v>31</v>
+      </c>
+      <c r="N14" s="20">
+        <v>2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>44699</v>
+      </c>
+      <c r="P14" s="9">
+        <v>44729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>10</v>
       </c>
@@ -11207,8 +11882,29 @@
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="M15" s="37">
+        <v>15</v>
+      </c>
+      <c r="N15" s="20">
+        <v>3</v>
+      </c>
+      <c r="O15" s="9">
+        <v>44760</v>
+      </c>
+      <c r="P15" s="9">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -11218,8 +11914,27 @@
       <c r="E16" s="2"/>
       <c r="F16" s="41"/>
       <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>9</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="M16" s="37"/>
+      <c r="O16" s="9">
+        <v>44743</v>
+      </c>
+      <c r="P16" s="9">
+        <v>44773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
@@ -11229,8 +11944,26 @@
       <c r="E17" s="2"/>
       <c r="F17" s="41"/>
       <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="M17" s="37"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="9">
+        <v>44774</v>
+      </c>
+      <c r="P17" s="20"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
@@ -11240,8 +11973,20 @@
       <c r="E18" s="2"/>
       <c r="F18" s="42"/>
       <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>11</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -11259,8 +12004,29 @@
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="M19" s="2">
+        <v>12</v>
+      </c>
+      <c r="N19" s="2">
+        <v>12</v>
+      </c>
+      <c r="O19" s="45">
+        <v>44670</v>
+      </c>
+      <c r="P19" s="45">
+        <v>44681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
@@ -11270,8 +12036,32 @@
       <c r="E20" s="2"/>
       <c r="F20" s="41"/>
       <c r="G20" s="35"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>13</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="M20" s="2">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2">
+        <v>31</v>
+      </c>
+      <c r="O20" s="45">
+        <v>44682</v>
+      </c>
+      <c r="P20" s="45">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
@@ -11281,8 +12071,32 @@
       <c r="E21" s="2"/>
       <c r="F21" s="42"/>
       <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>14</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>12</v>
+      </c>
+      <c r="M21" s="2">
+        <v>7</v>
+      </c>
+      <c r="N21" s="2">
+        <v>30</v>
+      </c>
+      <c r="O21" s="45">
+        <v>44713</v>
+      </c>
+      <c r="P21" s="45">
+        <v>44742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
@@ -11292,8 +12106,30 @@
       <c r="E22" s="2"/>
       <c r="F22" s="30"/>
       <c r="G22" s="35"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>15</v>
+      </c>
+      <c r="I22">
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2">
+        <v>17</v>
+      </c>
+      <c r="O22" s="45">
+        <v>44743</v>
+      </c>
+      <c r="P22" s="45">
+        <v>44759</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>12</v>
       </c>
@@ -11311,8 +12147,33 @@
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>16</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+      <c r="M23" s="2">
+        <f>SUM(M19:M22)</f>
+        <v>50</v>
+      </c>
+      <c r="N23" s="2">
+        <f>SUM(N19:N22)</f>
+        <v>90</v>
+      </c>
+      <c r="O23" s="2">
+        <f>(N23-M23)</f>
+        <v>40</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -11322,8 +12183,20 @@
       <c r="E24" s="2"/>
       <c r="F24" s="44"/>
       <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>17</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>13</v>
       </c>
@@ -11339,8 +12212,20 @@
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>18</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>12</v>
+      </c>
+      <c r="K25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>14</v>
       </c>
@@ -11352,8 +12237,20 @@
       <c r="E26" s="2"/>
       <c r="F26" s="41"/>
       <c r="G26" s="35"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>13</v>
+      </c>
+      <c r="K26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>15</v>
       </c>
@@ -11367,8 +12264,20 @@
       </c>
       <c r="F27" s="41"/>
       <c r="G27" s="35"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>16</v>
       </c>
@@ -11382,8 +12291,20 @@
       </c>
       <c r="F28" s="42"/>
       <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>21</v>
+      </c>
+      <c r="I28">
+        <v>22</v>
+      </c>
+      <c r="J28">
+        <v>15</v>
+      </c>
+      <c r="K28">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="2">
         <v>2</v>
@@ -11399,8 +12320,20 @@
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>22</v>
+      </c>
+      <c r="I29">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>16</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="20"/>
       <c r="B30" s="2">
         <v>2</v>
@@ -11414,8 +12347,20 @@
       </c>
       <c r="F30" s="41"/>
       <c r="G30" s="35"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>23</v>
+      </c>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="2">
         <v>1</v>
@@ -11429,8 +12374,20 @@
       </c>
       <c r="F31" s="41"/>
       <c r="G31" s="35"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="2" t="s">
         <v>865</v>
@@ -11442,14 +12399,38 @@
       </c>
       <c r="F32" s="42"/>
       <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="6" t="s">
         <v>974</v>
       </c>
       <c r="E33" s="2">
         <f>SUM(E1:E32)</f>
         <v>63</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>4</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -11473,7 +12454,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="xxx" sheetId="7" r:id="rId6"/>
     <sheet name="To_Study_TRF" sheetId="8" r:id="rId7"/>
     <sheet name="Plan" sheetId="11" r:id="rId8"/>
-    <sheet name="IQS" sheetId="12" r:id="rId9"/>
-    <sheet name="Daily_Plan" sheetId="13" r:id="rId10"/>
+    <sheet name="Daily_Plan" sheetId="13" r:id="rId9"/>
+    <sheet name="IQS" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="991">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3018,6 +3018,9 @@
   </si>
   <si>
     <t>DevOps IQS Concentration</t>
+  </si>
+  <si>
+    <t>Days</t>
   </si>
 </sst>
 </file>
@@ -3154,7 +3157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3239,6 +3242,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3254,7 +3261,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3691,559 +3697,973 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="28"/>
+    <col min="13" max="13" width="23.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
-        <v>44669</v>
-      </c>
-      <c r="B2" t="s">
-        <v>980</v>
-      </c>
-      <c r="C2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
-        <v>44670</v>
-      </c>
-      <c r="B3" t="s">
-        <v>981</v>
-      </c>
-      <c r="C3" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
-        <v>44671</v>
-      </c>
-      <c r="B4" t="s">
-        <v>982</v>
-      </c>
-      <c r="C4" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
-        <v>44672</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>983</v>
-      </c>
-      <c r="C5" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>44673</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="C6" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>44674</v>
-      </c>
-      <c r="B7" t="s">
-        <v>866</v>
-      </c>
-      <c r="C7" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>44675</v>
-      </c>
-      <c r="B8" t="s">
-        <v>866</v>
-      </c>
-      <c r="C8" t="s">
-        <v>986</v>
-      </c>
-      <c r="D8" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>44676</v>
-      </c>
-      <c r="B9" t="s">
-        <v>985</v>
-      </c>
-      <c r="C9" t="s">
-        <v>986</v>
-      </c>
-      <c r="D9" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>44677</v>
-      </c>
-      <c r="B10" t="s">
-        <v>985</v>
-      </c>
-      <c r="C10" t="s">
-        <v>988</v>
-      </c>
-      <c r="D10" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>44678</v>
-      </c>
-      <c r="B11" t="s">
-        <v>985</v>
-      </c>
-      <c r="C11" t="s">
-        <v>988</v>
-      </c>
-      <c r="D11" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>44679</v>
-      </c>
-      <c r="C12" t="s">
-        <v>988</v>
-      </c>
-      <c r="D12" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>44680</v>
-      </c>
-      <c r="C13" t="s">
-        <v>988</v>
-      </c>
-      <c r="D13" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>44681</v>
-      </c>
-      <c r="C14" t="s">
-        <v>988</v>
-      </c>
-      <c r="D14" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>44682</v>
-      </c>
-      <c r="C15" t="s">
-        <v>988</v>
-      </c>
-      <c r="D15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>44683</v>
-      </c>
-      <c r="C16" t="s">
-        <v>987</v>
-      </c>
-      <c r="D16" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
-        <v>44684</v>
-      </c>
-      <c r="D17" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
-        <v>44685</v>
-      </c>
-      <c r="D18" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>44686</v>
-      </c>
-      <c r="D19" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>44687</v>
-      </c>
-      <c r="D20" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>44688</v>
-      </c>
-      <c r="D21" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>44689</v>
-      </c>
-      <c r="D22" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>44690</v>
-      </c>
-      <c r="D23" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>44691</v>
-      </c>
-      <c r="D24" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>44692</v>
-      </c>
-      <c r="D25" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
-        <v>44693</v>
-      </c>
-      <c r="D26" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
-        <v>44694</v>
-      </c>
-      <c r="D27" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
-        <v>44695</v>
-      </c>
-      <c r="D28" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
-        <v>44696</v>
-      </c>
-      <c r="D29" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
-        <v>44697</v>
-      </c>
-      <c r="D30" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
-        <v>44698</v>
-      </c>
-      <c r="D31" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
-        <v>44699</v>
-      </c>
-      <c r="D32" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
-        <v>44700</v>
-      </c>
-      <c r="D33" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
-        <v>44701</v>
-      </c>
-      <c r="D34" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
-        <v>44702</v>
-      </c>
-      <c r="D35" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
-        <v>44703</v>
-      </c>
-      <c r="D36" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
-        <v>44704</v>
-      </c>
-      <c r="D37" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
-        <v>44705</v>
-      </c>
-      <c r="D38" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
-        <v>44706</v>
-      </c>
-      <c r="D39" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
-        <v>44707</v>
-      </c>
-      <c r="D40" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
-        <v>44708</v>
-      </c>
-      <c r="D41" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
-        <v>44709</v>
-      </c>
-      <c r="D42" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
-        <v>44710</v>
-      </c>
-      <c r="D43" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
-        <v>44711</v>
-      </c>
-      <c r="D44" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
-        <v>44712</v>
-      </c>
-      <c r="D45" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
-        <v>44713</v>
-      </c>
-      <c r="D46" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
-        <v>44714</v>
-      </c>
-      <c r="D47" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
-        <v>44715</v>
-      </c>
-      <c r="D48" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
-        <v>44716</v>
-      </c>
-      <c r="D49" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
-        <v>44717</v>
-      </c>
-      <c r="D50" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
-        <v>44718</v>
-      </c>
-      <c r="D51" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
-        <v>44719</v>
-      </c>
-      <c r="D52" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
-        <v>44720</v>
-      </c>
-      <c r="D53" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
-        <v>44721</v>
-      </c>
-      <c r="D54" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
-        <v>44722</v>
-      </c>
-      <c r="D55" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
-        <v>44723</v>
-      </c>
-      <c r="D56" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
-        <v>44724</v>
-      </c>
-      <c r="D57" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
-        <v>44725</v>
-      </c>
-      <c r="D58" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
-        <v>44726</v>
-      </c>
-      <c r="D59" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
-        <v>44727</v>
-      </c>
-      <c r="D60" t="s">
-        <v>989</v>
-      </c>
+      <c r="D1" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>881</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>936</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>914</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="F2" s="33" t="s">
+        <v>883</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>888</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>886</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>880</v>
+      </c>
+      <c r="J2" s="33" t="s">
+        <v>890</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>903</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="33" t="s">
+        <v>894</v>
+      </c>
+      <c r="N2" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="O2" s="33" t="s">
+        <v>930</v>
+      </c>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>939</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>897</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>887</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>884</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>895</v>
+      </c>
+      <c r="K3" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="33" t="s">
+        <v>925</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>907</v>
+      </c>
+      <c r="O3" s="33" t="s">
+        <v>934</v>
+      </c>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="33" t="s">
+        <v>885</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>912</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33" t="s">
+        <v>935</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>924</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>892</v>
+      </c>
+      <c r="J4" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="33" t="s">
+        <v>931</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>937</v>
+      </c>
+      <c r="O4" s="33" t="s">
+        <v>941</v>
+      </c>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>893</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>926</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>965</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>975</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33" t="s">
+        <v>891</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>899</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="K5" s="32"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>945</v>
+      </c>
+      <c r="O5" s="32"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>896</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>932</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>966</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>900</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="13" t="s">
+        <v>967</v>
+      </c>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>901</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>933</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31" t="s">
+        <v>963</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>944</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>909</v>
+      </c>
+      <c r="J7" s="33" t="s">
+        <v>929</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>968</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>910</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>938</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>918</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>942</v>
+      </c>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>969</v>
+      </c>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>913</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="33" t="s">
+        <v>927</v>
+      </c>
+      <c r="J9" s="33" t="s">
+        <v>947</v>
+      </c>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>970</v>
+      </c>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>915</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31" t="s">
+        <v>960</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>940</v>
+      </c>
+      <c r="J10" s="32"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>971</v>
+      </c>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="33" t="s">
+        <v>917</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>972</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>919</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31" t="s">
+        <v>976</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31" t="s">
+        <v>973</v>
+      </c>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="33" t="s">
+        <v>920</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>922</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>923</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>928</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
+        <v>943</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>959</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="31"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="31"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="31"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="31"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="31"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8931,7 +9351,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -8948,7 +9368,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -8963,7 +9383,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -8978,7 +9398,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -8993,7 +9413,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9008,7 +9428,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9023,7 +9443,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9035,7 +9455,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9052,7 +9472,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9064,7 +9484,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9073,7 +9493,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9085,7 +9505,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9097,7 +9517,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9109,7 +9529,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9121,7 +9541,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="41" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9135,7 +9555,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
+      <c r="A19" s="41"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9147,7 +9567,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
+      <c r="A20" s="41"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9159,7 +9579,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9168,7 +9588,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
+      <c r="A22" s="41"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9177,19 +9597,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="41"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
+      <c r="A24" s="41"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="41" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9209,7 +9629,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
+      <c r="A26" s="41"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9227,7 +9647,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9242,31 +9662,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="41" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9277,7 +9697,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
+      <c r="A33" s="41"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9286,7 +9706,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
+      <c r="A34" s="41"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9295,7 +9715,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
+      <c r="A35" s="41"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9304,7 +9724,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
+      <c r="A36" s="41"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9313,7 +9733,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
+      <c r="A37" s="41"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9322,13 +9742,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
+      <c r="A38" s="41"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="41" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9339,7 +9759,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9348,7 +9768,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="41"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9357,7 +9777,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="41"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9366,7 +9786,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="41"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9375,7 +9795,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="41"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9384,7 +9804,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="41"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9393,7 +9813,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="41" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9404,7 +9824,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="41"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9413,7 +9833,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="41"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9422,31 +9842,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="41"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="41"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="41"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="41" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -9457,37 +9877,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
+      <c r="A54" s="41"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
+      <c r="A55" s="41"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
+      <c r="A56" s="41"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="39"/>
+      <c r="A57" s="41"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="39"/>
+      <c r="A58" s="41"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="39"/>
+      <c r="A59" s="41"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -11498,8 +11918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11567,7 +11987,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="42" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -11593,7 +12013,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="41"/>
+      <c r="F4" s="43"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -11621,7 +12041,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -11649,7 +12069,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="41"/>
+      <c r="F6" s="43"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -11673,7 +12093,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="41"/>
+      <c r="F7" s="43"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -11693,7 +12113,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -11716,7 +12136,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11731,7 +12151,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="42" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -11756,7 +12176,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>4</v>
@@ -11785,7 +12205,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>5</v>
@@ -11808,7 +12228,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="41"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>6</v>
@@ -11840,7 +12260,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="42"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>7</v>
@@ -11878,7 +12298,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="42" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -11912,7 +12332,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>9</v>
@@ -11942,7 +12362,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="41"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>10</v>
@@ -11971,7 +12391,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="42"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>11</v>
@@ -12000,7 +12420,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" s="42" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12019,10 +12439,10 @@
       <c r="N19" s="2">
         <v>12</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="40">
         <v>44670</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="40">
         <v>44681</v>
       </c>
     </row>
@@ -12034,7 +12454,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="41"/>
+      <c r="F20" s="43"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>13</v>
@@ -12054,10 +12474,10 @@
       <c r="N20" s="2">
         <v>31</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="40">
         <v>44682</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="40">
         <v>44712</v>
       </c>
     </row>
@@ -12069,7 +12489,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="42"/>
+      <c r="F21" s="44"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>14</v>
@@ -12089,10 +12509,10 @@
       <c r="N21" s="2">
         <v>30</v>
       </c>
-      <c r="O21" s="45">
+      <c r="O21" s="40">
         <v>44713</v>
       </c>
-      <c r="P21" s="45">
+      <c r="P21" s="40">
         <v>44742</v>
       </c>
     </row>
@@ -12122,10 +12542,10 @@
       <c r="N22" s="2">
         <v>17</v>
       </c>
-      <c r="O22" s="45">
+      <c r="O22" s="40">
         <v>44743</v>
       </c>
-      <c r="P22" s="45">
+      <c r="P22" s="40">
         <v>44759</v>
       </c>
     </row>
@@ -12143,7 +12563,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="45" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12181,7 +12601,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="44"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>17</v>
@@ -12208,7 +12628,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="F25" s="42" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12235,7 +12655,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="41"/>
+      <c r="F26" s="43"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>19</v>
@@ -12262,7 +12682,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="41"/>
+      <c r="F27" s="43"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>20</v>
@@ -12289,7 +12709,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>21</v>
@@ -12316,7 +12736,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="40" t="s">
+      <c r="F29" s="42" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12345,7 +12765,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>23</v>
@@ -12372,7 +12792,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="41"/>
+      <c r="F31" s="43"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>12</v>
@@ -12397,7 +12817,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>1</v>
@@ -12451,972 +12871,732 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="28"/>
-    <col min="13" max="13" width="23.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="28"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="24">
+        <v>44669</v>
+      </c>
+      <c r="C2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="24">
+        <v>44670</v>
+      </c>
+      <c r="C3" t="s">
+        <v>981</v>
+      </c>
+      <c r="D3" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="39">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24">
+        <v>44671</v>
+      </c>
+      <c r="C4" t="s">
+        <v>982</v>
+      </c>
+      <c r="D4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24">
+        <v>44672</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>983</v>
+      </c>
+      <c r="D5" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="39">
+        <v>4</v>
+      </c>
+      <c r="B6" s="24">
+        <v>44673</v>
+      </c>
+      <c r="C6" t="s">
         <v>866</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>867</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>868</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>879</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>881</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>936</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>914</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>898</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>883</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>888</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>886</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>880</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>890</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>903</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="33" t="s">
-        <v>894</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>904</v>
-      </c>
-      <c r="O2" s="33" t="s">
-        <v>930</v>
-      </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
-        <v>882</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>906</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
-        <v>949</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>939</v>
-      </c>
-      <c r="F3" s="33" t="s">
-        <v>897</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>916</v>
-      </c>
-      <c r="H3" s="33" t="s">
-        <v>887</v>
-      </c>
-      <c r="I3" s="33" t="s">
-        <v>884</v>
-      </c>
-      <c r="J3" s="33" t="s">
-        <v>895</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>905</v>
-      </c>
-      <c r="L3" s="31"/>
-      <c r="M3" s="33" t="s">
-        <v>925</v>
-      </c>
-      <c r="N3" s="33" t="s">
-        <v>907</v>
-      </c>
-      <c r="O3" s="33" t="s">
-        <v>934</v>
-      </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>885</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>912</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>964</v>
-      </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33" t="s">
-        <v>935</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>924</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>889</v>
-      </c>
-      <c r="I4" s="33" t="s">
-        <v>892</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>902</v>
-      </c>
-      <c r="K4" s="33" t="s">
-        <v>951</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="33" t="s">
-        <v>931</v>
-      </c>
-      <c r="N4" s="33" t="s">
-        <v>937</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>941</v>
-      </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>893</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>926</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>965</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>975</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33" t="s">
-        <v>891</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>899</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>911</v>
-      </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="33" t="s">
-        <v>946</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>945</v>
-      </c>
-      <c r="O5" s="32"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>896</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>932</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>966</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31" t="s">
-        <v>958</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>908</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>900</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>921</v>
-      </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="13" t="s">
-        <v>967</v>
-      </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>901</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>933</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31" t="s">
-        <v>963</v>
-      </c>
-      <c r="H7" s="33" t="s">
-        <v>944</v>
-      </c>
-      <c r="I7" s="33" t="s">
-        <v>909</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>929</v>
-      </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>968</v>
-      </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>910</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>938</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="33" t="s">
-        <v>950</v>
-      </c>
-      <c r="I8" s="33" t="s">
-        <v>918</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>942</v>
-      </c>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>969</v>
-      </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>913</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33" t="s">
-        <v>927</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>947</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>970</v>
-      </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>915</v>
-      </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31" t="s">
-        <v>960</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>940</v>
-      </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>971</v>
-      </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="33" t="s">
-        <v>917</v>
-      </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31" t="s">
-        <v>961</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>972</v>
-      </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>919</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31" t="s">
-        <v>976</v>
-      </c>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31" t="s">
-        <v>973</v>
-      </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="33" t="s">
-        <v>920</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="s">
-        <v>922</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>923</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="33" t="s">
-        <v>928</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="33" t="s">
-        <v>943</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="33" t="s">
-        <v>948</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>959</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
+      <c r="D6" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39">
+        <v>5</v>
+      </c>
+      <c r="B7" s="24">
+        <v>44674</v>
+      </c>
+      <c r="C7" t="s">
+        <v>866</v>
+      </c>
+      <c r="D7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="39">
+        <v>6</v>
+      </c>
+      <c r="B8" s="24">
+        <v>44675</v>
+      </c>
+      <c r="C8" t="s">
+        <v>866</v>
+      </c>
+      <c r="D8" t="s">
+        <v>986</v>
+      </c>
+      <c r="E8" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39">
+        <v>7</v>
+      </c>
+      <c r="B9" s="24">
+        <v>44676</v>
+      </c>
+      <c r="C9" t="s">
+        <v>985</v>
+      </c>
+      <c r="D9" t="s">
+        <v>986</v>
+      </c>
+      <c r="E9" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="39">
+        <v>8</v>
+      </c>
+      <c r="B10" s="24">
+        <v>44677</v>
+      </c>
+      <c r="C10" t="s">
+        <v>985</v>
+      </c>
+      <c r="D10" t="s">
+        <v>988</v>
+      </c>
+      <c r="E10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="39">
+        <v>9</v>
+      </c>
+      <c r="B11" s="24">
+        <v>44678</v>
+      </c>
+      <c r="C11" t="s">
+        <v>985</v>
+      </c>
+      <c r="D11" t="s">
+        <v>988</v>
+      </c>
+      <c r="E11" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="39">
+        <v>10</v>
+      </c>
+      <c r="B12" s="24">
+        <v>44679</v>
+      </c>
+      <c r="D12" t="s">
+        <v>988</v>
+      </c>
+      <c r="E12" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24">
+        <v>44680</v>
+      </c>
+      <c r="D13" t="s">
+        <v>988</v>
+      </c>
+      <c r="E13" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>12</v>
+      </c>
+      <c r="B14" s="24">
+        <v>44681</v>
+      </c>
+      <c r="D14" t="s">
+        <v>988</v>
+      </c>
+      <c r="E14" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="39">
+        <v>13</v>
+      </c>
+      <c r="B15" s="24">
+        <v>44682</v>
+      </c>
+      <c r="D15" t="s">
+        <v>988</v>
+      </c>
+      <c r="E15" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="39">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24">
+        <v>44683</v>
+      </c>
+      <c r="E16" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>15</v>
+      </c>
+      <c r="B17" s="24">
+        <v>44684</v>
+      </c>
+      <c r="E17" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>16</v>
+      </c>
+      <c r="B18" s="24">
+        <v>44685</v>
+      </c>
+      <c r="E18" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>17</v>
+      </c>
+      <c r="B19" s="24">
+        <v>44686</v>
+      </c>
+      <c r="E19" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24">
+        <v>44687</v>
+      </c>
+      <c r="E20" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="39">
+        <v>19</v>
+      </c>
+      <c r="B21" s="24">
+        <v>44688</v>
+      </c>
+      <c r="E21" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
+        <v>20</v>
+      </c>
+      <c r="B22" s="24">
+        <v>44689</v>
+      </c>
+      <c r="E22" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="39">
+        <v>21</v>
+      </c>
+      <c r="B23" s="24">
+        <v>44690</v>
+      </c>
+      <c r="E23" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
+        <v>22</v>
+      </c>
+      <c r="B24" s="24">
+        <v>44691</v>
+      </c>
+      <c r="E24" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="39">
+        <v>23</v>
+      </c>
+      <c r="B25" s="24">
+        <v>44692</v>
+      </c>
+      <c r="E25" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>24</v>
+      </c>
+      <c r="B26" s="24">
+        <v>44693</v>
+      </c>
+      <c r="E26" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="39">
+        <v>25</v>
+      </c>
+      <c r="B27" s="24">
+        <v>44694</v>
+      </c>
+      <c r="E27" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
+        <v>26</v>
+      </c>
+      <c r="B28" s="24">
+        <v>44695</v>
+      </c>
+      <c r="E28" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="39">
+        <v>27</v>
+      </c>
+      <c r="B29" s="24">
+        <v>44696</v>
+      </c>
+      <c r="E29" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
+        <v>28</v>
+      </c>
+      <c r="B30" s="24">
+        <v>44697</v>
+      </c>
+      <c r="E30" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="39">
+        <v>29</v>
+      </c>
+      <c r="B31" s="24">
+        <v>44698</v>
+      </c>
+      <c r="E31" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
+        <v>30</v>
+      </c>
+      <c r="B32" s="24">
+        <v>44699</v>
+      </c>
+      <c r="E32" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="39">
+        <v>31</v>
+      </c>
+      <c r="B33" s="24">
+        <v>44700</v>
+      </c>
+      <c r="E33" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="39">
+        <v>32</v>
+      </c>
+      <c r="B34" s="24">
+        <v>44701</v>
+      </c>
+      <c r="E34" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="39">
+        <v>33</v>
+      </c>
+      <c r="B35" s="24">
+        <v>44702</v>
+      </c>
+      <c r="E35" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="39">
+        <v>34</v>
+      </c>
+      <c r="B36" s="24">
+        <v>44703</v>
+      </c>
+      <c r="E36" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
+        <v>35</v>
+      </c>
+      <c r="B37" s="24">
+        <v>44704</v>
+      </c>
+      <c r="E37" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="39">
+        <v>36</v>
+      </c>
+      <c r="B38" s="24">
+        <v>44705</v>
+      </c>
+      <c r="E38" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="24">
+        <v>44706</v>
+      </c>
+      <c r="E39" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
+        <v>38</v>
+      </c>
+      <c r="B40" s="24">
+        <v>44707</v>
+      </c>
+      <c r="E40" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
+        <v>39</v>
+      </c>
+      <c r="B41" s="24">
+        <v>44708</v>
+      </c>
+      <c r="E41" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="39">
+        <v>40</v>
+      </c>
+      <c r="B42" s="24">
+        <v>44709</v>
+      </c>
+      <c r="E42" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="39">
+        <v>41</v>
+      </c>
+      <c r="B43" s="24">
+        <v>44710</v>
+      </c>
+      <c r="E43" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="39">
+        <v>42</v>
+      </c>
+      <c r="B44" s="24">
+        <v>44711</v>
+      </c>
+      <c r="E44" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
+        <v>43</v>
+      </c>
+      <c r="B45" s="24">
+        <v>44712</v>
+      </c>
+      <c r="E45" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="39">
+        <v>44</v>
+      </c>
+      <c r="B46" s="24">
+        <v>44713</v>
+      </c>
+      <c r="E46" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="39">
+        <v>45</v>
+      </c>
+      <c r="B47" s="24">
+        <v>44714</v>
+      </c>
+      <c r="E47" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="39">
+        <v>46</v>
+      </c>
+      <c r="B48" s="24">
+        <v>44715</v>
+      </c>
+      <c r="E48" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="39">
+        <v>47</v>
+      </c>
+      <c r="B49" s="24">
+        <v>44716</v>
+      </c>
+      <c r="E49" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="39">
+        <v>48</v>
+      </c>
+      <c r="B50" s="24">
+        <v>44717</v>
+      </c>
+      <c r="E50" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="39">
+        <v>49</v>
+      </c>
+      <c r="B51" s="24">
+        <v>44718</v>
+      </c>
+      <c r="E51" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="39">
+        <v>50</v>
+      </c>
+      <c r="B52" s="24">
+        <v>44719</v>
+      </c>
+      <c r="E52" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="39">
+        <v>51</v>
+      </c>
+      <c r="B53" s="24">
+        <v>44720</v>
+      </c>
+      <c r="E53" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="39">
+        <v>52</v>
+      </c>
+      <c r="B54" s="24">
+        <v>44721</v>
+      </c>
+      <c r="E54" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="39">
+        <v>53</v>
+      </c>
+      <c r="B55" s="24">
+        <v>44722</v>
+      </c>
+      <c r="E55" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="39">
+        <v>54</v>
+      </c>
+      <c r="B56" s="24">
+        <v>44723</v>
+      </c>
+      <c r="E56" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="39">
+        <v>55</v>
+      </c>
+      <c r="B57" s="24">
+        <v>44724</v>
+      </c>
+      <c r="E57" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="39">
+        <v>56</v>
+      </c>
+      <c r="B58" s="24">
+        <v>44725</v>
+      </c>
+      <c r="E58" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="39">
+        <v>57</v>
+      </c>
+      <c r="B59" s="24">
+        <v>44726</v>
+      </c>
+      <c r="E59" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="39">
+        <v>58</v>
+      </c>
+      <c r="B60" s="24">
+        <v>44727</v>
+      </c>
+      <c r="E60" t="s">
+        <v>989</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="992">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2990,15 +2990,9 @@
     <t>Tasks</t>
   </si>
   <si>
-    <t>All the DevOps Intial Questions Prepare.</t>
-  </si>
-  <si>
     <t>DevOps Introduction</t>
   </si>
   <si>
-    <t>Waterfall + Agile + DevOPs</t>
-  </si>
-  <si>
     <t>Segregate of 1000 questions</t>
   </si>
   <si>
@@ -3021,6 +3015,15 @@
   </si>
   <si>
     <t>Days</t>
+  </si>
+  <si>
+    <t>Waterfall + Agile + DevOPs, Jira Process, Initial questions</t>
+  </si>
+  <si>
+    <t>Nana DB - 1 - Introduction to DevOps</t>
+  </si>
+  <si>
+    <t>NANA-1, DevOPs Initial Questions</t>
   </si>
 </sst>
 </file>
@@ -11918,8 +11921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12156,10 +12159,10 @@
       </c>
       <c r="G10" s="35"/>
       <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
         <v>3</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -12179,10 +12182,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="35"/>
       <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
         <v>4</v>
-      </c>
-      <c r="I11">
-        <v>5</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -12208,10 +12211,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="35"/>
       <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
         <v>5</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -12231,10 +12234,10 @@
       <c r="F13" s="43"/>
       <c r="G13" s="35"/>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
         <v>6</v>
-      </c>
-      <c r="I13">
-        <v>7</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -12263,10 +12266,10 @@
       <c r="F14" s="44"/>
       <c r="G14" s="35"/>
       <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
         <v>7</v>
-      </c>
-      <c r="I14">
-        <v>8</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -12303,10 +12306,10 @@
       </c>
       <c r="G15" s="35"/>
       <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
         <v>8</v>
-      </c>
-      <c r="I15">
-        <v>9</v>
       </c>
       <c r="K15">
         <v>6</v>
@@ -12335,10 +12338,10 @@
       <c r="F16" s="43"/>
       <c r="G16" s="35"/>
       <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
         <v>9</v>
-      </c>
-      <c r="I16">
-        <v>10</v>
       </c>
       <c r="J16">
         <v>4</v>
@@ -12365,10 +12368,10 @@
       <c r="F17" s="43"/>
       <c r="G17" s="35"/>
       <c r="H17">
+        <v>9</v>
+      </c>
+      <c r="I17">
         <v>10</v>
-      </c>
-      <c r="I17">
-        <v>11</v>
       </c>
       <c r="J17">
         <v>5</v>
@@ -12394,10 +12397,10 @@
       <c r="F18" s="44"/>
       <c r="G18" s="35"/>
       <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
         <v>11</v>
-      </c>
-      <c r="I18">
-        <v>12</v>
       </c>
       <c r="J18">
         <v>6</v>
@@ -12425,10 +12428,10 @@
       </c>
       <c r="G19" s="35"/>
       <c r="H19">
+        <v>11</v>
+      </c>
+      <c r="I19">
         <v>12</v>
-      </c>
-      <c r="I19">
-        <v>13</v>
       </c>
       <c r="K19">
         <v>10</v>
@@ -12457,10 +12460,10 @@
       <c r="F20" s="43"/>
       <c r="G20" s="35"/>
       <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="I20">
         <v>13</v>
-      </c>
-      <c r="I20">
-        <v>14</v>
       </c>
       <c r="J20">
         <v>7</v>
@@ -12492,10 +12495,10 @@
       <c r="F21" s="44"/>
       <c r="G21" s="35"/>
       <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
         <v>14</v>
-      </c>
-      <c r="I21">
-        <v>15</v>
       </c>
       <c r="J21">
         <v>8</v>
@@ -12527,10 +12530,10 @@
       <c r="F22" s="30"/>
       <c r="G22" s="35"/>
       <c r="H22">
+        <v>14</v>
+      </c>
+      <c r="I22">
         <v>15</v>
-      </c>
-      <c r="I22">
-        <v>16</v>
       </c>
       <c r="J22">
         <v>9</v>
@@ -12568,10 +12571,10 @@
       </c>
       <c r="G23" s="36"/>
       <c r="H23">
+        <v>15</v>
+      </c>
+      <c r="I23">
         <v>16</v>
-      </c>
-      <c r="I23">
-        <v>17</v>
       </c>
       <c r="J23">
         <v>10</v>
@@ -12604,10 +12607,10 @@
       <c r="F24" s="46"/>
       <c r="G24" s="36"/>
       <c r="H24">
+        <v>16</v>
+      </c>
+      <c r="I24">
         <v>17</v>
-      </c>
-      <c r="I24">
-        <v>18</v>
       </c>
       <c r="J24">
         <v>11</v>
@@ -12633,10 +12636,10 @@
       </c>
       <c r="G25" s="35"/>
       <c r="H25">
+        <v>17</v>
+      </c>
+      <c r="I25">
         <v>18</v>
-      </c>
-      <c r="I25">
-        <v>19</v>
       </c>
       <c r="J25">
         <v>12</v>
@@ -12658,10 +12661,10 @@
       <c r="F26" s="43"/>
       <c r="G26" s="35"/>
       <c r="H26">
+        <v>18</v>
+      </c>
+      <c r="I26">
         <v>19</v>
-      </c>
-      <c r="I26">
-        <v>20</v>
       </c>
       <c r="J26">
         <v>13</v>
@@ -12685,10 +12688,10 @@
       <c r="F27" s="43"/>
       <c r="G27" s="35"/>
       <c r="H27">
+        <v>19</v>
+      </c>
+      <c r="I27">
         <v>20</v>
-      </c>
-      <c r="I27">
-        <v>21</v>
       </c>
       <c r="J27">
         <v>14</v>
@@ -12712,10 +12715,10 @@
       <c r="F28" s="44"/>
       <c r="G28" s="35"/>
       <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
         <v>21</v>
-      </c>
-      <c r="I28">
-        <v>22</v>
       </c>
       <c r="J28">
         <v>15</v>
@@ -12741,10 +12744,10 @@
       </c>
       <c r="G29" s="35"/>
       <c r="H29">
+        <v>21</v>
+      </c>
+      <c r="I29">
         <v>22</v>
-      </c>
-      <c r="I29">
-        <v>23</v>
       </c>
       <c r="J29">
         <v>16</v>
@@ -12768,10 +12771,10 @@
       <c r="F30" s="43"/>
       <c r="G30" s="35"/>
       <c r="H30">
+        <v>22</v>
+      </c>
+      <c r="I30">
         <v>23</v>
-      </c>
-      <c r="I30">
-        <v>24</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -12795,10 +12798,10 @@
       <c r="F31" s="43"/>
       <c r="G31" s="35"/>
       <c r="H31">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -12820,10 +12823,10 @@
       <c r="F32" s="44"/>
       <c r="G32" s="35"/>
       <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
         <v>1</v>
-      </c>
-      <c r="I32">
-        <v>2</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -12841,10 +12844,10 @@
         <v>63</v>
       </c>
       <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
         <v>2</v>
-      </c>
-      <c r="I33">
-        <v>3</v>
       </c>
       <c r="J33">
         <v>4</v>
@@ -12871,10 +12874,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12882,12 +12885,12 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B1" t="s">
         <v>978</v>
@@ -12900,58 +12903,61 @@
       <c r="B2" s="24">
         <v>44669</v>
       </c>
-      <c r="C2" t="s">
-        <v>980</v>
+      <c r="C2" s="26" t="s">
+        <v>981</v>
       </c>
       <c r="D2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
       <c r="B3" s="24">
         <v>44670</v>
       </c>
       <c r="C3" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D3" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="24">
         <v>44671</v>
       </c>
       <c r="C4" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="D4" t="s">
-        <v>986</v>
+        <v>984</v>
+      </c>
+      <c r="E4" t="s">
+        <v>989</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="24">
         <v>44672</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>983</v>
+      <c r="C5" t="s">
+        <v>864</v>
       </c>
       <c r="D5" t="s">
-        <v>986</v>
+        <v>984</v>
+      </c>
+      <c r="E5" t="s">
+        <v>991</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="24">
         <v>44673</v>
@@ -12960,12 +12966,15 @@
         <v>866</v>
       </c>
       <c r="D6" t="s">
-        <v>986</v>
+        <v>984</v>
+      </c>
+      <c r="E6" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="24">
         <v>44674</v>
@@ -12974,12 +12983,12 @@
         <v>866</v>
       </c>
       <c r="D7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="24">
         <v>44675</v>
@@ -12988,612 +12997,617 @@
         <v>866</v>
       </c>
       <c r="D8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E8" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="24">
         <v>44676</v>
       </c>
       <c r="C9" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D9" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E9" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="24">
         <v>44677</v>
       </c>
       <c r="C10" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D10" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E10" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="24">
         <v>44678</v>
       </c>
       <c r="C11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E11" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="24">
         <v>44679</v>
       </c>
       <c r="D12" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E12" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="24">
         <v>44680</v>
       </c>
       <c r="D13" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E13" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="24">
         <v>44681</v>
       </c>
       <c r="D14" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E14" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="24">
         <v>44682</v>
       </c>
       <c r="D15" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="E15" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="24">
         <v>44683</v>
       </c>
       <c r="E16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="24">
         <v>44684</v>
       </c>
       <c r="E17" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="24">
         <v>44685</v>
       </c>
       <c r="E18" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="24">
         <v>44686</v>
       </c>
       <c r="E19" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="24">
         <v>44687</v>
       </c>
       <c r="E20" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="24">
         <v>44688</v>
       </c>
       <c r="E21" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="24">
         <v>44689</v>
       </c>
       <c r="E22" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="24">
         <v>44690</v>
       </c>
       <c r="E23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="24">
         <v>44691</v>
       </c>
       <c r="E24" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="24">
         <v>44692</v>
       </c>
       <c r="E25" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="24">
         <v>44693</v>
       </c>
       <c r="E26" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="24">
         <v>44694</v>
       </c>
       <c r="E27" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="24">
         <v>44695</v>
       </c>
       <c r="E28" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="24">
         <v>44696</v>
       </c>
       <c r="E29" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="24">
         <v>44697</v>
       </c>
       <c r="E30" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="24">
         <v>44698</v>
       </c>
       <c r="E31" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="24">
         <v>44699</v>
       </c>
       <c r="E32" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="24">
         <v>44700</v>
       </c>
       <c r="E33" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="24">
         <v>44701</v>
       </c>
       <c r="E34" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="24">
         <v>44702</v>
       </c>
       <c r="E35" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="24">
         <v>44703</v>
       </c>
       <c r="E36" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="24">
         <v>44704</v>
       </c>
       <c r="E37" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="24">
         <v>44705</v>
       </c>
       <c r="E38" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="24">
         <v>44706</v>
       </c>
       <c r="E39" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="24">
         <v>44707</v>
       </c>
       <c r="E40" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="24">
         <v>44708</v>
       </c>
       <c r="E41" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="24">
         <v>44709</v>
       </c>
       <c r="E42" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="24">
         <v>44710</v>
       </c>
       <c r="E43" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="24">
         <v>44711</v>
       </c>
       <c r="E44" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="24">
         <v>44712</v>
       </c>
       <c r="E45" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="24">
         <v>44713</v>
       </c>
       <c r="E46" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="24">
         <v>44714</v>
       </c>
       <c r="E47" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="24">
         <v>44715</v>
       </c>
       <c r="E48" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="24">
         <v>44716</v>
       </c>
       <c r="E49" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="24">
         <v>44717</v>
       </c>
       <c r="E50" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="24">
         <v>44718</v>
       </c>
       <c r="E51" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="24">
         <v>44719</v>
       </c>
       <c r="E52" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="24">
         <v>44720</v>
       </c>
       <c r="E53" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="24">
         <v>44721</v>
       </c>
       <c r="E54" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="24">
         <v>44722</v>
       </c>
       <c r="E55" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="24">
         <v>44723</v>
       </c>
       <c r="E56" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="24">
         <v>44724</v>
       </c>
       <c r="E57" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="24">
         <v>44725</v>
       </c>
       <c r="E58" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="24">
         <v>44726</v>
       </c>
       <c r="E59" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="24">
         <v>44727</v>
       </c>
       <c r="E60" t="s">
-        <v>989</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="39">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -3069,7 +3069,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3091,6 +3091,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3160,7 +3166,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3264,6 +3270,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11921,7 +11929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30:K33"/>
     </sheetView>
   </sheetViews>
@@ -12876,8 +12884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12900,24 +12908,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="24">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48">
         <v>44669</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="47" t="s">
         <v>981</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="47" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="24">
+      <c r="A3" s="47"/>
+      <c r="B3" s="48">
         <v>44670</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="47" t="s">
         <v>980</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="47" t="s">
         <v>985</v>
       </c>
     </row>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="991">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3018,9 +3018,6 @@
   </si>
   <si>
     <t>Waterfall + Agile + DevOPs, Jira Process, Initial questions</t>
-  </si>
-  <si>
-    <t>Nana DB - 1 - Introduction to DevOps</t>
   </si>
   <si>
     <t>NANA-1, DevOPs Initial Questions</t>
@@ -3252,6 +3249,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3270,8 +3269,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9362,7 +9359,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -9379,7 +9376,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -9394,7 +9391,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -9409,7 +9406,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -9424,7 +9421,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9439,7 +9436,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9454,7 +9451,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9466,7 +9463,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9483,7 +9480,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9495,7 +9492,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9504,7 +9501,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9516,7 +9513,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9528,7 +9525,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9540,7 +9537,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9552,7 +9549,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="43" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9566,7 +9563,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9578,7 +9575,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9590,7 +9587,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9599,7 +9596,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9608,19 +9605,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="43" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9640,7 +9637,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9658,7 +9655,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9673,31 +9670,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="43" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9708,7 +9705,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9717,7 +9714,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9726,7 +9723,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9735,7 +9732,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9744,7 +9741,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9753,13 +9750,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="43" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9770,7 +9767,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9779,7 +9776,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9788,7 +9785,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9797,7 +9794,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9806,7 +9803,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9815,7 +9812,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="41"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9824,7 +9821,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9835,7 +9832,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9844,7 +9841,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9853,31 +9850,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="43" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -9888,37 +9885,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="43"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -11998,7 +11995,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="44" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -12024,7 +12021,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="43"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -12052,7 +12049,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="43"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -12080,7 +12077,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="43"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -12104,7 +12101,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="43"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -12124,7 +12121,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -12147,7 +12144,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12162,7 +12159,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F10" s="44" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -12187,7 +12184,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="43"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>3</v>
@@ -12216,7 +12213,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="43"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>4</v>
@@ -12239,7 +12236,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="43"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>5</v>
@@ -12271,7 +12268,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="44"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>6</v>
@@ -12309,7 +12306,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="44" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -12343,7 +12340,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="43"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>8</v>
@@ -12373,7 +12370,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="43"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>9</v>
@@ -12402,7 +12399,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="44"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>10</v>
@@ -12431,7 +12428,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="44" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12465,7 +12462,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="43"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>12</v>
@@ -12500,7 +12497,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="44"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>13</v>
@@ -12574,7 +12571,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="45" t="s">
+      <c r="F23" s="47" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12612,7 +12609,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="46"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>16</v>
@@ -12639,7 +12636,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="44" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12666,7 +12663,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="43"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>18</v>
@@ -12693,7 +12690,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="43"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>19</v>
@@ -12720,7 +12717,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>20</v>
@@ -12747,7 +12744,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="44" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12776,7 +12773,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="43"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>22</v>
@@ -12803,7 +12800,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="43"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>23</v>
@@ -12828,7 +12825,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>12</v>
@@ -12885,7 +12882,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:D3"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12908,26 +12905,26 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42">
         <v>44669</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="41" t="s">
         <v>981</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="41" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48">
+      <c r="A3" s="41"/>
+      <c r="B3" s="42">
         <v>44670</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="41" t="s">
         <v>985</v>
       </c>
     </row>
@@ -12938,8 +12935,8 @@
       <c r="B4" s="24">
         <v>44671</v>
       </c>
-      <c r="C4" t="s">
-        <v>990</v>
+      <c r="C4" s="41" t="s">
+        <v>980</v>
       </c>
       <c r="D4" t="s">
         <v>984</v>
@@ -12962,7 +12959,7 @@
         <v>984</v>
       </c>
       <c r="E5" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="989">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3008,19 +3008,13 @@
     <t>Resign</t>
   </si>
   <si>
-    <t>Less Concentration on Job</t>
-  </si>
-  <si>
-    <t>DevOps IQS Concentration</t>
-  </si>
-  <si>
     <t>Days</t>
   </si>
   <si>
-    <t>Waterfall + Agile + DevOPs, Jira Process, Initial questions</t>
-  </si>
-  <si>
     <t>NANA-1, DevOPs Initial Questions</t>
+  </si>
+  <si>
+    <t>Waterfall + Agile + DevOPs, Jira Process, Initial Interview questions</t>
   </si>
 </sst>
 </file>
@@ -3707,7 +3701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -12881,8 +12875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12890,12 +12884,12 @@
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B1" t="s">
         <v>978</v>
@@ -12938,11 +12932,11 @@
       <c r="C4" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="41" t="s">
         <v>984</v>
       </c>
-      <c r="E4" t="s">
-        <v>989</v>
+      <c r="E4" s="41" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -12955,11 +12949,8 @@
       <c r="C5" t="s">
         <v>864</v>
       </c>
-      <c r="D5" t="s">
-        <v>984</v>
-      </c>
       <c r="E5" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12972,9 +12963,6 @@
       <c r="C6" t="s">
         <v>866</v>
       </c>
-      <c r="D6" t="s">
-        <v>984</v>
-      </c>
       <c r="E6" t="s">
         <v>864</v>
       </c>
@@ -12989,9 +12977,6 @@
       <c r="C7" t="s">
         <v>866</v>
       </c>
-      <c r="D7" t="s">
-        <v>984</v>
-      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
@@ -13003,9 +12988,6 @@
       <c r="C8" t="s">
         <v>866</v>
       </c>
-      <c r="D8" t="s">
-        <v>984</v>
-      </c>
       <c r="E8" t="s">
         <v>982</v>
       </c>
@@ -13020,12 +13002,6 @@
       <c r="C9" t="s">
         <v>983</v>
       </c>
-      <c r="D9" t="s">
-        <v>984</v>
-      </c>
-      <c r="E9" t="s">
-        <v>987</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
@@ -13037,12 +13013,6 @@
       <c r="C10" t="s">
         <v>983</v>
       </c>
-      <c r="D10" t="s">
-        <v>986</v>
-      </c>
-      <c r="E10" t="s">
-        <v>987</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
@@ -13054,12 +13024,6 @@
       <c r="C11" t="s">
         <v>983</v>
       </c>
-      <c r="D11" t="s">
-        <v>986</v>
-      </c>
-      <c r="E11" t="s">
-        <v>987</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
@@ -13068,12 +13032,6 @@
       <c r="B12" s="24">
         <v>44679</v>
       </c>
-      <c r="D12" t="s">
-        <v>986</v>
-      </c>
-      <c r="E12" t="s">
-        <v>987</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -13082,12 +13040,6 @@
       <c r="B13" s="24">
         <v>44680</v>
       </c>
-      <c r="D13" t="s">
-        <v>986</v>
-      </c>
-      <c r="E13" t="s">
-        <v>987</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
@@ -13096,12 +13048,6 @@
       <c r="B14" s="24">
         <v>44681</v>
       </c>
-      <c r="D14" t="s">
-        <v>986</v>
-      </c>
-      <c r="E14" t="s">
-        <v>987</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
@@ -13110,12 +13056,6 @@
       <c r="B15" s="24">
         <v>44682</v>
       </c>
-      <c r="D15" t="s">
-        <v>986</v>
-      </c>
-      <c r="E15" t="s">
-        <v>987</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
@@ -13124,495 +13064,360 @@
       <c r="B16" s="24">
         <v>44683</v>
       </c>
-      <c r="E16" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>14</v>
       </c>
       <c r="B17" s="24">
         <v>44684</v>
       </c>
-      <c r="E17" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>15</v>
       </c>
       <c r="B18" s="24">
         <v>44685</v>
       </c>
-      <c r="E18" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>16</v>
       </c>
       <c r="B19" s="24">
         <v>44686</v>
       </c>
-      <c r="E19" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>17</v>
       </c>
       <c r="B20" s="24">
         <v>44687</v>
       </c>
-      <c r="E20" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>18</v>
       </c>
       <c r="B21" s="24">
         <v>44688</v>
       </c>
-      <c r="E21" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>19</v>
       </c>
       <c r="B22" s="24">
         <v>44689</v>
       </c>
-      <c r="E22" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>20</v>
       </c>
       <c r="B23" s="24">
         <v>44690</v>
       </c>
-      <c r="E23" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>21</v>
       </c>
       <c r="B24" s="24">
         <v>44691</v>
       </c>
-      <c r="E24" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>22</v>
       </c>
       <c r="B25" s="24">
         <v>44692</v>
       </c>
-      <c r="E25" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>23</v>
       </c>
       <c r="B26" s="24">
         <v>44693</v>
       </c>
-      <c r="E26" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>24</v>
       </c>
       <c r="B27" s="24">
         <v>44694</v>
       </c>
-      <c r="E27" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>25</v>
       </c>
       <c r="B28" s="24">
         <v>44695</v>
       </c>
-      <c r="E28" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>26</v>
       </c>
       <c r="B29" s="24">
         <v>44696</v>
       </c>
-      <c r="E29" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>27</v>
       </c>
       <c r="B30" s="24">
         <v>44697</v>
       </c>
-      <c r="E30" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>28</v>
       </c>
       <c r="B31" s="24">
         <v>44698</v>
       </c>
-      <c r="E31" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>29</v>
       </c>
       <c r="B32" s="24">
         <v>44699</v>
       </c>
-      <c r="E32" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>30</v>
       </c>
       <c r="B33" s="24">
         <v>44700</v>
       </c>
-      <c r="E33" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>31</v>
       </c>
       <c r="B34" s="24">
         <v>44701</v>
       </c>
-      <c r="E34" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>32</v>
       </c>
       <c r="B35" s="24">
         <v>44702</v>
       </c>
-      <c r="E35" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>33</v>
       </c>
       <c r="B36" s="24">
         <v>44703</v>
       </c>
-      <c r="E36" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>34</v>
       </c>
       <c r="B37" s="24">
         <v>44704</v>
       </c>
-      <c r="E37" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>35</v>
       </c>
       <c r="B38" s="24">
         <v>44705</v>
       </c>
-      <c r="E38" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>36</v>
       </c>
       <c r="B39" s="24">
         <v>44706</v>
       </c>
-      <c r="E39" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>37</v>
       </c>
       <c r="B40" s="24">
         <v>44707</v>
       </c>
-      <c r="E40" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>38</v>
       </c>
       <c r="B41" s="24">
         <v>44708</v>
       </c>
-      <c r="E41" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>39</v>
       </c>
       <c r="B42" s="24">
         <v>44709</v>
       </c>
-      <c r="E42" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>40</v>
       </c>
       <c r="B43" s="24">
         <v>44710</v>
       </c>
-      <c r="E43" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>41</v>
       </c>
       <c r="B44" s="24">
         <v>44711</v>
       </c>
-      <c r="E44" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>42</v>
       </c>
       <c r="B45" s="24">
         <v>44712</v>
       </c>
-      <c r="E45" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>43</v>
       </c>
       <c r="B46" s="24">
         <v>44713</v>
       </c>
-      <c r="E46" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>44</v>
       </c>
       <c r="B47" s="24">
         <v>44714</v>
       </c>
-      <c r="E47" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>45</v>
       </c>
       <c r="B48" s="24">
         <v>44715</v>
       </c>
-      <c r="E48" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>46</v>
       </c>
       <c r="B49" s="24">
         <v>44716</v>
       </c>
-      <c r="E49" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>47</v>
       </c>
       <c r="B50" s="24">
         <v>44717</v>
       </c>
-      <c r="E50" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>48</v>
       </c>
       <c r="B51" s="24">
         <v>44718</v>
       </c>
-      <c r="E51" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>49</v>
       </c>
       <c r="B52" s="24">
         <v>44719</v>
       </c>
-      <c r="E52" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>50</v>
       </c>
       <c r="B53" s="24">
         <v>44720</v>
       </c>
-      <c r="E53" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>51</v>
       </c>
       <c r="B54" s="24">
         <v>44721</v>
       </c>
-      <c r="E54" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>52</v>
       </c>
       <c r="B55" s="24">
         <v>44722</v>
       </c>
-      <c r="E55" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>53</v>
       </c>
       <c r="B56" s="24">
         <v>44723</v>
       </c>
-      <c r="E56" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>54</v>
       </c>
       <c r="B57" s="24">
         <v>44724</v>
       </c>
-      <c r="E57" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>55</v>
       </c>
       <c r="B58" s="24">
         <v>44725</v>
       </c>
-      <c r="E58" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>56</v>
       </c>
       <c r="B59" s="24">
         <v>44726</v>
       </c>
-      <c r="E59" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>57</v>
       </c>
       <c r="B60" s="24">
         <v>44727</v>
       </c>
-      <c r="E60" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>58</v>
       </c>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="1305" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Versions" sheetId="9" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="987">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3002,19 +3002,13 @@
     <t>Git</t>
   </si>
   <si>
-    <t>Concentration on Job</t>
-  </si>
-  <si>
-    <t>Resign</t>
-  </si>
-  <si>
     <t>Days</t>
   </si>
   <si>
-    <t>NANA-1, DevOPs Initial Questions</t>
-  </si>
-  <si>
-    <t>Waterfall + Agile + DevOPs, Jira Process, Initial Interview questions</t>
+    <t>Waterfall + Agile + DevOPs, Jira Process, Initial Interview questions, NANA-1</t>
+  </si>
+  <si>
+    <t>Linux-Bash, DPT 8,9,10,11, NANA-2, mdb-linux, Linux - 50 DevOps IQS, Revision</t>
   </si>
 </sst>
 </file>
@@ -3060,7 +3054,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3088,6 +3082,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3157,7 +3157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3263,6 +3263,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3701,7 +3706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -11921,7 +11926,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:K33"/>
+      <selection activeCell="H10" sqref="H10:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12873,23 +12878,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:E60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B1" t="s">
         <v>978</v>
@@ -12898,19 +12902,16 @@
         <v>979</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51">
         <v>44669</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="50" t="s">
         <v>981</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="42">
         <v>44670</v>
@@ -12918,11 +12919,8 @@
       <c r="C3" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>1</v>
       </c>
@@ -12933,13 +12931,10 @@
         <v>980</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>984</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2</v>
       </c>
@@ -12949,11 +12944,11 @@
       <c r="C5" t="s">
         <v>864</v>
       </c>
-      <c r="E5" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="49" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>3</v>
       </c>
@@ -12963,11 +12958,11 @@
       <c r="C6" t="s">
         <v>866</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>4</v>
       </c>
@@ -12978,7 +12973,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>5</v>
       </c>
@@ -12988,11 +12983,11 @@
       <c r="C8" t="s">
         <v>866</v>
       </c>
-      <c r="E8" t="s">
+      <c r="D8" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>6</v>
       </c>
@@ -13003,7 +12998,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>7</v>
       </c>
@@ -13014,7 +13009,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>8</v>
       </c>
@@ -13025,7 +13020,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>9</v>
       </c>
@@ -13033,7 +13028,7 @@
         <v>44679</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>10</v>
       </c>
@@ -13041,7 +13036,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>11</v>
       </c>
@@ -13049,7 +13044,7 @@
         <v>44681</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>12</v>
       </c>
@@ -13057,7 +13052,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>13</v>
       </c>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="996">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3008,7 +3008,34 @@
     <t>Waterfall + Agile + DevOPs, Jira Process, Initial Interview questions, NANA-1</t>
   </si>
   <si>
-    <t>Linux-Bash, DPT 8,9,10,11, NANA-2, mdb-linux, Linux - 50 DevOps IQS, Revision</t>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Need to complete all DevOps - Intro &amp; Linux</t>
+  </si>
+  <si>
+    <t>Linux-Bash, DPT 8,9,10,11,</t>
+  </si>
+  <si>
+    <t>NANA-2, mdb-linux, Linux - 50 DevOps IQS, Revision</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3245,6 +3272,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3263,11 +3292,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9358,7 +9391,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="45" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -9375,7 +9408,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -9390,7 +9423,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -9405,7 +9438,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -9420,7 +9453,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9435,7 +9468,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9450,7 +9483,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9462,7 +9495,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="45" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9479,7 +9512,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9491,7 +9524,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9500,7 +9533,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9512,7 +9545,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9524,7 +9557,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9536,7 +9569,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9548,7 +9581,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="45" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9562,7 +9595,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9574,7 +9607,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9586,7 +9619,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9595,7 +9628,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9604,19 +9637,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="45" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9636,7 +9669,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9654,7 +9687,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9669,31 +9702,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="45" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9704,7 +9737,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9713,7 +9746,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9722,7 +9755,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9731,7 +9764,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9740,7 +9773,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9749,13 +9782,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="45" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9766,7 +9799,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9775,7 +9808,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9784,7 +9817,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9793,7 +9826,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9802,7 +9835,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9811,7 +9844,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9820,7 +9853,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="45" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9831,7 +9864,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9840,7 +9873,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9849,31 +9882,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="45" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -9884,37 +9917,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -11994,7 +12027,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="46" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -12020,7 +12053,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -12048,7 +12081,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -12076,7 +12109,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -12100,7 +12133,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="45"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -12120,7 +12153,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -12143,7 +12176,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12158,7 +12191,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="44" t="s">
+      <c r="F10" s="46" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -12183,7 +12216,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="45"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>3</v>
@@ -12212,7 +12245,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>4</v>
@@ -12235,7 +12268,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>5</v>
@@ -12267,7 +12300,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>6</v>
@@ -12305,7 +12338,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="46" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -12339,7 +12372,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="45"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>8</v>
@@ -12369,7 +12402,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="45"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>9</v>
@@ -12398,7 +12431,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="46"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>10</v>
@@ -12427,7 +12460,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="46" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12461,7 +12494,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>12</v>
@@ -12496,7 +12529,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>13</v>
@@ -12570,7 +12603,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="49" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12608,7 +12641,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="48"/>
+      <c r="F24" s="50"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>16</v>
@@ -12635,7 +12668,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="46" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12662,7 +12695,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="45"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>18</v>
@@ -12689,7 +12722,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>19</v>
@@ -12716,7 +12749,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>20</v>
@@ -12743,7 +12776,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="46" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12772,7 +12805,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="47"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>22</v>
@@ -12799,7 +12832,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>23</v>
@@ -12824,7 +12857,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>12</v>
@@ -12878,543 +12911,724 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>984</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>978</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="44">
         <v>44669</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="D2" s="43" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
-      <c r="B3" s="42">
+      <c r="B3" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C3" s="42">
         <v>44670</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="D3" s="41" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C4" s="42">
         <v>44671</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="D4" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="E4" s="51" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C5" s="42">
         <v>44672</v>
       </c>
-      <c r="C5" t="s">
-        <v>864</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="41" t="s">
+        <v>866</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>3</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C6" s="24">
         <v>44673</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>866</v>
       </c>
-      <c r="D6" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="52" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="39">
         <v>4</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C7" s="24">
         <v>44674</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>5</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C8" s="24">
         <v>44675</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>866</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="13" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="39">
         <v>6</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="24">
         <v>44676</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="39">
         <v>7</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C10" s="24">
         <v>44677</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="39">
         <v>8</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C11" s="24">
         <v>44678</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="39">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C12" s="24">
         <v>44679</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
         <v>10</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C13" s="24">
         <v>44680</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
         <v>11</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C14" s="24">
         <v>44681</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>12</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C15" s="24">
         <v>44682</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>13</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C16" s="24">
         <v>44683</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>14</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C17" s="24">
         <v>44684</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>15</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C18" s="24">
         <v>44685</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>16</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C19" s="24">
         <v>44686</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>17</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C20" s="24">
         <v>44687</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>18</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C21" s="24">
         <v>44688</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>19</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C22" s="24">
         <v>44689</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>20</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C23" s="24">
         <v>44690</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>21</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C24" s="24">
         <v>44691</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>22</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C25" s="24">
         <v>44692</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>23</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C26" s="24">
         <v>44693</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>24</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C27" s="24">
         <v>44694</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>25</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C28" s="24">
         <v>44695</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>26</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C29" s="24">
         <v>44696</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>27</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C30" s="24">
         <v>44697</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>28</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C31" s="24">
         <v>44698</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>29</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C32" s="24">
         <v>44699</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>30</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C33" s="24">
         <v>44700</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>31</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C34" s="24">
         <v>44701</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>32</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C35" s="24">
         <v>44702</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>33</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C36" s="24">
         <v>44703</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>34</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C37" s="24">
         <v>44704</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>35</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C38" s="24">
         <v>44705</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>36</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C39" s="24">
         <v>44706</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>37</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C40" s="24">
         <v>44707</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>38</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C41" s="24">
         <v>44708</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>39</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C42" s="24">
         <v>44709</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>40</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C43" s="24">
         <v>44710</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>41</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C44" s="24">
         <v>44711</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>42</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C45" s="24">
         <v>44712</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>43</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C46" s="24">
         <v>44713</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>44</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C47" s="24">
         <v>44714</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>45</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C48" s="24">
         <v>44715</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>46</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C49" s="24">
         <v>44716</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>47</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C50" s="24">
         <v>44717</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>48</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C51" s="24">
         <v>44718</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>49</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C52" s="24">
         <v>44719</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>50</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C53" s="24">
         <v>44720</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>51</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="C54" s="24">
         <v>44721</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>52</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="C55" s="24">
         <v>44722</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>53</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="C56" s="24">
         <v>44723</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>54</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="C57" s="24">
         <v>44724</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>55</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C58" s="24">
         <v>44725</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>56</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="C59" s="24">
         <v>44726</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>57</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C60" s="24">
         <v>44727</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>58</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1001">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3036,6 +3036,21 @@
   </si>
   <si>
     <t>NANA-2, mdb-linux, Linux - 50 DevOps IQS, Revision</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Artifact Repo</t>
+  </si>
+  <si>
+    <t>Prometheus &amp; Grafana</t>
+  </si>
+  <si>
+    <t>AWS DevOps</t>
+  </si>
+  <si>
+    <t>MYGIT Prepare</t>
   </si>
 </sst>
 </file>
@@ -3274,6 +3289,15 @@
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3291,15 +3315,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9391,7 +9406,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -9408,7 +9423,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -9423,7 +9438,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -9438,7 +9453,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -9453,7 +9468,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9468,7 +9483,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9483,7 +9498,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9495,7 +9510,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="48" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9512,7 +9527,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9524,7 +9539,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9533,7 +9548,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9545,7 +9560,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9557,7 +9572,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9569,7 +9584,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9581,7 +9596,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="48" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9595,7 +9610,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9607,7 +9622,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9619,7 +9634,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9628,7 +9643,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9637,19 +9652,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="48" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9669,7 +9684,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9687,7 +9702,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9702,31 +9717,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="48" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9737,7 +9752,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9746,7 +9761,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9755,7 +9770,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9764,7 +9779,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9773,7 +9788,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9782,13 +9797,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="48" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9799,7 +9814,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9808,7 +9823,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9817,7 +9832,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9826,7 +9841,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9835,7 +9850,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="45"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9844,7 +9859,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9853,7 +9868,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9864,7 +9879,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9873,7 +9888,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9882,31 +9897,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="48" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -9917,37 +9932,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -11959,7 +11974,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H17"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12027,7 +12042,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="49" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -12053,7 +12068,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -12081,7 +12096,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="47"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -12109,7 +12124,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -12133,7 +12148,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="47"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -12153,7 +12168,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -12176,7 +12191,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12191,7 +12206,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="49" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -12216,7 +12231,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="47"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>3</v>
@@ -12245,7 +12260,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>4</v>
@@ -12268,7 +12283,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="47"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>5</v>
@@ -12300,7 +12315,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="48"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>6</v>
@@ -12338,7 +12353,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="49" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -12372,7 +12387,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="47"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>8</v>
@@ -12402,7 +12417,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="47"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>9</v>
@@ -12431,7 +12446,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="48"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>10</v>
@@ -12460,7 +12475,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="49" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12494,7 +12509,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>12</v>
@@ -12529,7 +12544,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="48"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>13</v>
@@ -12603,7 +12618,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="52" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12641,7 +12656,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="50"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>16</v>
@@ -12668,7 +12683,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="49" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12695,7 +12710,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>18</v>
@@ -12722,7 +12737,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="47"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>19</v>
@@ -12749,7 +12764,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="48"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>20</v>
@@ -12776,7 +12791,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="49" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12805,7 +12820,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="47"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>22</v>
@@ -12832,7 +12847,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>23</v>
@@ -12857,7 +12872,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="48"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>12</v>
@@ -12913,8 +12928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12970,7 +12985,7 @@
       <c r="D4" s="41" t="s">
         <v>980</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="45" t="s">
         <v>985</v>
       </c>
     </row>
@@ -12987,7 +13002,7 @@
       <c r="D5" s="41" t="s">
         <v>866</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="47" t="s">
         <v>994</v>
       </c>
     </row>
@@ -13004,7 +13019,7 @@
       <c r="D6" t="s">
         <v>866</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="46" t="s">
         <v>995</v>
       </c>
     </row>
@@ -13036,7 +13051,7 @@
         <v>44675</v>
       </c>
       <c r="D8" t="s">
-        <v>866</v>
+        <v>983</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>982</v>
@@ -13081,7 +13096,7 @@
         <v>44678</v>
       </c>
       <c r="D11" t="s">
-        <v>983</v>
+        <v>996</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -13094,6 +13109,9 @@
       <c r="C12" s="24">
         <v>44679</v>
       </c>
+      <c r="D12" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="39">
@@ -13105,6 +13123,9 @@
       <c r="C13" s="24">
         <v>44680</v>
       </c>
+      <c r="D13" t="s">
+        <v>996</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="39">
@@ -13116,6 +13137,9 @@
       <c r="C14" s="24">
         <v>44681</v>
       </c>
+      <c r="D14" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
@@ -13127,6 +13151,9 @@
       <c r="C15" s="24">
         <v>44682</v>
       </c>
+      <c r="D15" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
@@ -13138,8 +13165,11 @@
       <c r="C16" s="24">
         <v>44683</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="39">
         <v>14</v>
       </c>
@@ -13149,8 +13179,11 @@
       <c r="C17" s="24">
         <v>44684</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>15</v>
       </c>
@@ -13160,8 +13193,11 @@
       <c r="C18" s="24">
         <v>44685</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>16</v>
       </c>
@@ -13171,8 +13207,11 @@
       <c r="C19" s="24">
         <v>44686</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>17</v>
       </c>
@@ -13182,8 +13221,11 @@
       <c r="C20" s="24">
         <v>44687</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="39">
         <v>18</v>
       </c>
@@ -13193,8 +13235,11 @@
       <c r="C21" s="24">
         <v>44688</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>19</v>
       </c>
@@ -13204,8 +13249,11 @@
       <c r="C22" s="24">
         <v>44689</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>20</v>
       </c>
@@ -13215,8 +13263,11 @@
       <c r="C23" s="24">
         <v>44690</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="39">
         <v>21</v>
       </c>
@@ -13226,8 +13277,11 @@
       <c r="C24" s="24">
         <v>44691</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="39">
         <v>22</v>
       </c>
@@ -13237,8 +13291,11 @@
       <c r="C25" s="24">
         <v>44692</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="39">
         <v>23</v>
       </c>
@@ -13248,8 +13305,11 @@
       <c r="C26" s="24">
         <v>44693</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="39">
         <v>24</v>
       </c>
@@ -13259,8 +13319,11 @@
       <c r="C27" s="24">
         <v>44694</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="39">
         <v>25</v>
       </c>
@@ -13270,8 +13333,11 @@
       <c r="C28" s="24">
         <v>44695</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="39">
         <v>26</v>
       </c>
@@ -13281,8 +13347,11 @@
       <c r="C29" s="24">
         <v>44696</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="39">
         <v>27</v>
       </c>
@@ -13292,8 +13361,11 @@
       <c r="C30" s="24">
         <v>44697</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="39">
         <v>28</v>
       </c>
@@ -13303,8 +13375,11 @@
       <c r="C31" s="24">
         <v>44698</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="39">
         <v>29</v>
       </c>
@@ -13314,8 +13389,11 @@
       <c r="C32" s="24">
         <v>44699</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="39">
         <v>30</v>
       </c>
@@ -13325,8 +13403,11 @@
       <c r="C33" s="24">
         <v>44700</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="39">
         <v>31</v>
       </c>
@@ -13336,8 +13417,11 @@
       <c r="C34" s="24">
         <v>44701</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <v>32</v>
       </c>
@@ -13347,8 +13431,11 @@
       <c r="C35" s="24">
         <v>44702</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="39">
         <v>33</v>
       </c>
@@ -13358,8 +13445,11 @@
       <c r="C36" s="24">
         <v>44703</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="39">
         <v>34</v>
       </c>
@@ -13369,8 +13459,11 @@
       <c r="C37" s="24">
         <v>44704</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="39">
         <v>35</v>
       </c>
@@ -13380,8 +13473,11 @@
       <c r="C38" s="24">
         <v>44705</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="39">
         <v>36</v>
       </c>
@@ -13391,8 +13487,11 @@
       <c r="C39" s="24">
         <v>44706</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="39">
         <v>37</v>
       </c>
@@ -13402,8 +13501,11 @@
       <c r="C40" s="24">
         <v>44707</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="39">
         <v>38</v>
       </c>
@@ -13413,8 +13515,11 @@
       <c r="C41" s="24">
         <v>44708</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="39">
         <v>39</v>
       </c>
@@ -13424,8 +13529,11 @@
       <c r="C42" s="24">
         <v>44709</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="39">
         <v>40</v>
       </c>
@@ -13435,8 +13543,11 @@
       <c r="C43" s="24">
         <v>44710</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="39">
         <v>41</v>
       </c>
@@ -13446,8 +13557,11 @@
       <c r="C44" s="24">
         <v>44711</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="39">
         <v>42</v>
       </c>
@@ -13457,8 +13571,11 @@
       <c r="C45" s="24">
         <v>44712</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="39">
         <v>43</v>
       </c>
@@ -13468,8 +13585,11 @@
       <c r="C46" s="24">
         <v>44713</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="39">
         <v>44</v>
       </c>
@@ -13479,8 +13599,11 @@
       <c r="C47" s="24">
         <v>44714</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="39">
         <v>45</v>
       </c>
@@ -13490,8 +13613,11 @@
       <c r="C48" s="24">
         <v>44715</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="39">
         <v>46</v>
       </c>
@@ -13501,8 +13627,11 @@
       <c r="C49" s="24">
         <v>44716</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="39">
         <v>47</v>
       </c>
@@ -13512,8 +13641,11 @@
       <c r="C50" s="24">
         <v>44717</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="39">
         <v>48</v>
       </c>
@@ -13523,8 +13655,11 @@
       <c r="C51" s="24">
         <v>44718</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="39">
         <v>49</v>
       </c>
@@ -13534,8 +13669,11 @@
       <c r="C52" s="24">
         <v>44719</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="39">
         <v>50</v>
       </c>
@@ -13545,8 +13683,11 @@
       <c r="C53" s="24">
         <v>44720</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="39">
         <v>51</v>
       </c>
@@ -13556,8 +13697,11 @@
       <c r="C54" s="24">
         <v>44721</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="39">
         <v>52</v>
       </c>
@@ -13567,8 +13711,11 @@
       <c r="C55" s="24">
         <v>44722</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="39">
         <v>53</v>
       </c>
@@ -13578,8 +13725,11 @@
       <c r="C56" s="24">
         <v>44723</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="39">
         <v>54</v>
       </c>
@@ -13589,8 +13739,11 @@
       <c r="C57" s="24">
         <v>44724</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="39">
         <v>55</v>
       </c>
@@ -13600,8 +13753,11 @@
       <c r="C58" s="24">
         <v>44725</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="39">
         <v>56</v>
       </c>
@@ -13611,8 +13767,11 @@
       <c r="C59" s="24">
         <v>44726</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="39">
         <v>57</v>
       </c>
@@ -13622,8 +13781,11 @@
       <c r="C60" s="24">
         <v>44727</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="39">
         <v>58</v>
       </c>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1003">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3029,9 +3029,6 @@
     <t>Mon</t>
   </si>
   <si>
-    <t>Need to complete all DevOps - Intro &amp; Linux</t>
-  </si>
-  <si>
     <t>Linux-Bash, DPT 8,9,10,11,</t>
   </si>
   <si>
@@ -3051,6 +3048,15 @@
   </si>
   <si>
     <t>MYGIT Prepare</t>
+  </si>
+  <si>
+    <t>Interview Prepare Final</t>
+  </si>
+  <si>
+    <t>DevOps Intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linux Revision - GIT Start DPT, </t>
   </si>
 </sst>
 </file>
@@ -3281,23 +3287,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3314,6 +3304,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9406,7 +9412,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="40" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -9423,7 +9429,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -9438,7 +9444,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -9453,7 +9459,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -9468,7 +9474,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9483,7 +9489,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="40"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9498,7 +9504,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9510,7 +9516,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="40" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9527,7 +9533,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9539,7 +9545,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9548,7 +9554,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9560,7 +9566,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9572,7 +9578,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="40"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9584,7 +9590,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9596,7 +9602,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="40" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9610,7 +9616,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9622,7 +9628,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9634,7 +9640,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9643,7 +9649,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9652,19 +9658,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="40" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9684,7 +9690,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9702,7 +9708,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9717,31 +9723,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="40" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9752,7 +9758,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9761,7 +9767,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9770,7 +9776,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9779,7 +9785,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="40"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9788,7 +9794,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="40"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9797,13 +9803,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="40"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="40" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9814,7 +9820,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="40"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9823,7 +9829,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="40"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9832,7 +9838,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9841,7 +9847,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9850,7 +9856,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9859,7 +9865,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9868,7 +9874,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="40" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9879,7 +9885,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9888,7 +9894,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9897,31 +9903,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="40"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="40"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="40" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -9932,37 +9938,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="40"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="40"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="40"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="40"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="40"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -12042,7 +12048,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="41" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -12068,7 +12074,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -12096,7 +12102,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -12124,7 +12130,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -12148,7 +12154,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="50"/>
+      <c r="F7" s="42"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -12168,7 +12174,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -12191,7 +12197,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12206,7 +12212,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="41" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -12231,7 +12237,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="50"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>3</v>
@@ -12260,7 +12266,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>4</v>
@@ -12283,7 +12289,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>5</v>
@@ -12315,7 +12321,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>6</v>
@@ -12353,7 +12359,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="41" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -12387,7 +12393,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>8</v>
@@ -12417,7 +12423,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>9</v>
@@ -12446,7 +12452,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="51"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>10</v>
@@ -12475,7 +12481,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="41" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12494,10 +12500,10 @@
       <c r="N19" s="2">
         <v>12</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="39">
         <v>44670</v>
       </c>
-      <c r="P19" s="40">
+      <c r="P19" s="39">
         <v>44681</v>
       </c>
     </row>
@@ -12509,7 +12515,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="50"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>12</v>
@@ -12529,10 +12535,10 @@
       <c r="N20" s="2">
         <v>31</v>
       </c>
-      <c r="O20" s="40">
+      <c r="O20" s="39">
         <v>44682</v>
       </c>
-      <c r="P20" s="40">
+      <c r="P20" s="39">
         <v>44712</v>
       </c>
     </row>
@@ -12544,7 +12550,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="43"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>13</v>
@@ -12564,10 +12570,10 @@
       <c r="N21" s="2">
         <v>30</v>
       </c>
-      <c r="O21" s="40">
+      <c r="O21" s="39">
         <v>44713</v>
       </c>
-      <c r="P21" s="40">
+      <c r="P21" s="39">
         <v>44742</v>
       </c>
     </row>
@@ -12597,10 +12603,10 @@
       <c r="N22" s="2">
         <v>17</v>
       </c>
-      <c r="O22" s="40">
+      <c r="O22" s="39">
         <v>44743</v>
       </c>
-      <c r="P22" s="40">
+      <c r="P22" s="39">
         <v>44759</v>
       </c>
     </row>
@@ -12618,7 +12624,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="44" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12656,7 +12662,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="53"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>16</v>
@@ -12683,7 +12689,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="41" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12710,7 +12716,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="50"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>18</v>
@@ -12737,7 +12743,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>19</v>
@@ -12764,7 +12770,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="43"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>20</v>
@@ -12791,7 +12797,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="41" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12820,7 +12826,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="50"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>22</v>
@@ -12847,7 +12853,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>23</v>
@@ -12872,7 +12878,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="51"/>
+      <c r="F32" s="43"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>12</v>
@@ -12926,10 +12932,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12939,861 +12945,936 @@
     <col min="5" max="5" width="72.140625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44">
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47">
         <v>44669</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="46" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="7" t="s">
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48" t="s">
         <v>986</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="49">
         <v>44670</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="48" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="39">
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="48" t="s">
         <v>987</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="49">
         <v>44671</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="48" t="s">
         <v>980</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="50" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="I4" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="51">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="48" t="s">
         <v>988</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="49">
         <v>44672</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="48" t="s">
         <v>866</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="52" t="s">
+        <v>993</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K5" s="53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51">
+        <v>3</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>989</v>
+      </c>
+      <c r="C6" s="49">
+        <v>44673</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>866</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="I6" t="s">
+        <v>866</v>
+      </c>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C7" s="39">
+        <v>44674</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C8" s="39">
+        <v>44675</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C9" s="39">
+        <v>44676</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C10" s="39">
+        <v>44677</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C11" s="39">
+        <v>44678</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C12" s="39">
+        <v>44679</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="C6" s="24">
-        <v>44673</v>
-      </c>
-      <c r="D6" t="s">
-        <v>866</v>
-      </c>
-      <c r="E6" s="46" t="s">
+      <c r="C13" s="39">
+        <v>44680</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="C7" s="24">
-        <v>44674</v>
-      </c>
-      <c r="D7" t="s">
-        <v>866</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="39">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="C14" s="39">
+        <v>44681</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="20">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="C8" s="24">
-        <v>44675</v>
-      </c>
-      <c r="D8" t="s">
-        <v>983</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="C15" s="39">
+        <v>44682</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="C9" s="24">
-        <v>44676</v>
-      </c>
-      <c r="D9" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="C16" s="39">
+        <v>44683</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="C10" s="24">
-        <v>44677</v>
-      </c>
-      <c r="D10" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C17" s="39">
+        <v>44684</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="C11" s="24">
-        <v>44678</v>
-      </c>
-      <c r="D11" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C18" s="39">
+        <v>44685</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="C12" s="24">
-        <v>44679</v>
-      </c>
-      <c r="D12" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="C19" s="39">
+        <v>44686</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>989</v>
       </c>
-      <c r="C13" s="24">
-        <v>44680</v>
-      </c>
-      <c r="D13" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="C20" s="39">
+        <v>44687</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>990</v>
       </c>
-      <c r="C14" s="24">
-        <v>44681</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C21" s="39">
+        <v>44688</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C22" s="39">
+        <v>44689</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C23" s="39">
+        <v>44690</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C24" s="39">
+        <v>44691</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C25" s="39">
+        <v>44692</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C26" s="39">
+        <v>44693</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C27" s="39">
+        <v>44694</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C28" s="39">
+        <v>44695</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C29" s="39">
+        <v>44696</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C30" s="39">
+        <v>44697</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C31" s="39">
+        <v>44698</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C32" s="39">
+        <v>44699</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C33" s="39">
+        <v>44700</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E33" s="31"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C34" s="39">
+        <v>44701</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E34" s="31"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C35" s="39">
+        <v>44702</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E35" s="31"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C36" s="39">
+        <v>44703</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E36" s="31"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>34</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C37" s="39">
+        <v>44704</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="E37" s="31"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C38" s="39">
+        <v>44705</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E38" s="31"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>36</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C39" s="39">
+        <v>44706</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C40" s="39">
+        <v>44707</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E40" s="31"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <v>38</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C41" s="39">
+        <v>44708</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E41" s="31"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C42" s="39">
+        <v>44709</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E42" s="31"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="20">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C43" s="39">
+        <v>44710</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E43" s="31"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="20">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C44" s="39">
+        <v>44711</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="E44" s="31"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="20">
+        <v>42</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C45" s="39">
+        <v>44712</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E45" s="31"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="20">
+        <v>43</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C46" s="39">
+        <v>44713</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E46" s="31"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="20">
+        <v>44</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C47" s="39">
+        <v>44714</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E47" s="31"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="20">
+        <v>45</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C48" s="39">
+        <v>44715</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="20">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C49" s="39">
+        <v>44716</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E49" s="31"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="20">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C50" s="39">
+        <v>44717</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E50" s="31"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="20">
+        <v>48</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="C51" s="39">
+        <v>44718</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E51" s="31"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="20">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="C52" s="39">
+        <v>44719</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="39">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="E52" s="31"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="20">
+        <v>50</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="C53" s="39">
+        <v>44720</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="E53" s="31"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="20">
+        <v>51</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="C54" s="39">
+        <v>44721</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E54" s="31"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="20">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="C55" s="39">
+        <v>44722</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E55" s="31"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="20">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="C56" s="39">
+        <v>44723</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E56" s="31"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="20">
+        <v>54</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="C15" s="24">
-        <v>44682</v>
-      </c>
-      <c r="D15" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="39">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="C57" s="39">
+        <v>44724</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E57" s="31"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="20">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>992</v>
       </c>
-      <c r="C16" s="24">
-        <v>44683</v>
-      </c>
-      <c r="D16" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>14</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="C58" s="39">
+        <v>44725</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E58" s="31"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="20">
+        <v>56</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="C17" s="24">
-        <v>44684</v>
-      </c>
-      <c r="D17" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
-        <v>15</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="C59" s="39">
+        <v>44726</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="E59" s="31"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="20">
+        <v>57</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="C18" s="24">
-        <v>44685</v>
-      </c>
-      <c r="D18" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
-        <v>16</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="C60" s="39">
+        <v>44727</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="E60" s="31"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="20">
+        <v>58</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="C19" s="24">
-        <v>44686</v>
-      </c>
-      <c r="D19" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="C20" s="24">
-        <v>44687</v>
-      </c>
-      <c r="D20" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="39">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="C21" s="24">
-        <v>44688</v>
-      </c>
-      <c r="D21" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C22" s="24">
-        <v>44689</v>
-      </c>
-      <c r="D22" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="39">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="C23" s="24">
-        <v>44690</v>
-      </c>
-      <c r="D23" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C24" s="24">
-        <v>44691</v>
-      </c>
-      <c r="D24" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="39">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C25" s="24">
-        <v>44692</v>
-      </c>
-      <c r="D25" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="39">
-        <v>23</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C26" s="24">
-        <v>44693</v>
-      </c>
-      <c r="D26" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="39">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="C27" s="24">
-        <v>44694</v>
-      </c>
-      <c r="D27" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="39">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="C28" s="24">
-        <v>44695</v>
-      </c>
-      <c r="D28" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="39">
-        <v>26</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C29" s="24">
-        <v>44696</v>
-      </c>
-      <c r="D29" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="39">
-        <v>27</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="C30" s="24">
-        <v>44697</v>
-      </c>
-      <c r="D30" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
-        <v>28</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C31" s="24">
-        <v>44698</v>
-      </c>
-      <c r="D31" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="39">
-        <v>29</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C32" s="24">
-        <v>44699</v>
-      </c>
-      <c r="D32" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
-        <v>30</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C33" s="24">
-        <v>44700</v>
-      </c>
-      <c r="D33" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
-        <v>31</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="C34" s="24">
-        <v>44701</v>
-      </c>
-      <c r="D34" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
-        <v>32</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="C35" s="24">
-        <v>44702</v>
-      </c>
-      <c r="D35" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
-        <v>33</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C36" s="24">
-        <v>44703</v>
-      </c>
-      <c r="D36" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
-        <v>34</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="C37" s="24">
-        <v>44704</v>
-      </c>
-      <c r="D37" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
-        <v>35</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C38" s="24">
-        <v>44705</v>
-      </c>
-      <c r="D38" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
-        <v>36</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C39" s="24">
-        <v>44706</v>
-      </c>
-      <c r="D39" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="39">
-        <v>37</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C40" s="24">
-        <v>44707</v>
-      </c>
-      <c r="D40" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
-        <v>38</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="C41" s="24">
-        <v>44708</v>
-      </c>
-      <c r="D41" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="39">
-        <v>39</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="C42" s="24">
-        <v>44709</v>
-      </c>
-      <c r="D42" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
-        <v>40</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C43" s="24">
-        <v>44710</v>
-      </c>
-      <c r="D43" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
-        <v>41</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="C44" s="24">
-        <v>44711</v>
-      </c>
-      <c r="D44" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
-        <v>42</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C45" s="24">
-        <v>44712</v>
-      </c>
-      <c r="D45" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
-        <v>43</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C46" s="24">
-        <v>44713</v>
-      </c>
-      <c r="D46" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="39">
-        <v>44</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C47" s="24">
-        <v>44714</v>
-      </c>
-      <c r="D47" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="39">
-        <v>45</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="C48" s="24">
-        <v>44715</v>
-      </c>
-      <c r="D48" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="39">
-        <v>46</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="C49" s="24">
-        <v>44716</v>
-      </c>
-      <c r="D49" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
-        <v>47</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C50" s="24">
-        <v>44717</v>
-      </c>
-      <c r="D50" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="39">
-        <v>48</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="C51" s="24">
-        <v>44718</v>
-      </c>
-      <c r="D51" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="39">
-        <v>49</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C52" s="24">
-        <v>44719</v>
-      </c>
-      <c r="D52" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="39">
-        <v>50</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C53" s="24">
-        <v>44720</v>
-      </c>
-      <c r="D53" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="39">
-        <v>51</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="C54" s="24">
-        <v>44721</v>
-      </c>
-      <c r="D54" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="39">
-        <v>52</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="C55" s="24">
-        <v>44722</v>
-      </c>
-      <c r="D55" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="39">
-        <v>53</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="C56" s="24">
-        <v>44723</v>
-      </c>
-      <c r="D56" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="39">
-        <v>54</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>991</v>
-      </c>
-      <c r="C57" s="24">
-        <v>44724</v>
-      </c>
-      <c r="D57" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
-        <v>55</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>992</v>
-      </c>
-      <c r="C58" s="24">
-        <v>44725</v>
-      </c>
-      <c r="D58" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
-        <v>56</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="C59" s="24">
-        <v>44726</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="39">
-        <v>57</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="C60" s="24">
-        <v>44727</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="39">
-        <v>58</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>988</v>
-      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K5:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1004">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -2996,9 +2996,6 @@
     <t>Segregate of 1000 questions</t>
   </si>
   <si>
-    <t>Vacation Start</t>
-  </si>
-  <si>
     <t>Git</t>
   </si>
   <si>
@@ -3056,7 +3053,13 @@
     <t>DevOps Intro</t>
   </si>
   <si>
-    <t xml:space="preserve">Linux Revision - GIT Start DPT, </t>
+    <t>Linux Revision - GIT Start DPT, GIT ALL</t>
+  </si>
+  <si>
+    <t>9 Days</t>
+  </si>
+  <si>
+    <t>Docker DPT, Docker-NANA</t>
   </si>
 </sst>
 </file>
@@ -3205,7 +3208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3291,6 +3294,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3306,21 +3325,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9412,7 +9421,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="48" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -9429,7 +9438,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -9444,7 +9453,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -9459,7 +9468,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -9474,7 +9483,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9489,7 +9498,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9504,7 +9513,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9516,7 +9525,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="48" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9533,7 +9542,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9545,7 +9554,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9554,7 +9563,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9566,7 +9575,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9578,7 +9587,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9590,7 +9599,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9602,7 +9611,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="48" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9616,7 +9625,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9628,7 +9637,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9640,7 +9649,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9649,7 +9658,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9658,19 +9667,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="48" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9690,7 +9699,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9708,7 +9717,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9723,31 +9732,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="48" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9758,7 +9767,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9767,7 +9776,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9776,7 +9785,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9785,7 +9794,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9794,7 +9803,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9803,13 +9812,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="48" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9820,7 +9829,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9829,7 +9838,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9838,7 +9847,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9847,7 +9856,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9856,7 +9865,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9865,7 +9874,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9874,7 +9883,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="A46" s="48" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9885,7 +9894,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9894,7 +9903,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9903,31 +9912,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="A53" s="48" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -9938,37 +9947,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -12048,7 +12057,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="49" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -12074,7 +12083,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="42"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -12102,7 +12111,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="42"/>
+      <c r="F5" s="50"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -12130,7 +12139,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="50"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -12154,7 +12163,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="42"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -12174,7 +12183,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -12197,7 +12206,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12212,7 +12221,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="41" t="s">
+      <c r="F10" s="49" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -12237,7 +12246,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="42"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>3</v>
@@ -12266,7 +12275,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>4</v>
@@ -12289,7 +12298,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="42"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>5</v>
@@ -12321,7 +12330,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="43"/>
+      <c r="F14" s="51"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>6</v>
@@ -12359,7 +12368,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="49" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -12393,7 +12402,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="42"/>
+      <c r="F16" s="50"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>8</v>
@@ -12423,7 +12432,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="42"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>9</v>
@@ -12452,7 +12461,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="43"/>
+      <c r="F18" s="51"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>10</v>
@@ -12481,7 +12490,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="49" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12515,7 +12524,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="42"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>12</v>
@@ -12550,7 +12559,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="43"/>
+      <c r="F21" s="51"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>13</v>
@@ -12624,7 +12633,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="44" t="s">
+      <c r="F23" s="52" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12662,7 +12671,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="45"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>16</v>
@@ -12689,7 +12698,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="49" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12716,7 +12725,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="42"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>18</v>
@@ -12743,7 +12752,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>19</v>
@@ -12770,7 +12779,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="43"/>
+      <c r="F28" s="51"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>20</v>
@@ -12797,7 +12806,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="49" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12826,7 +12835,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>22</v>
@@ -12853,7 +12862,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>23</v>
@@ -12878,7 +12887,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="43"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>12</v>
@@ -12935,7 +12944,7 @@
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12947,7 +12956,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
@@ -12959,108 +12968,120 @@
       <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42">
         <v>44669</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="41" t="s">
         <v>981</v>
       </c>
       <c r="E2" s="31"/>
+      <c r="K2">
+        <v>216</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43" t="s">
+        <v>985</v>
+      </c>
+      <c r="C3" s="44">
+        <v>44670</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>980</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="K3" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>986</v>
       </c>
-      <c r="C3" s="49">
-        <v>44670</v>
-      </c>
-      <c r="D3" s="48" t="s">
+      <c r="C4" s="44">
+        <v>44671</v>
+      </c>
+      <c r="D4" s="43" t="s">
         <v>980</v>
       </c>
-      <c r="E3" s="50"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
-        <v>1</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="E4" s="45" t="s">
+        <v>984</v>
+      </c>
+      <c r="I4" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46">
+        <v>2</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>987</v>
       </c>
-      <c r="C4" s="49">
-        <v>44671</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>980</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>985</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C5" s="44">
+        <v>44672</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>866</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="I5" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="51">
-        <v>2</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="K5" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="46">
+        <v>3</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>988</v>
       </c>
-      <c r="C5" s="49">
-        <v>44672</v>
-      </c>
-      <c r="D5" s="48" t="s">
+      <c r="C6" s="44">
+        <v>44673</v>
+      </c>
+      <c r="D6" s="43" t="s">
         <v>866</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E6" s="47" t="s">
         <v>993</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1001</v>
-      </c>
-      <c r="K5" s="53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51">
-        <v>3</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>989</v>
-      </c>
-      <c r="C6" s="49">
-        <v>44673</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>866</v>
-      </c>
-      <c r="E6" s="52" t="s">
-        <v>994</v>
       </c>
       <c r="I6" t="s">
         <v>866</v>
       </c>
-      <c r="K6" s="53"/>
+      <c r="K6" s="54"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="46">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>990</v>
-      </c>
-      <c r="C7" s="39">
+      <c r="B7" s="43" t="s">
+        <v>989</v>
+      </c>
+      <c r="C7" s="44">
         <v>44674</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>1002</v>
+      <c r="D7" s="43" t="s">
+        <v>982</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>982</v>
+      </c>
+      <c r="K7" s="40">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -13068,16 +13089,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C8" s="39">
         <v>44675</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>982</v>
+        <v>1003</v>
+      </c>
+      <c r="I8" t="s">
+        <v>994</v>
+      </c>
+      <c r="K8" s="40">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -13085,358 +13112,375 @@
         <v>6</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C9" s="39">
         <v>44676</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="E9" s="31"/>
+      <c r="I9" t="s">
+        <v>995</v>
+      </c>
+      <c r="K9" s="40">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C10" s="39">
         <v>44677</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>983</v>
+        <v>872</v>
       </c>
       <c r="E10" s="31"/>
+      <c r="K10" s="40"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C11" s="39">
         <v>44678</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>995</v>
+        <v>871</v>
       </c>
       <c r="E11" s="31"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C12" s="39">
         <v>44679</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>995</v>
+        <v>871</v>
       </c>
       <c r="E12" s="31"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C13" s="39">
         <v>44680</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>995</v>
+        <v>871</v>
       </c>
       <c r="E13" s="31"/>
+      <c r="K13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C14" s="39">
         <v>44681</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>996</v>
+        <v>871</v>
       </c>
       <c r="E14" s="31"/>
+      <c r="K14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C15" s="39">
         <v>44682</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>996</v>
+        <v>709</v>
       </c>
       <c r="E15" s="31"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C16" s="39">
         <v>44683</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>996</v>
+        <v>709</v>
       </c>
       <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C17" s="39">
         <v>44684</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>872</v>
+        <v>709</v>
       </c>
       <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K17" s="40">
+        <f>SUM(K5:K16)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C18" s="39">
         <v>44685</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>872</v>
+        <v>709</v>
       </c>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C19" s="39">
         <v>44686</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>872</v>
+        <v>709</v>
       </c>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C20" s="39">
         <v>44687</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>871</v>
+        <v>709</v>
       </c>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C21" s="39">
         <v>44688</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C22" s="39">
         <v>44689</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C23" s="39">
         <v>44690</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C24" s="39">
         <v>44691</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C25" s="39">
         <v>44692</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C26" s="39">
         <v>44693</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>709</v>
+        <v>878</v>
       </c>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C27" s="39">
         <v>44694</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>709</v>
+        <v>878</v>
       </c>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C28" s="39">
         <v>44695</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>709</v>
+        <v>878</v>
       </c>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C29" s="39">
         <v>44696</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C30" s="39">
         <v>44697</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C31" s="39">
         <v>44698</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C32" s="39">
         <v>44699</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -13445,13 +13489,13 @@
         <v>30</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C33" s="39">
         <v>44700</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E33" s="31"/>
     </row>
@@ -13460,13 +13504,13 @@
         <v>31</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C34" s="39">
         <v>44701</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E34" s="31"/>
     </row>
@@ -13475,13 +13519,13 @@
         <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C35" s="39">
         <v>44702</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="E35" s="31"/>
     </row>
@@ -13490,13 +13534,13 @@
         <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C36" s="39">
         <v>44703</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>878</v>
+        <v>755</v>
       </c>
       <c r="E36" s="31"/>
     </row>
@@ -13505,13 +13549,13 @@
         <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C37" s="39">
         <v>44704</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>878</v>
+        <v>755</v>
       </c>
       <c r="E37" s="31"/>
     </row>
@@ -13520,13 +13564,13 @@
         <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C38" s="39">
         <v>44705</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E38" s="31"/>
     </row>
@@ -13535,13 +13579,13 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C39" s="39">
         <v>44706</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E39" s="31"/>
     </row>
@@ -13550,13 +13594,13 @@
         <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C40" s="39">
         <v>44707</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -13565,13 +13609,13 @@
         <v>38</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C41" s="39">
         <v>44708</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>712</v>
+        <v>876</v>
       </c>
       <c r="E41" s="31"/>
     </row>
@@ -13580,13 +13624,13 @@
         <v>39</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C42" s="39">
         <v>44709</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>712</v>
+        <v>876</v>
       </c>
       <c r="E42" s="31"/>
     </row>
@@ -13595,13 +13639,13 @@
         <v>40</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C43" s="39">
         <v>44710</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>712</v>
+        <v>996</v>
       </c>
       <c r="E43" s="31"/>
     </row>
@@ -13610,13 +13654,13 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C44" s="39">
         <v>44711</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>712</v>
+        <v>996</v>
       </c>
       <c r="E44" s="31"/>
     </row>
@@ -13625,13 +13669,13 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C45" s="39">
         <v>44712</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>755</v>
+        <v>997</v>
       </c>
       <c r="E45" s="31"/>
     </row>
@@ -13640,13 +13684,13 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C46" s="39">
         <v>44713</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>755</v>
+        <v>997</v>
       </c>
       <c r="E46" s="31"/>
     </row>
@@ -13655,13 +13699,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C47" s="39">
         <v>44714</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="E47" s="31"/>
     </row>
@@ -13670,13 +13714,13 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C48" s="39">
         <v>44715</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="E48" s="31"/>
     </row>
@@ -13685,13 +13729,13 @@
         <v>46</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C49" s="39">
         <v>44716</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="E49" s="31"/>
     </row>
@@ -13700,13 +13744,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C50" s="39">
         <v>44717</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>876</v>
+        <v>998</v>
       </c>
       <c r="E50" s="31"/>
     </row>
@@ -13715,13 +13759,13 @@
         <v>48</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C51" s="39">
         <v>44718</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>876</v>
+        <v>998</v>
       </c>
       <c r="E51" s="31"/>
     </row>
@@ -13730,13 +13774,10 @@
         <v>49</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C52" s="39">
         <v>44719</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="E52" s="31"/>
     </row>
@@ -13745,13 +13786,10 @@
         <v>50</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C53" s="39">
         <v>44720</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>997</v>
       </c>
       <c r="E53" s="31"/>
     </row>
@@ -13760,13 +13798,10 @@
         <v>51</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C54" s="39">
         <v>44721</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="E54" s="31"/>
     </row>
@@ -13775,13 +13810,10 @@
         <v>52</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C55" s="39">
         <v>44722</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="E55" s="31"/>
     </row>
@@ -13790,13 +13822,10 @@
         <v>53</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C56" s="39">
         <v>44723</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="E56" s="31"/>
     </row>
@@ -13805,13 +13834,10 @@
         <v>54</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C57" s="39">
         <v>44724</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="E57" s="31"/>
     </row>
@@ -13820,13 +13846,10 @@
         <v>55</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C58" s="39">
         <v>44725</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="E58" s="31"/>
     </row>
@@ -13835,13 +13858,10 @@
         <v>56</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C59" s="39">
         <v>44726</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>999</v>
       </c>
       <c r="E59" s="31"/>
     </row>
@@ -13850,13 +13870,10 @@
         <v>57</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C60" s="39">
         <v>44727</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>999</v>
       </c>
       <c r="E60" s="31"/>
     </row>
@@ -13865,7 +13882,7 @@
         <v>58</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1009">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3056,17 +3056,53 @@
     <t>Linux Revision - GIT Start DPT, GIT ALL</t>
   </si>
   <si>
-    <t>9 Days</t>
-  </si>
-  <si>
     <t>Docker DPT, Docker-NANA</t>
+  </si>
+  <si>
+    <t>DevOPs IQS Questions, DPT-Jenkins</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jenkins-OneNote</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Jenkins-Nana, Jenkins-slave architecture, AWS-NANA</t>
+    </r>
+  </si>
+  <si>
+    <t>AWS-SECURITY, AWS-RK,</t>
+  </si>
+  <si>
+    <t>Need to study jenkins again.</t>
+  </si>
+  <si>
+    <t>Has to go through AWS-Nana</t>
+  </si>
+  <si>
+    <t>112, 113, 114 videos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3104,8 +3140,16 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3139,6 +3183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3208,7 +3258,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3308,6 +3358,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3328,8 +3385,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9421,7 +9483,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -9438,7 +9500,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -9453,7 +9515,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -9468,7 +9530,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -9483,7 +9545,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9498,7 +9560,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9513,7 +9575,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9525,7 +9587,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="51" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9542,7 +9604,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="51"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9554,7 +9616,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9563,7 +9625,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="51"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9575,7 +9637,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9587,7 +9649,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9599,7 +9661,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9611,7 +9673,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="51" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9625,7 +9687,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9637,7 +9699,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9649,7 +9711,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9658,7 +9720,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9667,19 +9729,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="51" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9699,7 +9761,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9717,7 +9779,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9732,31 +9794,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="51"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="51" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9767,7 +9829,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="51"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9776,7 +9838,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9785,7 +9847,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="51"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9794,7 +9856,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="51"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9803,7 +9865,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9812,13 +9874,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="48" t="s">
+      <c r="A39" s="51" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9829,7 +9891,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="51"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9838,7 +9900,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="51"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9847,7 +9909,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="51"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9856,7 +9918,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="51"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9865,7 +9927,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="51"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9874,7 +9936,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9883,7 +9945,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="51" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9894,7 +9956,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9903,7 +9965,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9912,31 +9974,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="51" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -9947,37 +10009,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -12057,7 +12119,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="52" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -12083,7 +12145,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="50"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -12111,7 +12173,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="50"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -12139,7 +12201,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="50"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -12163,7 +12225,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="50"/>
+      <c r="F7" s="53"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -12183,7 +12245,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="50"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -12206,7 +12268,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="54"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12221,7 +12283,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F10" s="52" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -12246,7 +12308,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="50"/>
+      <c r="F11" s="53"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>3</v>
@@ -12275,7 +12337,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="50"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>4</v>
@@ -12298,7 +12360,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="50"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>5</v>
@@ -12330,7 +12392,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>6</v>
@@ -12368,7 +12430,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="52" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -12402,7 +12464,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>8</v>
@@ -12432,7 +12494,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="50"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>9</v>
@@ -12461,7 +12523,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="51"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>10</v>
@@ -12490,7 +12552,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="52" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12524,7 +12586,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="50"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>12</v>
@@ -12559,7 +12621,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="51"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>13</v>
@@ -12633,7 +12695,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="55" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12671,7 +12733,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="53"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>16</v>
@@ -12698,7 +12760,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="52" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12725,7 +12787,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="50"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>18</v>
@@ -12752,7 +12814,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="50"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>19</v>
@@ -12779,7 +12841,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="51"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>20</v>
@@ -12806,7 +12868,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="52" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12835,7 +12897,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="50"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>22</v>
@@ -12862,7 +12924,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="50"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>23</v>
@@ -12887,7 +12949,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="51"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>12</v>
@@ -12941,10 +13003,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12952,6 +13014,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -12978,7 +13041,8 @@
       </c>
       <c r="E2" s="31"/>
       <c r="K2">
-        <v>216</v>
+        <f>(K3*14)</f>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -12993,8 +13057,8 @@
         <v>980</v>
       </c>
       <c r="E3" s="45"/>
-      <c r="K3" t="s">
-        <v>1002</v>
+      <c r="K3">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -13036,7 +13100,7 @@
       <c r="I5" t="s">
         <v>1000</v>
       </c>
-      <c r="K5" s="54">
+      <c r="K5" s="57">
         <v>5</v>
       </c>
     </row>
@@ -13059,7 +13123,7 @@
       <c r="I6" t="s">
         <v>866</v>
       </c>
-      <c r="K6" s="54"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
@@ -13085,20 +13149,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="46">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="43" t="s">
         <v>990</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="44">
         <v>44675</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="43" t="s">
         <v>872</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>1003</v>
+      <c r="E8" s="49" t="s">
+        <v>1002</v>
       </c>
       <c r="I8" t="s">
         <v>994</v>
@@ -13108,19 +13172,21 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="46">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="43" t="s">
         <v>991</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="44">
         <v>44676</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="43" t="s">
         <v>872</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="49" t="s">
+        <v>1003</v>
+      </c>
       <c r="I9" t="s">
         <v>995</v>
       </c>
@@ -13129,20 +13195,30 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="58">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="59" t="s">
         <v>985</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="60">
         <v>44677</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="59" t="s">
+        <v>871</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I10" t="s">
         <v>872</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
@@ -13155,10 +13231,20 @@
         <v>44678</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I11" t="s">
         <v>871</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="K11" s="55"/>
+      <c r="K11" s="48">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
@@ -13171,10 +13257,16 @@
         <v>44679</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>871</v>
+        <v>709</v>
       </c>
       <c r="E12" s="31"/>
-      <c r="K12" s="55"/>
+      <c r="F12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I12" t="s">
+        <v>709</v>
+      </c>
+      <c r="K12" s="48"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -13187,10 +13279,10 @@
         <v>44680</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>871</v>
+        <v>709</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="K13" s="55"/>
+      <c r="K13" s="48"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
@@ -13203,10 +13295,10 @@
         <v>44681</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>871</v>
+        <v>709</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="K14" s="55"/>
+      <c r="K14" s="48"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
@@ -13222,7 +13314,7 @@
         <v>709</v>
       </c>
       <c r="E15" s="31"/>
-      <c r="K15" s="55"/>
+      <c r="K15" s="48"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
@@ -13238,9 +13330,9 @@
         <v>709</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="K16" s="55"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="48"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>14</v>
       </c>
@@ -13251,15 +13343,19 @@
         <v>44684</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E17" s="31"/>
       <c r="K17" s="40">
         <f>SUM(K5:K16)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="L17" s="50">
+        <f xml:space="preserve"> K17/14</f>
+        <v>11.357142857142858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>15</v>
       </c>
@@ -13270,11 +13366,11 @@
         <v>44685</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>16</v>
       </c>
@@ -13285,11 +13381,11 @@
         <v>44686</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>17</v>
       </c>
@@ -13300,11 +13396,11 @@
         <v>44687</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>18</v>
       </c>
@@ -13319,7 +13415,7 @@
       </c>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>19</v>
       </c>
@@ -13330,11 +13426,11 @@
         <v>44689</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>20</v>
       </c>
@@ -13345,11 +13441,11 @@
         <v>44690</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>21</v>
       </c>
@@ -13360,11 +13456,11 @@
         <v>44691</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>22</v>
       </c>
@@ -13375,11 +13471,11 @@
         <v>44692</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>23</v>
       </c>
@@ -13390,11 +13486,11 @@
         <v>44693</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>24</v>
       </c>
@@ -13405,11 +13501,11 @@
         <v>44694</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>25</v>
       </c>
@@ -13420,11 +13516,11 @@
         <v>44695</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>26</v>
       </c>
@@ -13439,7 +13535,7 @@
       </c>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>27</v>
       </c>
@@ -13454,7 +13550,7 @@
       </c>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>28</v>
       </c>
@@ -13469,7 +13565,7 @@
       </c>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>29</v>
       </c>
@@ -13480,7 +13576,7 @@
         <v>44699</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -13495,7 +13591,7 @@
         <v>44700</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E33" s="31"/>
     </row>
@@ -13510,7 +13606,7 @@
         <v>44701</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E34" s="31"/>
     </row>
@@ -13525,7 +13621,7 @@
         <v>44702</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E35" s="31"/>
     </row>
@@ -13555,7 +13651,7 @@
         <v>44704</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>755</v>
+        <v>876</v>
       </c>
       <c r="E37" s="31"/>
     </row>
@@ -13570,7 +13666,7 @@
         <v>44705</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>755</v>
+        <v>876</v>
       </c>
       <c r="E38" s="31"/>
     </row>
@@ -13585,7 +13681,7 @@
         <v>44706</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>755</v>
+        <v>996</v>
       </c>
       <c r="E39" s="31"/>
     </row>
@@ -13600,7 +13696,7 @@
         <v>44707</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>755</v>
+        <v>996</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -13615,7 +13711,7 @@
         <v>44708</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>876</v>
+        <v>997</v>
       </c>
       <c r="E41" s="31"/>
     </row>
@@ -13630,7 +13726,7 @@
         <v>44709</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>876</v>
+        <v>997</v>
       </c>
       <c r="E42" s="31"/>
     </row>
@@ -13645,7 +13741,7 @@
         <v>44710</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>996</v>
+        <v>611</v>
       </c>
       <c r="E43" s="31"/>
     </row>
@@ -13660,7 +13756,7 @@
         <v>44711</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>996</v>
+        <v>611</v>
       </c>
       <c r="E44" s="31"/>
     </row>
@@ -13675,7 +13771,7 @@
         <v>44712</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>997</v>
+        <v>611</v>
       </c>
       <c r="E45" s="31"/>
     </row>
@@ -13690,7 +13786,7 @@
         <v>44713</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E46" s="31"/>
     </row>
@@ -13705,7 +13801,7 @@
         <v>44714</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>611</v>
+        <v>998</v>
       </c>
       <c r="E47" s="31"/>
     </row>
@@ -13719,9 +13815,6 @@
       <c r="C48" s="39">
         <v>44715</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13734,9 +13827,6 @@
       <c r="C49" s="39">
         <v>44716</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="E49" s="31"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -13749,9 +13839,6 @@
       <c r="C50" s="39">
         <v>44717</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>998</v>
-      </c>
       <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13763,9 +13850,6 @@
       </c>
       <c r="C51" s="39">
         <v>44718</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="E51" s="31"/>
     </row>
@@ -13893,5 +13977,6 @@
     <mergeCell ref="K5:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -3341,9 +3341,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3367,6 +3364,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3381,17 +3392,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9483,7 +9483,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="56" t="s">
         <v>656</v>
       </c>
       <c r="B4" s="24">
@@ -9500,7 +9500,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="56"/>
       <c r="B5" s="24">
         <v>44657</v>
       </c>
@@ -9515,7 +9515,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="24">
         <v>44658</v>
       </c>
@@ -9530,7 +9530,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="24">
         <v>44659</v>
       </c>
@@ -9545,7 +9545,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="24">
         <v>44660</v>
       </c>
@@ -9560,7 +9560,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="24">
         <v>44661</v>
       </c>
@@ -9575,7 +9575,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="24">
         <v>44662</v>
       </c>
@@ -9587,7 +9587,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="56" t="s">
         <v>657</v>
       </c>
       <c r="B11" s="24">
@@ -9604,7 +9604,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="24">
         <v>44664</v>
       </c>
@@ -9616,7 +9616,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="24">
         <v>44665</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="24">
         <v>44666</v>
       </c>
@@ -9637,7 +9637,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="24">
         <v>44667</v>
       </c>
@@ -9649,7 +9649,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="24">
         <v>44668</v>
       </c>
@@ -9661,7 +9661,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="24">
         <v>44669</v>
       </c>
@@ -9673,7 +9673,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="56" t="s">
         <v>658</v>
       </c>
       <c r="B18" s="24">
@@ -9687,7 +9687,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="24">
         <v>44671</v>
       </c>
@@ -9699,7 +9699,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="24">
         <v>44672</v>
       </c>
@@ -9711,7 +9711,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="24">
         <v>44673</v>
       </c>
@@ -9720,7 +9720,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="24">
         <v>44674</v>
       </c>
@@ -9729,19 +9729,19 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="24">
         <v>44675</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="24">
         <v>44676</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="56" t="s">
         <v>659</v>
       </c>
       <c r="B25" s="24">
@@ -9761,7 +9761,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="24">
         <v>44678</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="24">
         <v>44679</v>
       </c>
@@ -9794,31 +9794,31 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="24">
         <v>44680</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="24">
         <v>44681</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="24">
         <v>44682</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="24">
         <v>44683</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="56" t="s">
         <v>660</v>
       </c>
       <c r="B32" s="24">
@@ -9829,7 +9829,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+      <c r="A33" s="56"/>
       <c r="B33" s="24">
         <v>44685</v>
       </c>
@@ -9838,7 +9838,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="56"/>
       <c r="B34" s="24">
         <v>44686</v>
       </c>
@@ -9847,7 +9847,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="24">
         <v>44687</v>
       </c>
@@ -9856,7 +9856,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="56"/>
       <c r="B36" s="24">
         <v>44688</v>
       </c>
@@ -9865,7 +9865,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="24">
         <v>44689</v>
       </c>
@@ -9874,13 +9874,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="24">
         <v>44690</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="56" t="s">
         <v>689</v>
       </c>
       <c r="B39" s="24">
@@ -9891,7 +9891,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="56"/>
       <c r="B40" s="24">
         <v>44692</v>
       </c>
@@ -9900,7 +9900,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="56"/>
       <c r="B41" s="24">
         <v>44693</v>
       </c>
@@ -9909,7 +9909,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="56"/>
       <c r="B42" s="24">
         <v>44694</v>
       </c>
@@ -9918,7 +9918,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="56"/>
       <c r="B43" s="24">
         <v>44695</v>
       </c>
@@ -9927,7 +9927,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="56"/>
       <c r="B44" s="24">
         <v>44696</v>
       </c>
@@ -9936,7 +9936,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="24">
         <v>44697</v>
       </c>
@@ -9945,7 +9945,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="56" t="s">
         <v>690</v>
       </c>
       <c r="B46" s="24">
@@ -9956,7 +9956,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="24">
         <v>44699</v>
       </c>
@@ -9965,7 +9965,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="56"/>
       <c r="B48" s="24">
         <v>44700</v>
       </c>
@@ -9974,31 +9974,31 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="56"/>
       <c r="B49" s="24">
         <v>44701</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="56"/>
       <c r="B50" s="24">
         <v>44702</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="24">
         <v>44703</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="56"/>
       <c r="B52" s="24">
         <v>44704</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="51" t="s">
+      <c r="A53" s="56" t="s">
         <v>691</v>
       </c>
       <c r="B53" s="24">
@@ -10009,37 +10009,37 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="56"/>
       <c r="B54" s="24">
         <v>44706</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="24">
         <v>44707</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="56"/>
       <c r="B56" s="24">
         <v>44708</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
+      <c r="A57" s="56"/>
       <c r="B57" s="24">
         <v>44709</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="56"/>
       <c r="B58" s="24">
         <v>44710</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="56"/>
       <c r="B59" s="24">
         <v>44711</v>
       </c>
@@ -12051,7 +12051,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12119,7 +12119,7 @@
         <v>977</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="57" t="s">
         <v>852</v>
       </c>
       <c r="G3" s="37">
@@ -12145,7 +12145,7 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="37">
         <v>31</v>
       </c>
@@ -12173,7 +12173,7 @@
       <c r="E5" s="2">
         <v>2</v>
       </c>
-      <c r="F5" s="53"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="37">
         <v>15</v>
       </c>
@@ -12201,7 +12201,7 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="53"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="37"/>
       <c r="H6" s="20">
         <v>3</v>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="53"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="37"/>
       <c r="H7" s="20"/>
       <c r="I7" s="9">
@@ -12245,7 +12245,7 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F8" s="53"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="37">
         <f>SUM(G3:G7)</f>
         <v>59</v>
@@ -12268,7 +12268,7 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="54"/>
+      <c r="F9" s="59"/>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12283,7 +12283,7 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="57" t="s">
         <v>851</v>
       </c>
       <c r="G10" s="35"/>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="53"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="35"/>
       <c r="H11">
         <v>3</v>
@@ -12337,7 +12337,7 @@
       <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F12" s="53"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="35"/>
       <c r="H12">
         <v>4</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="53"/>
+      <c r="F13" s="58"/>
       <c r="G13" s="35"/>
       <c r="H13">
         <v>5</v>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="54"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="35"/>
       <c r="H14">
         <v>6</v>
@@ -12430,7 +12430,7 @@
       <c r="E15" s="2">
         <v>6</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="57" t="s">
         <v>849</v>
       </c>
       <c r="G15" s="35"/>
@@ -12464,7 +12464,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="53"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="35"/>
       <c r="H16">
         <v>8</v>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="53"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="35"/>
       <c r="H17">
         <v>9</v>
@@ -12523,7 +12523,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="54"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="35"/>
       <c r="H18">
         <v>10</v>
@@ -12552,7 +12552,7 @@
       <c r="E19" s="2">
         <v>6</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="57" t="s">
         <v>850</v>
       </c>
       <c r="G19" s="35"/>
@@ -12586,7 +12586,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="53"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="35"/>
       <c r="H20">
         <v>12</v>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="54"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="35"/>
       <c r="H21">
         <v>13</v>
@@ -12695,7 +12695,7 @@
       <c r="E23" s="2">
         <v>6</v>
       </c>
-      <c r="F23" s="55" t="s">
+      <c r="F23" s="60" t="s">
         <v>848</v>
       </c>
       <c r="G23" s="36"/>
@@ -12733,7 +12733,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="56"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="36"/>
       <c r="H24">
         <v>16</v>
@@ -12760,7 +12760,7 @@
       <c r="E25" s="2">
         <v>6</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="57" t="s">
         <v>847</v>
       </c>
       <c r="G25" s="35"/>
@@ -12787,7 +12787,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="53"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="35"/>
       <c r="H26">
         <v>18</v>
@@ -12814,7 +12814,7 @@
       <c r="E27" s="2">
         <v>3</v>
       </c>
-      <c r="F27" s="53"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="35"/>
       <c r="H27">
         <v>19</v>
@@ -12841,7 +12841,7 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="54"/>
+      <c r="F28" s="59"/>
       <c r="G28" s="35"/>
       <c r="H28">
         <v>20</v>
@@ -12868,7 +12868,7 @@
       <c r="E29" s="4">
         <v>2</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="57" t="s">
         <v>846</v>
       </c>
       <c r="G29" s="35"/>
@@ -12897,7 +12897,7 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="53"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="35"/>
       <c r="H30">
         <v>22</v>
@@ -12924,7 +12924,7 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="53"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="35"/>
       <c r="H31">
         <v>23</v>
@@ -12949,7 +12949,7 @@
       <c r="E32" s="2">
         <v>5</v>
       </c>
-      <c r="F32" s="54"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="35"/>
       <c r="H32">
         <v>12</v>
@@ -13003,10 +13003,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13014,10 +13014,11 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>983</v>
       </c>
@@ -13030,197 +13031,197 @@
       </c>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41">
         <v>44669</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>981</v>
       </c>
       <c r="E2" s="31"/>
-      <c r="K2">
-        <f>(K3*14)</f>
+      <c r="L2">
+        <f>(L3*14)</f>
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42" t="s">
         <v>985</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
         <v>44670</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>980</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="K3">
+      <c r="E3" s="44"/>
+      <c r="L3">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="46">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>986</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>44671</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>980</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>984</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45">
         <v>2</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>987</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>44672</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>1000</v>
       </c>
-      <c r="K5" s="57">
+      <c r="L5" s="51">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45">
         <v>3</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>988</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>44673</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>993</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>866</v>
       </c>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="46">
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="45">
         <v>4</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>989</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="43">
         <v>44674</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="42" t="s">
         <v>982</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="44" t="s">
         <v>1001</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>982</v>
       </c>
-      <c r="K7" s="40">
+      <c r="L7" s="50">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="46">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="45">
         <v>5</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>990</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="43">
         <v>44675</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="48" t="s">
         <v>1002</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>994</v>
       </c>
-      <c r="K8" s="40">
+      <c r="L8" s="50">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="46">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="45">
         <v>6</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="42" t="s">
         <v>991</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="43">
         <v>44676</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="48" t="s">
         <v>1003</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>995</v>
       </c>
-      <c r="K9" s="40">
+      <c r="L9" s="50">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="58">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="52">
         <v>7</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="53" t="s">
         <v>985</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="54">
         <v>44677</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="53" t="s">
         <v>871</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="55" t="s">
         <v>1004</v>
       </c>
       <c r="F10" t="s">
         <v>1006</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>872</v>
       </c>
-      <c r="K10" s="40">
+      <c r="L10" s="50">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>8</v>
       </c>
@@ -13239,14 +13240,14 @@
       <c r="F11" t="s">
         <v>1007</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>871</v>
       </c>
-      <c r="K11" s="48">
+      <c r="L11" s="47">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>9</v>
       </c>
@@ -13263,12 +13264,12 @@
       <c r="F12" t="s">
         <v>1008</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>709</v>
       </c>
-      <c r="K12" s="48"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="47"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>10</v>
       </c>
@@ -13282,9 +13283,9 @@
         <v>709</v>
       </c>
       <c r="E13" s="31"/>
-      <c r="K13" s="48"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="47"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>11</v>
       </c>
@@ -13298,9 +13299,9 @@
         <v>709</v>
       </c>
       <c r="E14" s="31"/>
-      <c r="K14" s="48"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="47"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>12</v>
       </c>
@@ -13314,9 +13315,9 @@
         <v>709</v>
       </c>
       <c r="E15" s="31"/>
-      <c r="K15" s="48"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="47"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>13</v>
       </c>
@@ -13330,9 +13331,9 @@
         <v>709</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="K16" s="48"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>14</v>
       </c>
@@ -13346,16 +13347,16 @@
         <v>873</v>
       </c>
       <c r="E17" s="31"/>
-      <c r="K17" s="40">
-        <f>SUM(K5:K16)</f>
+      <c r="L17" s="50">
+        <f>SUM(L5:L16)</f>
         <v>159</v>
       </c>
-      <c r="L17" s="50">
-        <f xml:space="preserve"> K17/14</f>
+      <c r="M17" s="49">
+        <f xml:space="preserve"> L17/14</f>
         <v>11.357142857142858</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>15</v>
       </c>
@@ -13370,7 +13371,7 @@
       </c>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>16</v>
       </c>
@@ -13385,7 +13386,7 @@
       </c>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>17</v>
       </c>
@@ -13400,7 +13401,7 @@
       </c>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>18</v>
       </c>
@@ -13415,7 +13416,7 @@
       </c>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="20">
         <v>19</v>
       </c>
@@ -13430,7 +13431,7 @@
       </c>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="20">
         <v>20</v>
       </c>
@@ -13445,7 +13446,7 @@
       </c>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="20">
         <v>21</v>
       </c>
@@ -13460,7 +13461,7 @@
       </c>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>22</v>
       </c>
@@ -13475,7 +13476,7 @@
       </c>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="20">
         <v>23</v>
       </c>
@@ -13490,7 +13491,7 @@
       </c>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="20">
         <v>24</v>
       </c>
@@ -13505,7 +13506,7 @@
       </c>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="20">
         <v>25</v>
       </c>
@@ -13520,7 +13521,7 @@
       </c>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="20">
         <v>26</v>
       </c>
@@ -13535,7 +13536,7 @@
       </c>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="20">
         <v>27</v>
       </c>
@@ -13550,7 +13551,7 @@
       </c>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="20">
         <v>28</v>
       </c>
@@ -13565,7 +13566,7 @@
       </c>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20">
         <v>29</v>
       </c>
@@ -13973,9 +13974,6 @@
       <c r="E61" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K5:K6"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1010">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3096,6 +3096,9 @@
   </si>
   <si>
     <t>112, 113, 114 videos</t>
+  </si>
+  <si>
+    <t>AWS, K8S</t>
   </si>
 </sst>
 </file>
@@ -13006,7 +13009,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13043,7 +13046,7 @@
       <c r="E2" s="31"/>
       <c r="L2">
         <f>(L3*14)</f>
-        <v>182</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -13059,7 +13062,7 @@
       </c>
       <c r="E3" s="44"/>
       <c r="L3">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -13232,7 +13235,7 @@
         <v>44678</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>709</v>
+        <v>1009</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>1005</v>
@@ -13258,7 +13261,7 @@
         <v>44679</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" t="s">
@@ -13267,7 +13270,9 @@
       <c r="J12" t="s">
         <v>709</v>
       </c>
-      <c r="L12" s="47"/>
+      <c r="L12" s="47">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
@@ -13280,7 +13285,7 @@
         <v>44680</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E13" s="31"/>
       <c r="L13" s="47"/>
@@ -13296,7 +13301,7 @@
         <v>44681</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E14" s="31"/>
       <c r="L14" s="47"/>
@@ -13312,7 +13317,7 @@
         <v>44682</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E15" s="31"/>
       <c r="L15" s="47"/>
@@ -13328,7 +13333,7 @@
         <v>44683</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>709</v>
+        <v>873</v>
       </c>
       <c r="E16" s="31"/>
       <c r="L16" s="47"/>
@@ -13344,16 +13349,16 @@
         <v>44684</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E17" s="31"/>
       <c r="L17" s="50">
         <f>SUM(L5:L16)</f>
-        <v>159</v>
+        <v>229</v>
       </c>
       <c r="M17" s="49">
         <f xml:space="preserve"> L17/14</f>
-        <v>11.357142857142858</v>
+        <v>16.357142857142858</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -13367,7 +13372,7 @@
         <v>44685</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E18" s="31"/>
     </row>
@@ -13382,7 +13387,7 @@
         <v>44686</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E19" s="31"/>
     </row>
@@ -13397,7 +13402,7 @@
         <v>44687</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E20" s="31"/>
     </row>
@@ -13412,7 +13417,7 @@
         <v>44688</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>873</v>
+        <v>712</v>
       </c>
       <c r="E21" s="31"/>
     </row>
@@ -13427,7 +13432,7 @@
         <v>44689</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="E22" s="31"/>
     </row>
@@ -13442,7 +13447,7 @@
         <v>44690</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="E23" s="31"/>
     </row>
@@ -13457,7 +13462,7 @@
         <v>44691</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>878</v>
+        <v>712</v>
       </c>
       <c r="E24" s="31"/>
     </row>
@@ -13502,7 +13507,7 @@
         <v>44694</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E27" s="31"/>
     </row>
@@ -13517,7 +13522,7 @@
         <v>44695</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E28" s="31"/>
     </row>
@@ -13532,7 +13537,7 @@
         <v>44696</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E29" s="31"/>
     </row>
@@ -13547,7 +13552,7 @@
         <v>44697</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E30" s="31"/>
     </row>
@@ -13562,7 +13567,7 @@
         <v>44698</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>712</v>
+        <v>755</v>
       </c>
       <c r="E31" s="31"/>
     </row>
@@ -13577,7 +13582,7 @@
         <v>44699</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>755</v>
+        <v>876</v>
       </c>
       <c r="E32" s="31"/>
     </row>
@@ -13592,7 +13597,7 @@
         <v>44700</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>755</v>
+        <v>876</v>
       </c>
       <c r="E33" s="31"/>
     </row>
@@ -13607,7 +13612,7 @@
         <v>44701</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>755</v>
+        <v>996</v>
       </c>
       <c r="E34" s="31"/>
     </row>
@@ -13622,7 +13627,7 @@
         <v>44702</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>755</v>
+        <v>996</v>
       </c>
       <c r="E35" s="31"/>
     </row>
@@ -13637,7 +13642,7 @@
         <v>44703</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>755</v>
+        <v>997</v>
       </c>
       <c r="E36" s="31"/>
     </row>
@@ -13652,7 +13657,7 @@
         <v>44704</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>876</v>
+        <v>997</v>
       </c>
       <c r="E37" s="31"/>
     </row>
@@ -13667,7 +13672,7 @@
         <v>44705</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>876</v>
+        <v>611</v>
       </c>
       <c r="E38" s="31"/>
     </row>
@@ -13682,7 +13687,7 @@
         <v>44706</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>996</v>
+        <v>611</v>
       </c>
       <c r="E39" s="31"/>
     </row>
@@ -13697,7 +13702,7 @@
         <v>44707</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>996</v>
+        <v>611</v>
       </c>
       <c r="E40" s="31"/>
     </row>
@@ -13712,7 +13717,7 @@
         <v>44708</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E41" s="31"/>
     </row>
@@ -13727,7 +13732,7 @@
         <v>44709</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E42" s="31"/>
     </row>
@@ -13741,9 +13746,6 @@
       <c r="C43" s="39">
         <v>44710</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="E43" s="31"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -13756,9 +13758,6 @@
       <c r="C44" s="39">
         <v>44711</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="E44" s="31"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13771,9 +13770,6 @@
       <c r="C45" s="39">
         <v>44712</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>611</v>
-      </c>
       <c r="E45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13786,9 +13782,6 @@
       <c r="C46" s="39">
         <v>44713</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>998</v>
-      </c>
       <c r="E46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -13800,9 +13793,6 @@
       </c>
       <c r="C47" s="39">
         <v>44714</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="E47" s="31"/>
     </row>

--- a/Resume_avk/.DBN-DSN.xlsx
+++ b/Resume_avk/.DBN-DSN.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="1010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1011">
   <si>
     <t>1 - Bootcamp Overview + Tools Installation Checklist</t>
   </si>
@@ -3099,6 +3099,9 @@
   </si>
   <si>
     <t>AWS, K8S</t>
+  </si>
+  <si>
+    <t>CKA Srinath Challa</t>
   </si>
 </sst>
 </file>
@@ -3261,7 +3264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3395,6 +3398,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13009,7 +13020,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13225,19 +13236,19 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="62">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="63" t="s">
         <v>986</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="64">
         <v>44678</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="63" t="s">
         <v>1009</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="65" t="s">
         <v>1005</v>
       </c>
       <c r="F11" t="s">
@@ -13263,7 +13274,9 @@
       <c r="D12" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>1010</v>
+      </c>
       <c r="F12" t="s">
         <v>1008</v>
       </c>
